--- a/Assets/06.Table/TransTowerTable.xlsx
+++ b/Assets/06.Table/TransTowerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PYJ\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA381A6-58C1-4A32-8B4B-15DF2BAEAC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1362829-94E0-43B7-A6B8-09A7D1FFB5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="6360" yWindow="4665" windowWidth="30840" windowHeight="15060" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TransTowerTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
   <si>
     <t>단위 환산 표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -465,7 +465,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -549,6 +549,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -865,11 +868,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -883,7 +886,7 @@
     <col min="8" max="8" width="13.625" customWidth="1"/>
     <col min="9" max="9" width="15.25" customWidth="1"/>
     <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -1036,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="21">
-        <f t="shared" ref="J4:J9" si="0">J3+1000</f>
+        <f t="shared" ref="J4:J11" si="0">J3+1000</f>
         <v>4000</v>
       </c>
       <c r="K4" s="21">
@@ -1250,6 +1253,45 @@
       <c r="L9" s="21">
         <f>VLOOKUP(A9,Balance!E:K,7,FALSE)</f>
         <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
+        <v>8</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="21">
+        <v>9040</v>
+      </c>
+      <c r="D10" s="21">
+        <v>5</v>
+      </c>
+      <c r="E10" s="21">
+        <v>1</v>
+      </c>
+      <c r="F10" s="28">
+        <v>1.0000000000000001E+136</v>
+      </c>
+      <c r="G10" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="21">
+        <v>8</v>
+      </c>
+      <c r="I10" s="21">
+        <v>0</v>
+      </c>
+      <c r="J10" s="21">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="K10" s="21">
+        <v>9037</v>
+      </c>
+      <c r="L10" s="21">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1263,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M40" sqref="M31:M40"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1423,7 +1465,7 @@
         <v>25</v>
       </c>
       <c r="J9" s="6" t="str">
-        <f t="shared" ref="J9:J16" si="0">VLOOKUP(I9,M:P,4,FALSE)</f>
+        <f t="shared" ref="J9:J17" si="0">VLOOKUP(I9,M:P,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="K9" s="2">
@@ -1455,7 +1497,7 @@
         <v>1긍</v>
       </c>
       <c r="G10" s="7">
-        <f t="shared" ref="G10:G16" si="3">H10*J10</f>
+        <f t="shared" ref="G10:G17" si="3">H10*J10</f>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="H10" s="7">
@@ -2352,11 +2394,11 @@
         <v>132</v>
       </c>
       <c r="O40" s="7">
-        <f t="shared" ref="O40" si="5">POWER(10,N40)</f>
+        <f t="shared" ref="O40:O41" si="5">POWER(10,N40)</f>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="P40" s="7" t="str">
-        <f t="shared" ref="P40" si="6">RIGHT(O40,N40)</f>
+        <f t="shared" ref="P40:P41" si="6">RIGHT(O40,N40)</f>
         <v>1E+132</v>
       </c>
       <c r="Q40" s="2"/>

--- a/Assets/06.Table/TransTowerTable.xlsx
+++ b/Assets/06.Table/TransTowerTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PYJ\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1362829-94E0-43B7-A6B8-09A7D1FFB5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27331ACA-AA6A-484C-A2D9-62CE7DAC5F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="4665" windowWidth="30840" windowHeight="15060" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TransTowerTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
   <si>
     <t>단위 환산 표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,6 +280,14 @@
   </si>
   <si>
     <t>1-1</t>
+  </si>
+  <si>
+    <t>적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -465,7 +473,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -549,9 +557,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -868,11 +873,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -961,7 +966,7 @@
         <v>2000</v>
       </c>
       <c r="K2" s="21">
-        <v>9037</v>
+        <v>9040</v>
       </c>
       <c r="L2" s="21">
         <f>VLOOKUP(A2,Balance!E:K,7,FALSE)</f>
@@ -1002,7 +1007,7 @@
         <v>3000</v>
       </c>
       <c r="K3" s="21">
-        <v>9037</v>
+        <v>9040</v>
       </c>
       <c r="L3" s="21">
         <f>VLOOKUP(A3,Balance!E:K,7,FALSE)</f>
@@ -1043,7 +1048,7 @@
         <v>4000</v>
       </c>
       <c r="K4" s="21">
-        <v>9037</v>
+        <v>9040</v>
       </c>
       <c r="L4" s="21">
         <f>VLOOKUP(A4,Balance!E:K,7,FALSE)</f>
@@ -1084,7 +1089,7 @@
         <v>5000</v>
       </c>
       <c r="K5" s="21">
-        <v>9037</v>
+        <v>9040</v>
       </c>
       <c r="L5" s="21">
         <f>VLOOKUP(A5,Balance!E:K,7,FALSE)</f>
@@ -1125,7 +1130,7 @@
         <v>6000</v>
       </c>
       <c r="K6" s="21">
-        <v>9037</v>
+        <v>9040</v>
       </c>
       <c r="L6" s="21">
         <f>VLOOKUP(A6,Balance!E:K,7,FALSE)</f>
@@ -1166,7 +1171,7 @@
         <v>7000</v>
       </c>
       <c r="K7" s="21">
-        <v>9037</v>
+        <v>9040</v>
       </c>
       <c r="L7" s="21">
         <f>VLOOKUP(A7,Balance!E:K,7,FALSE)</f>
@@ -1207,7 +1212,7 @@
         <v>8000</v>
       </c>
       <c r="K8" s="21">
-        <v>9037</v>
+        <v>9040</v>
       </c>
       <c r="L8" s="21">
         <f>VLOOKUP(A8,Balance!E:K,7,FALSE)</f>
@@ -1248,7 +1253,7 @@
         <v>9000</v>
       </c>
       <c r="K9" s="21">
-        <v>9037</v>
+        <v>9040</v>
       </c>
       <c r="L9" s="21">
         <f>VLOOKUP(A9,Balance!E:K,7,FALSE)</f>
@@ -1271,7 +1276,8 @@
       <c r="E10" s="21">
         <v>1</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="22">
+        <f>VLOOKUP(A10,Balance!E:J,3,FALSE)</f>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="G10" s="21">
@@ -1288,10 +1294,52 @@
         <v>10000</v>
       </c>
       <c r="K10" s="21">
-        <v>9037</v>
+        <v>9040</v>
       </c>
       <c r="L10" s="21">
+        <f>VLOOKUP(A10,Balance!E:K,7,FALSE)</f>
         <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="21">
+        <v>9</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="21">
+        <v>9040</v>
+      </c>
+      <c r="D11" s="21">
+        <v>5</v>
+      </c>
+      <c r="E11" s="21">
+        <v>1</v>
+      </c>
+      <c r="F11" s="22">
+        <f>VLOOKUP(A11,Balance!E:J,3,FALSE)</f>
+        <v>1.0000000000000001E+140</v>
+      </c>
+      <c r="G11" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="21">
+        <v>8</v>
+      </c>
+      <c r="I11" s="21">
+        <v>0</v>
+      </c>
+      <c r="J11" s="21">
+        <f t="shared" si="0"/>
+        <v>11000</v>
+      </c>
+      <c r="K11" s="21">
+        <v>9040</v>
+      </c>
+      <c r="L11" s="21">
+        <f>VLOOKUP(A11,Balance!E:K,7,FALSE)</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1305,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1465,7 +1513,7 @@
         <v>25</v>
       </c>
       <c r="J9" s="6" t="str">
-        <f t="shared" ref="J9:J17" si="0">VLOOKUP(I9,M:P,4,FALSE)</f>
+        <f t="shared" ref="J9:J16" si="0">VLOOKUP(I9,M:P,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="K9" s="2">
@@ -1497,7 +1545,7 @@
         <v>1긍</v>
       </c>
       <c r="G10" s="7">
-        <f t="shared" ref="G10:G17" si="3">H10*J10</f>
+        <f t="shared" ref="G10:G16" si="3">H10*J10</f>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="H10" s="7">
@@ -1783,12 +1831,30 @@
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C17" s="16"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="E17" s="6">
+        <v>8</v>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f t="shared" ref="F17:F18" si="5">H17&amp;I17</f>
+        <v>1적</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" ref="G17:G18" si="6">H17*J17</f>
+        <v>1.0000000000000001E+136</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="6" t="str">
+        <f t="shared" ref="J17:J18" si="7">VLOOKUP(I17,M:P,4,FALSE)</f>
+        <v>1E+136</v>
+      </c>
+      <c r="K17" s="2">
+        <v>9</v>
+      </c>
       <c r="L17" s="17"/>
       <c r="M17" s="6" t="s">
         <v>15</v>
@@ -1807,12 +1873,30 @@
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C18" s="16"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="E18" s="6">
+        <v>9</v>
+      </c>
+      <c r="F18" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>1고</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="6"/>
+        <v>1.0000000000000001E+140</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>1E+140</v>
+      </c>
+      <c r="K18" s="2">
+        <v>10</v>
+      </c>
       <c r="L18" s="17"/>
       <c r="M18" s="6" t="s">
         <v>16</v>
@@ -2394,11 +2478,11 @@
         <v>132</v>
       </c>
       <c r="O40" s="7">
-        <f t="shared" ref="O40:O41" si="5">POWER(10,N40)</f>
+        <f t="shared" ref="O40" si="8">POWER(10,N40)</f>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="P40" s="7" t="str">
-        <f t="shared" ref="P40:P41" si="6">RIGHT(O40,N40)</f>
+        <f t="shared" ref="P40" si="9">RIGHT(O40,N40)</f>
         <v>1E+132</v>
       </c>
       <c r="Q40" s="2"/>
@@ -2419,8 +2503,20 @@
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="L41" s="17"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
+      <c r="M41" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N41" s="6">
+        <v>136</v>
+      </c>
+      <c r="O41" s="7">
+        <f t="shared" ref="O41:O42" si="10">POWER(10,N41)</f>
+        <v>1.0000000000000001E+136</v>
+      </c>
+      <c r="P41" s="7" t="str">
+        <f t="shared" ref="P41:P42" si="11">RIGHT(O41,N41)</f>
+        <v>1E+136</v>
+      </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
@@ -2439,8 +2535,20 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="L42" s="17"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
+      <c r="M42" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N42" s="6">
+        <v>140</v>
+      </c>
+      <c r="O42" s="7">
+        <f t="shared" si="10"/>
+        <v>1.0000000000000001E+140</v>
+      </c>
+      <c r="P42" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v>1E+140</v>
+      </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>

--- a/Assets/06.Table/TransTowerTable.xlsx
+++ b/Assets/06.Table/TransTowerTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27331ACA-AA6A-484C-A2D9-62CE7DAC5F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2DCDC5-EEC5-4121-805C-F3C52C8A282F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
   <si>
     <t>단위 환산 표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -287,6 +287,10 @@
   </si>
   <si>
     <t>고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -873,11 +877,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1044,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="21">
-        <f t="shared" ref="J4:J11" si="0">J3+1000</f>
+        <f t="shared" ref="J4:J12" si="0">J3+1000</f>
         <v>4000</v>
       </c>
       <c r="K4" s="21">
@@ -1340,6 +1344,47 @@
       <c r="L11" s="21">
         <f>VLOOKUP(A11,Balance!E:K,7,FALSE)</f>
         <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="21">
+        <v>10</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="21">
+        <v>9040</v>
+      </c>
+      <c r="D12" s="21">
+        <v>5</v>
+      </c>
+      <c r="E12" s="21">
+        <v>1</v>
+      </c>
+      <c r="F12" s="22">
+        <f>VLOOKUP(A12,Balance!E:J,3,FALSE)</f>
+        <v>1E+144</v>
+      </c>
+      <c r="G12" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="21">
+        <v>8</v>
+      </c>
+      <c r="I12" s="21">
+        <v>0</v>
+      </c>
+      <c r="J12" s="21">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+      <c r="K12" s="21">
+        <v>9040</v>
+      </c>
+      <c r="L12" s="21">
+        <f>VLOOKUP(A12,Balance!E:K,7,FALSE)</f>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1353,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1915,12 +1960,30 @@
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C19" s="16"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="E19" s="6">
+        <v>10</v>
+      </c>
+      <c r="F19" s="7" t="str">
+        <f t="shared" ref="F19" si="8">H19&amp;I19</f>
+        <v>1화</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" ref="G19" si="9">H19*J19</f>
+        <v>1E+144</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="6" t="str">
+        <f t="shared" ref="J19" si="10">VLOOKUP(I19,M:P,4,FALSE)</f>
+        <v>1E+144</v>
+      </c>
+      <c r="K19" s="2">
+        <v>11</v>
+      </c>
       <c r="L19" s="17"/>
       <c r="M19" s="6" t="s">
         <v>17</v>
@@ -2478,11 +2541,11 @@
         <v>132</v>
       </c>
       <c r="O40" s="7">
-        <f t="shared" ref="O40" si="8">POWER(10,N40)</f>
+        <f t="shared" ref="O40" si="11">POWER(10,N40)</f>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="P40" s="7" t="str">
-        <f t="shared" ref="P40" si="9">RIGHT(O40,N40)</f>
+        <f t="shared" ref="P40" si="12">RIGHT(O40,N40)</f>
         <v>1E+132</v>
       </c>
       <c r="Q40" s="2"/>
@@ -2510,11 +2573,11 @@
         <v>136</v>
       </c>
       <c r="O41" s="7">
-        <f t="shared" ref="O41:O42" si="10">POWER(10,N41)</f>
+        <f t="shared" ref="O41:O42" si="13">POWER(10,N41)</f>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="P41" s="7" t="str">
-        <f t="shared" ref="P41:P42" si="11">RIGHT(O41,N41)</f>
+        <f t="shared" ref="P41:P42" si="14">RIGHT(O41,N41)</f>
         <v>1E+136</v>
       </c>
       <c r="Q41" s="2"/>
@@ -2542,11 +2605,11 @@
         <v>140</v>
       </c>
       <c r="O42" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="P42" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1E+140</v>
       </c>
       <c r="Q42" s="2"/>
@@ -2567,8 +2630,20 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="L43" s="17"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
+      <c r="M43" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N43" s="6">
+        <v>144</v>
+      </c>
+      <c r="O43" s="7">
+        <f t="shared" ref="O43" si="15">POWER(10,N43)</f>
+        <v>1E+144</v>
+      </c>
+      <c r="P43" s="7" t="str">
+        <f t="shared" ref="P43" si="16">RIGHT(O43,N43)</f>
+        <v>1E+144</v>
+      </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>

--- a/Assets/06.Table/TransTowerTable.xlsx
+++ b/Assets/06.Table/TransTowerTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2DCDC5-EEC5-4121-805C-F3C52C8A282F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1F8E9D-8006-4D9E-9077-846FE2196929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TransTowerTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
   <si>
     <t>단위 환산 표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,6 +291,10 @@
   </si>
   <si>
     <t>화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -877,11 +881,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1048,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="21">
-        <f t="shared" ref="J4:J12" si="0">J3+1000</f>
+        <f t="shared" ref="J4:J13" si="0">J3+1000</f>
         <v>4000</v>
       </c>
       <c r="K4" s="21">
@@ -1385,6 +1389,47 @@
       <c r="L12" s="21">
         <f>VLOOKUP(A12,Balance!E:K,7,FALSE)</f>
         <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="21">
+        <v>11</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="21">
+        <v>9040</v>
+      </c>
+      <c r="D13" s="21">
+        <v>5</v>
+      </c>
+      <c r="E13" s="21">
+        <v>1</v>
+      </c>
+      <c r="F13" s="22">
+        <f>VLOOKUP(A13,Balance!E:J,3,FALSE)</f>
+        <v>1E+148</v>
+      </c>
+      <c r="G13" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H13" s="21">
+        <v>8</v>
+      </c>
+      <c r="I13" s="21">
+        <v>0</v>
+      </c>
+      <c r="J13" s="21">
+        <f t="shared" si="0"/>
+        <v>13000</v>
+      </c>
+      <c r="K13" s="21">
+        <v>9040</v>
+      </c>
+      <c r="L13" s="21">
+        <f>VLOOKUP(A13,Balance!E:K,7,FALSE)</f>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1399,7 +1444,7 @@
   <dimension ref="A1:Y256"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1964,11 +2009,11 @@
         <v>10</v>
       </c>
       <c r="F19" s="7" t="str">
-        <f t="shared" ref="F19" si="8">H19&amp;I19</f>
+        <f t="shared" ref="F19:F20" si="8">H19&amp;I19</f>
         <v>1화</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" ref="G19" si="9">H19*J19</f>
+        <f t="shared" ref="G19:G20" si="9">H19*J19</f>
         <v>1E+144</v>
       </c>
       <c r="H19" s="7">
@@ -1978,7 +2023,7 @@
         <v>64</v>
       </c>
       <c r="J19" s="6" t="str">
-        <f t="shared" ref="J19" si="10">VLOOKUP(I19,M:P,4,FALSE)</f>
+        <f t="shared" ref="J19:J20" si="10">VLOOKUP(I19,M:P,4,FALSE)</f>
         <v>1E+144</v>
       </c>
       <c r="K19" s="2">
@@ -2002,12 +2047,30 @@
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C20" s="16"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="E20" s="6">
+        <v>11</v>
+      </c>
+      <c r="F20" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>1명</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="9"/>
+        <v>1E+148</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>1E+148</v>
+      </c>
+      <c r="K20" s="2">
+        <v>12</v>
+      </c>
       <c r="L20" s="17"/>
       <c r="M20" s="6" t="s">
         <v>19</v>
@@ -2662,8 +2725,20 @@
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="L44" s="17"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
+      <c r="M44" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N44" s="6">
+        <v>148</v>
+      </c>
+      <c r="O44" s="7">
+        <f t="shared" ref="O44" si="17">POWER(10,N44)</f>
+        <v>1E+148</v>
+      </c>
+      <c r="P44" s="7" t="str">
+        <f t="shared" ref="P44" si="18">RIGHT(O44,N44)</f>
+        <v>1E+148</v>
+      </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>

--- a/Assets/06.Table/TransTowerTable.xlsx
+++ b/Assets/06.Table/TransTowerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1F8E9D-8006-4D9E-9077-846FE2196929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D932D1C4-18E5-416F-9959-0AC9B52D6962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TransTowerTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
   <si>
     <t>단위 환산 표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,6 +295,14 @@
   </si>
   <si>
     <t>명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -881,11 +889,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1052,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="21">
-        <f t="shared" ref="J4:J13" si="0">J3+1000</f>
+        <f t="shared" ref="J4:J15" si="0">J3+1000</f>
         <v>4000</v>
       </c>
       <c r="K4" s="21">
@@ -1430,6 +1438,88 @@
       <c r="L13" s="21">
         <f>VLOOKUP(A13,Balance!E:K,7,FALSE)</f>
         <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="21">
+        <v>12</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="21">
+        <v>9040</v>
+      </c>
+      <c r="D14" s="21">
+        <v>5</v>
+      </c>
+      <c r="E14" s="21">
+        <v>1</v>
+      </c>
+      <c r="F14" s="22">
+        <f>VLOOKUP(A14,Balance!E:J,3,FALSE)</f>
+        <v>1E+152</v>
+      </c>
+      <c r="G14" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="21">
+        <v>8</v>
+      </c>
+      <c r="I14" s="21">
+        <v>0</v>
+      </c>
+      <c r="J14" s="21">
+        <f t="shared" si="0"/>
+        <v>14000</v>
+      </c>
+      <c r="K14" s="21">
+        <v>9040</v>
+      </c>
+      <c r="L14" s="21">
+        <f>VLOOKUP(A14,Balance!E:K,7,FALSE)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="21">
+        <v>13</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="21">
+        <v>9040</v>
+      </c>
+      <c r="D15" s="21">
+        <v>5</v>
+      </c>
+      <c r="E15" s="21">
+        <v>1</v>
+      </c>
+      <c r="F15" s="22">
+        <f>VLOOKUP(A15,Balance!E:J,3,FALSE)</f>
+        <v>9.9999999999999998E+155</v>
+      </c>
+      <c r="G15" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H15" s="21">
+        <v>8</v>
+      </c>
+      <c r="I15" s="21">
+        <v>0</v>
+      </c>
+      <c r="J15" s="21">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="K15" s="21">
+        <v>9040</v>
+      </c>
+      <c r="L15" s="21">
+        <f>VLOOKUP(A15,Balance!E:K,7,FALSE)</f>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1443,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2089,12 +2179,30 @@
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C21" s="16"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="E21" s="6">
+        <v>12</v>
+      </c>
+      <c r="F21" s="7" t="str">
+        <f>H21&amp;I21</f>
+        <v>1월</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" ref="G21" si="11">H21*J21</f>
+        <v>1E+152</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="6" t="str">
+        <f t="shared" ref="J21:J22" si="12">VLOOKUP(I21,M:P,4,FALSE)</f>
+        <v>1E+152</v>
+      </c>
+      <c r="K21" s="2">
+        <v>13</v>
+      </c>
       <c r="L21" s="17"/>
       <c r="M21" s="6" t="s">
         <v>20</v>
@@ -2113,12 +2221,30 @@
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C22" s="16"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="E22" s="6">
+        <v>13</v>
+      </c>
+      <c r="F22" s="7" t="str">
+        <f>H22&amp;I22</f>
+        <v>1후</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" ref="G22" si="13">H22*J22</f>
+        <v>9.9999999999999998E+155</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+156</v>
+      </c>
+      <c r="K22" s="2">
+        <v>14</v>
+      </c>
       <c r="L22" s="17"/>
       <c r="M22" s="6" t="s">
         <v>21</v>
@@ -2604,11 +2730,11 @@
         <v>132</v>
       </c>
       <c r="O40" s="7">
-        <f t="shared" ref="O40" si="11">POWER(10,N40)</f>
+        <f t="shared" ref="O40" si="14">POWER(10,N40)</f>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="P40" s="7" t="str">
-        <f t="shared" ref="P40" si="12">RIGHT(O40,N40)</f>
+        <f t="shared" ref="P40" si="15">RIGHT(O40,N40)</f>
         <v>1E+132</v>
       </c>
       <c r="Q40" s="2"/>
@@ -2636,11 +2762,11 @@
         <v>136</v>
       </c>
       <c r="O41" s="7">
-        <f t="shared" ref="O41:O42" si="13">POWER(10,N41)</f>
+        <f t="shared" ref="O41:O42" si="16">POWER(10,N41)</f>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="P41" s="7" t="str">
-        <f t="shared" ref="P41:P42" si="14">RIGHT(O41,N41)</f>
+        <f t="shared" ref="P41:P42" si="17">RIGHT(O41,N41)</f>
         <v>1E+136</v>
       </c>
       <c r="Q41" s="2"/>
@@ -2668,11 +2794,11 @@
         <v>140</v>
       </c>
       <c r="O42" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="P42" s="7" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1E+140</v>
       </c>
       <c r="Q42" s="2"/>
@@ -2700,11 +2826,11 @@
         <v>144</v>
       </c>
       <c r="O43" s="7">
-        <f t="shared" ref="O43" si="15">POWER(10,N43)</f>
+        <f t="shared" ref="O43" si="18">POWER(10,N43)</f>
         <v>1E+144</v>
       </c>
       <c r="P43" s="7" t="str">
-        <f t="shared" ref="P43" si="16">RIGHT(O43,N43)</f>
+        <f t="shared" ref="P43" si="19">RIGHT(O43,N43)</f>
         <v>1E+144</v>
       </c>
       <c r="Q43" s="2"/>
@@ -2732,11 +2858,11 @@
         <v>148</v>
       </c>
       <c r="O44" s="7">
-        <f t="shared" ref="O44" si="17">POWER(10,N44)</f>
+        <f t="shared" ref="O44" si="20">POWER(10,N44)</f>
         <v>1E+148</v>
       </c>
       <c r="P44" s="7" t="str">
-        <f t="shared" ref="P44" si="18">RIGHT(O44,N44)</f>
+        <f t="shared" ref="P44" si="21">RIGHT(O44,N44)</f>
         <v>1E+148</v>
       </c>
       <c r="Q44" s="2"/>
@@ -2757,8 +2883,20 @@
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="L45" s="17"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
+      <c r="M45" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N45" s="6">
+        <v>152</v>
+      </c>
+      <c r="O45" s="7">
+        <f t="shared" ref="O45" si="22">POWER(10,N45)</f>
+        <v>1E+152</v>
+      </c>
+      <c r="P45" s="7" t="str">
+        <f t="shared" ref="P45" si="23">RIGHT(O45,N45)</f>
+        <v>1E+152</v>
+      </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
@@ -2777,8 +2915,20 @@
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="L46" s="17"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
+      <c r="M46" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N46" s="6">
+        <v>156</v>
+      </c>
+      <c r="O46" s="7">
+        <f t="shared" ref="O46" si="24">POWER(10,N46)</f>
+        <v>9.9999999999999998E+155</v>
+      </c>
+      <c r="P46" s="7" t="str">
+        <f t="shared" ref="P46" si="25">RIGHT(O46,N46)</f>
+        <v>1E+156</v>
+      </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>

--- a/Assets/06.Table/TransTowerTable.xlsx
+++ b/Assets/06.Table/TransTowerTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D932D1C4-18E5-416F-9959-0AC9B52D6962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9632B2B3-C891-423F-AFBE-CA90312D0AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
   <si>
     <t>단위 환산 표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,6 +303,10 @@
   </si>
   <si>
     <t>후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -889,11 +893,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1060,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="21">
-        <f t="shared" ref="J4:J15" si="0">J3+1000</f>
+        <f t="shared" ref="J4:J16" si="0">J3+1000</f>
         <v>4000</v>
       </c>
       <c r="K4" s="21">
@@ -1520,6 +1524,47 @@
       <c r="L15" s="21">
         <f>VLOOKUP(A15,Balance!E:K,7,FALSE)</f>
         <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="21">
+        <v>14</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="21">
+        <v>9040</v>
+      </c>
+      <c r="D16" s="21">
+        <v>6</v>
+      </c>
+      <c r="E16" s="21">
+        <v>1</v>
+      </c>
+      <c r="F16" s="22">
+        <f>VLOOKUP(A16,Balance!E:J,3,FALSE)</f>
+        <v>1E+160</v>
+      </c>
+      <c r="G16" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H16" s="21">
+        <v>8</v>
+      </c>
+      <c r="I16" s="21">
+        <v>0</v>
+      </c>
+      <c r="J16" s="21">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+      <c r="K16" s="21">
+        <v>9040</v>
+      </c>
+      <c r="L16" s="21">
+        <f>VLOOKUP(A16,Balance!E:K,7,FALSE)</f>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1533,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2197,7 +2242,7 @@
         <v>66</v>
       </c>
       <c r="J21" s="6" t="str">
-        <f t="shared" ref="J21:J22" si="12">VLOOKUP(I21,M:P,4,FALSE)</f>
+        <f t="shared" ref="J21:J23" si="12">VLOOKUP(I21,M:P,4,FALSE)</f>
         <v>1E+152</v>
       </c>
       <c r="K21" s="2">
@@ -2229,7 +2274,7 @@
         <v>1후</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" ref="G22" si="13">H22*J22</f>
+        <f t="shared" ref="G22:G23" si="13">H22*J22</f>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="H22" s="7">
@@ -2262,12 +2307,30 @@
       </c>
     </row>
     <row r="23" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="E23" s="6">
+        <v>14</v>
+      </c>
+      <c r="F23" s="7" t="str">
+        <f t="shared" ref="F23" si="14">H23&amp;I23</f>
+        <v>1단</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="13"/>
+        <v>1E+160</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+160</v>
+      </c>
+      <c r="K23" s="2">
+        <v>15</v>
+      </c>
       <c r="L23" s="17"/>
       <c r="M23" s="6" t="s">
         <v>22</v>
@@ -2730,11 +2793,11 @@
         <v>132</v>
       </c>
       <c r="O40" s="7">
-        <f t="shared" ref="O40" si="14">POWER(10,N40)</f>
+        <f t="shared" ref="O40" si="15">POWER(10,N40)</f>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="P40" s="7" t="str">
-        <f t="shared" ref="P40" si="15">RIGHT(O40,N40)</f>
+        <f t="shared" ref="P40" si="16">RIGHT(O40,N40)</f>
         <v>1E+132</v>
       </c>
       <c r="Q40" s="2"/>
@@ -2762,11 +2825,11 @@
         <v>136</v>
       </c>
       <c r="O41" s="7">
-        <f t="shared" ref="O41:O42" si="16">POWER(10,N41)</f>
+        <f t="shared" ref="O41:O42" si="17">POWER(10,N41)</f>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="P41" s="7" t="str">
-        <f t="shared" ref="P41:P42" si="17">RIGHT(O41,N41)</f>
+        <f t="shared" ref="P41:P42" si="18">RIGHT(O41,N41)</f>
         <v>1E+136</v>
       </c>
       <c r="Q41" s="2"/>
@@ -2794,11 +2857,11 @@
         <v>140</v>
       </c>
       <c r="O42" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="P42" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1E+140</v>
       </c>
       <c r="Q42" s="2"/>
@@ -2826,11 +2889,11 @@
         <v>144</v>
       </c>
       <c r="O43" s="7">
-        <f t="shared" ref="O43" si="18">POWER(10,N43)</f>
+        <f t="shared" ref="O43" si="19">POWER(10,N43)</f>
         <v>1E+144</v>
       </c>
       <c r="P43" s="7" t="str">
-        <f t="shared" ref="P43" si="19">RIGHT(O43,N43)</f>
+        <f t="shared" ref="P43" si="20">RIGHT(O43,N43)</f>
         <v>1E+144</v>
       </c>
       <c r="Q43" s="2"/>
@@ -2858,11 +2921,11 @@
         <v>148</v>
       </c>
       <c r="O44" s="7">
-        <f t="shared" ref="O44" si="20">POWER(10,N44)</f>
+        <f t="shared" ref="O44" si="21">POWER(10,N44)</f>
         <v>1E+148</v>
       </c>
       <c r="P44" s="7" t="str">
-        <f t="shared" ref="P44" si="21">RIGHT(O44,N44)</f>
+        <f t="shared" ref="P44" si="22">RIGHT(O44,N44)</f>
         <v>1E+148</v>
       </c>
       <c r="Q44" s="2"/>
@@ -2890,11 +2953,11 @@
         <v>152</v>
       </c>
       <c r="O45" s="7">
-        <f t="shared" ref="O45" si="22">POWER(10,N45)</f>
+        <f t="shared" ref="O45" si="23">POWER(10,N45)</f>
         <v>1E+152</v>
       </c>
       <c r="P45" s="7" t="str">
-        <f t="shared" ref="P45" si="23">RIGHT(O45,N45)</f>
+        <f t="shared" ref="P45" si="24">RIGHT(O45,N45)</f>
         <v>1E+152</v>
       </c>
       <c r="Q45" s="2"/>
@@ -2922,11 +2985,11 @@
         <v>156</v>
       </c>
       <c r="O46" s="7">
-        <f t="shared" ref="O46" si="24">POWER(10,N46)</f>
+        <f t="shared" ref="O46" si="25">POWER(10,N46)</f>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="P46" s="7" t="str">
-        <f t="shared" ref="P46" si="25">RIGHT(O46,N46)</f>
+        <f t="shared" ref="P46" si="26">RIGHT(O46,N46)</f>
         <v>1E+156</v>
       </c>
       <c r="Q46" s="2"/>
@@ -2947,8 +3010,20 @@
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="L47" s="17"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
+      <c r="M47" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="N47" s="6">
+        <v>160</v>
+      </c>
+      <c r="O47" s="7">
+        <f t="shared" ref="O47" si="27">POWER(10,N47)</f>
+        <v>1E+160</v>
+      </c>
+      <c r="P47" s="7" t="str">
+        <f t="shared" ref="P47" si="28">RIGHT(O47,N47)</f>
+        <v>1E+160</v>
+      </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>

--- a/Assets/06.Table/TransTowerTable.xlsx
+++ b/Assets/06.Table/TransTowerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9632B2B3-C891-423F-AFBE-CA90312D0AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B313ADB5-324D-4AC8-9CC9-5CDE6116DD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TransTowerTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
   <si>
     <t>단위 환산 표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -307,6 +307,14 @@
   </si>
   <si>
     <t>단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -893,11 +901,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1064,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="21">
-        <f t="shared" ref="J4:J16" si="0">J3+1000</f>
+        <f t="shared" ref="J4:J17" si="0">J3+1000</f>
         <v>4000</v>
       </c>
       <c r="K4" s="21">
@@ -1565,6 +1573,47 @@
       <c r="L16" s="21">
         <f>VLOOKUP(A16,Balance!E:K,7,FALSE)</f>
         <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="21">
+        <v>15</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="21">
+        <v>9040</v>
+      </c>
+      <c r="D17" s="21">
+        <v>6</v>
+      </c>
+      <c r="E17" s="21">
+        <v>1</v>
+      </c>
+      <c r="F17" s="22">
+        <f>VLOOKUP(A17,Balance!E:J,3,FALSE)</f>
+        <v>1E+164</v>
+      </c>
+      <c r="G17" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="21">
+        <v>8</v>
+      </c>
+      <c r="I17" s="21">
+        <v>0</v>
+      </c>
+      <c r="J17" s="21">
+        <f t="shared" si="0"/>
+        <v>17000</v>
+      </c>
+      <c r="K17" s="21">
+        <v>9040</v>
+      </c>
+      <c r="L17" s="21">
+        <f>VLOOKUP(A17,Balance!E:K,7,FALSE)</f>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1578,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2274,7 +2323,7 @@
         <v>1후</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" ref="G22:G23" si="13">H22*J22</f>
+        <f t="shared" ref="G22:G24" si="13">H22*J22</f>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="H22" s="7">
@@ -2348,12 +2397,30 @@
       </c>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
+      <c r="E24" s="6">
+        <v>15</v>
+      </c>
+      <c r="F24" s="7" t="str">
+        <f>H24&amp;I24</f>
+        <v>1절</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="13"/>
+        <v>1E+164</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" s="6" t="str">
+        <f t="shared" ref="J24" si="15">VLOOKUP(I24,M:P,4,FALSE)</f>
+        <v>1E+164</v>
+      </c>
+      <c r="K24" s="2">
+        <v>16</v>
+      </c>
       <c r="L24" s="17"/>
       <c r="M24" s="6" t="s">
         <v>23</v>
@@ -2793,11 +2860,11 @@
         <v>132</v>
       </c>
       <c r="O40" s="7">
-        <f t="shared" ref="O40" si="15">POWER(10,N40)</f>
+        <f t="shared" ref="O40" si="16">POWER(10,N40)</f>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="P40" s="7" t="str">
-        <f t="shared" ref="P40" si="16">RIGHT(O40,N40)</f>
+        <f t="shared" ref="P40" si="17">RIGHT(O40,N40)</f>
         <v>1E+132</v>
       </c>
       <c r="Q40" s="2"/>
@@ -2825,11 +2892,11 @@
         <v>136</v>
       </c>
       <c r="O41" s="7">
-        <f t="shared" ref="O41:O42" si="17">POWER(10,N41)</f>
+        <f t="shared" ref="O41:O42" si="18">POWER(10,N41)</f>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="P41" s="7" t="str">
-        <f t="shared" ref="P41:P42" si="18">RIGHT(O41,N41)</f>
+        <f t="shared" ref="P41:P42" si="19">RIGHT(O41,N41)</f>
         <v>1E+136</v>
       </c>
       <c r="Q41" s="2"/>
@@ -2857,11 +2924,11 @@
         <v>140</v>
       </c>
       <c r="O42" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="P42" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1E+140</v>
       </c>
       <c r="Q42" s="2"/>
@@ -2889,11 +2956,11 @@
         <v>144</v>
       </c>
       <c r="O43" s="7">
-        <f t="shared" ref="O43" si="19">POWER(10,N43)</f>
+        <f t="shared" ref="O43" si="20">POWER(10,N43)</f>
         <v>1E+144</v>
       </c>
       <c r="P43" s="7" t="str">
-        <f t="shared" ref="P43" si="20">RIGHT(O43,N43)</f>
+        <f t="shared" ref="P43" si="21">RIGHT(O43,N43)</f>
         <v>1E+144</v>
       </c>
       <c r="Q43" s="2"/>
@@ -2921,11 +2988,11 @@
         <v>148</v>
       </c>
       <c r="O44" s="7">
-        <f t="shared" ref="O44" si="21">POWER(10,N44)</f>
+        <f t="shared" ref="O44" si="22">POWER(10,N44)</f>
         <v>1E+148</v>
       </c>
       <c r="P44" s="7" t="str">
-        <f t="shared" ref="P44" si="22">RIGHT(O44,N44)</f>
+        <f t="shared" ref="P44" si="23">RIGHT(O44,N44)</f>
         <v>1E+148</v>
       </c>
       <c r="Q44" s="2"/>
@@ -2953,11 +3020,11 @@
         <v>152</v>
       </c>
       <c r="O45" s="7">
-        <f t="shared" ref="O45" si="23">POWER(10,N45)</f>
+        <f t="shared" ref="O45" si="24">POWER(10,N45)</f>
         <v>1E+152</v>
       </c>
       <c r="P45" s="7" t="str">
-        <f t="shared" ref="P45" si="24">RIGHT(O45,N45)</f>
+        <f t="shared" ref="P45" si="25">RIGHT(O45,N45)</f>
         <v>1E+152</v>
       </c>
       <c r="Q45" s="2"/>
@@ -2985,11 +3052,11 @@
         <v>156</v>
       </c>
       <c r="O46" s="7">
-        <f t="shared" ref="O46" si="25">POWER(10,N46)</f>
+        <f t="shared" ref="O46" si="26">POWER(10,N46)</f>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="P46" s="7" t="str">
-        <f t="shared" ref="P46" si="26">RIGHT(O46,N46)</f>
+        <f t="shared" ref="P46" si="27">RIGHT(O46,N46)</f>
         <v>1E+156</v>
       </c>
       <c r="Q46" s="2"/>
@@ -3017,11 +3084,11 @@
         <v>160</v>
       </c>
       <c r="O47" s="7">
-        <f t="shared" ref="O47" si="27">POWER(10,N47)</f>
+        <f t="shared" ref="O47:O48" si="28">POWER(10,N47)</f>
         <v>1E+160</v>
       </c>
       <c r="P47" s="7" t="str">
-        <f t="shared" ref="P47" si="28">RIGHT(O47,N47)</f>
+        <f t="shared" ref="P47:P48" si="29">RIGHT(O47,N47)</f>
         <v>1E+160</v>
       </c>
       <c r="Q47" s="2"/>
@@ -3042,8 +3109,20 @@
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="L48" s="17"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
+      <c r="M48" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N48" s="6">
+        <v>164</v>
+      </c>
+      <c r="O48" s="7">
+        <f t="shared" si="28"/>
+        <v>1E+164</v>
+      </c>
+      <c r="P48" s="7" t="str">
+        <f t="shared" si="29"/>
+        <v>1E+164</v>
+      </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
@@ -3062,8 +3141,20 @@
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="L49" s="17"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
+      <c r="M49" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N49" s="6">
+        <v>168</v>
+      </c>
+      <c r="O49" s="7">
+        <f t="shared" ref="O49" si="30">POWER(10,N49)</f>
+        <v>9.9999999999999993E+167</v>
+      </c>
+      <c r="P49" s="7" t="str">
+        <f t="shared" ref="P49" si="31">RIGHT(O49,N49)</f>
+        <v>1E+168</v>
+      </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>

--- a/Assets/06.Table/TransTowerTable.xlsx
+++ b/Assets/06.Table/TransTowerTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B313ADB5-324D-4AC8-9CC9-5CDE6116DD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DFD2DA-5022-43DD-82D6-C81B614CBD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="73">
   <si>
     <t>단위 환산 표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,6 +315,14 @@
   </si>
   <si>
     <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -901,11 +909,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1072,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="21">
-        <f t="shared" ref="J4:J17" si="0">J3+1000</f>
+        <f t="shared" ref="J4:J18" si="0">J3+1000</f>
         <v>4000</v>
       </c>
       <c r="K4" s="21">
@@ -1614,6 +1622,47 @@
       <c r="L17" s="21">
         <f>VLOOKUP(A17,Balance!E:K,7,FALSE)</f>
         <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="21">
+        <v>16</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="21">
+        <v>9040</v>
+      </c>
+      <c r="D18" s="21">
+        <v>6</v>
+      </c>
+      <c r="E18" s="21">
+        <v>1</v>
+      </c>
+      <c r="F18" s="22">
+        <f>VLOOKUP(A18,Balance!E:J,3,FALSE)</f>
+        <v>9.9999999999999993E+167</v>
+      </c>
+      <c r="G18" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="21">
+        <v>8</v>
+      </c>
+      <c r="I18" s="21">
+        <v>0</v>
+      </c>
+      <c r="J18" s="21">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+      <c r="K18" s="21">
+        <v>9040</v>
+      </c>
+      <c r="L18" s="21">
+        <f>VLOOKUP(A18,Balance!E:K,7,FALSE)</f>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1627,8 +1676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2323,7 +2372,7 @@
         <v>1후</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" ref="G22:G24" si="13">H22*J22</f>
+        <f t="shared" ref="G22:G25" si="13">H22*J22</f>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="H22" s="7">
@@ -2415,7 +2464,7 @@
         <v>69</v>
       </c>
       <c r="J24" s="6" t="str">
-        <f t="shared" ref="J24" si="15">VLOOKUP(I24,M:P,4,FALSE)</f>
+        <f t="shared" ref="J24:J25" si="15">VLOOKUP(I24,M:P,4,FALSE)</f>
         <v>1E+164</v>
       </c>
       <c r="K24" s="2">
@@ -2438,12 +2487,30 @@
       </c>
     </row>
     <row r="25" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="E25" s="6"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
+      <c r="E25" s="6">
+        <v>16</v>
+      </c>
+      <c r="F25" s="7" t="str">
+        <f t="shared" ref="F25" si="16">H25&amp;I25</f>
+        <v>1격</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="13"/>
+        <v>9.9999999999999993E+167</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J25" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>1E+168</v>
+      </c>
+      <c r="K25" s="2">
+        <v>17</v>
+      </c>
       <c r="L25" s="17"/>
       <c r="M25" s="6" t="s">
         <v>24</v>
@@ -2860,11 +2927,11 @@
         <v>132</v>
       </c>
       <c r="O40" s="7">
-        <f t="shared" ref="O40" si="16">POWER(10,N40)</f>
+        <f t="shared" ref="O40" si="17">POWER(10,N40)</f>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="P40" s="7" t="str">
-        <f t="shared" ref="P40" si="17">RIGHT(O40,N40)</f>
+        <f t="shared" ref="P40" si="18">RIGHT(O40,N40)</f>
         <v>1E+132</v>
       </c>
       <c r="Q40" s="2"/>
@@ -2892,11 +2959,11 @@
         <v>136</v>
       </c>
       <c r="O41" s="7">
-        <f t="shared" ref="O41:O42" si="18">POWER(10,N41)</f>
+        <f t="shared" ref="O41:O42" si="19">POWER(10,N41)</f>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="P41" s="7" t="str">
-        <f t="shared" ref="P41:P42" si="19">RIGHT(O41,N41)</f>
+        <f t="shared" ref="P41:P42" si="20">RIGHT(O41,N41)</f>
         <v>1E+136</v>
       </c>
       <c r="Q41" s="2"/>
@@ -2924,11 +2991,11 @@
         <v>140</v>
       </c>
       <c r="O42" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="P42" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1E+140</v>
       </c>
       <c r="Q42" s="2"/>
@@ -2956,11 +3023,11 @@
         <v>144</v>
       </c>
       <c r="O43" s="7">
-        <f t="shared" ref="O43" si="20">POWER(10,N43)</f>
+        <f t="shared" ref="O43" si="21">POWER(10,N43)</f>
         <v>1E+144</v>
       </c>
       <c r="P43" s="7" t="str">
-        <f t="shared" ref="P43" si="21">RIGHT(O43,N43)</f>
+        <f t="shared" ref="P43" si="22">RIGHT(O43,N43)</f>
         <v>1E+144</v>
       </c>
       <c r="Q43" s="2"/>
@@ -2988,11 +3055,11 @@
         <v>148</v>
       </c>
       <c r="O44" s="7">
-        <f t="shared" ref="O44" si="22">POWER(10,N44)</f>
+        <f t="shared" ref="O44" si="23">POWER(10,N44)</f>
         <v>1E+148</v>
       </c>
       <c r="P44" s="7" t="str">
-        <f t="shared" ref="P44" si="23">RIGHT(O44,N44)</f>
+        <f t="shared" ref="P44" si="24">RIGHT(O44,N44)</f>
         <v>1E+148</v>
       </c>
       <c r="Q44" s="2"/>
@@ -3020,11 +3087,11 @@
         <v>152</v>
       </c>
       <c r="O45" s="7">
-        <f t="shared" ref="O45" si="24">POWER(10,N45)</f>
+        <f t="shared" ref="O45" si="25">POWER(10,N45)</f>
         <v>1E+152</v>
       </c>
       <c r="P45" s="7" t="str">
-        <f t="shared" ref="P45" si="25">RIGHT(O45,N45)</f>
+        <f t="shared" ref="P45" si="26">RIGHT(O45,N45)</f>
         <v>1E+152</v>
       </c>
       <c r="Q45" s="2"/>
@@ -3052,11 +3119,11 @@
         <v>156</v>
       </c>
       <c r="O46" s="7">
-        <f t="shared" ref="O46" si="26">POWER(10,N46)</f>
+        <f t="shared" ref="O46" si="27">POWER(10,N46)</f>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="P46" s="7" t="str">
-        <f t="shared" ref="P46" si="27">RIGHT(O46,N46)</f>
+        <f t="shared" ref="P46" si="28">RIGHT(O46,N46)</f>
         <v>1E+156</v>
       </c>
       <c r="Q46" s="2"/>
@@ -3084,11 +3151,11 @@
         <v>160</v>
       </c>
       <c r="O47" s="7">
-        <f t="shared" ref="O47:O48" si="28">POWER(10,N47)</f>
+        <f t="shared" ref="O47:O48" si="29">POWER(10,N47)</f>
         <v>1E+160</v>
       </c>
       <c r="P47" s="7" t="str">
-        <f t="shared" ref="P47:P48" si="29">RIGHT(O47,N47)</f>
+        <f t="shared" ref="P47:P48" si="30">RIGHT(O47,N47)</f>
         <v>1E+160</v>
       </c>
       <c r="Q47" s="2"/>
@@ -3116,11 +3183,11 @@
         <v>164</v>
       </c>
       <c r="O48" s="7">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1E+164</v>
       </c>
       <c r="P48" s="7" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1E+164</v>
       </c>
       <c r="Q48" s="2"/>
@@ -3142,17 +3209,17 @@
       <c r="J49" s="6"/>
       <c r="L49" s="17"/>
       <c r="M49" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N49" s="6">
         <v>168</v>
       </c>
       <c r="O49" s="7">
-        <f t="shared" ref="O49" si="30">POWER(10,N49)</f>
+        <f t="shared" ref="O49" si="31">POWER(10,N49)</f>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="P49" s="7" t="str">
-        <f t="shared" ref="P49" si="31">RIGHT(O49,N49)</f>
+        <f t="shared" ref="P49" si="32">RIGHT(O49,N49)</f>
         <v>1E+168</v>
       </c>
       <c r="Q49" s="2"/>
@@ -3173,8 +3240,20 @@
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="L50" s="17"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
+      <c r="M50" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N50" s="6">
+        <v>172</v>
+      </c>
+      <c r="O50" s="7">
+        <f t="shared" ref="O50:O51" si="33">POWER(10,N50)</f>
+        <v>1.0000000000000001E+172</v>
+      </c>
+      <c r="P50" s="7" t="str">
+        <f t="shared" ref="P50:P51" si="34">RIGHT(O50,N50)</f>
+        <v>1E+172</v>
+      </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
@@ -3193,8 +3272,20 @@
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="L51" s="17"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
+      <c r="M51" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N51" s="6">
+        <v>176</v>
+      </c>
+      <c r="O51" s="7">
+        <f t="shared" si="33"/>
+        <v>1E+176</v>
+      </c>
+      <c r="P51" s="7" t="str">
+        <f t="shared" si="34"/>
+        <v>1E+176</v>
+      </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>

--- a/Assets/06.Table/TransTowerTable.xlsx
+++ b/Assets/06.Table/TransTowerTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DFD2DA-5022-43DD-82D6-C81B614CBD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB1605A-42A0-4D1B-A986-1E2A81154471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
   <si>
     <t>단위 환산 표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,11 +318,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -909,11 +913,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1080,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="21">
-        <f t="shared" ref="J4:J18" si="0">J3+1000</f>
+        <f t="shared" ref="J4:J21" si="0">J3+1000</f>
         <v>4000</v>
       </c>
       <c r="K4" s="21">
@@ -1663,6 +1667,129 @@
       <c r="L18" s="21">
         <f>VLOOKUP(A18,Balance!E:K,7,FALSE)</f>
         <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="21">
+        <v>17</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="21">
+        <v>9040</v>
+      </c>
+      <c r="D19" s="21">
+        <v>6</v>
+      </c>
+      <c r="E19" s="21">
+        <v>1</v>
+      </c>
+      <c r="F19" s="22">
+        <f>VLOOKUP(A19,Balance!E:J,3,FALSE)</f>
+        <v>1.0000000000000001E+172</v>
+      </c>
+      <c r="G19" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H19" s="21">
+        <v>8</v>
+      </c>
+      <c r="I19" s="21">
+        <v>0</v>
+      </c>
+      <c r="J19" s="21">
+        <f t="shared" si="0"/>
+        <v>19000</v>
+      </c>
+      <c r="K19" s="21">
+        <v>9040</v>
+      </c>
+      <c r="L19" s="21">
+        <f>VLOOKUP(A19,Balance!E:K,7,FALSE)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="21">
+        <v>18</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="21">
+        <v>9040</v>
+      </c>
+      <c r="D20" s="21">
+        <v>6</v>
+      </c>
+      <c r="E20" s="21">
+        <v>1</v>
+      </c>
+      <c r="F20" s="22">
+        <f>VLOOKUP(A20,Balance!E:J,3,FALSE)</f>
+        <v>1E+176</v>
+      </c>
+      <c r="G20" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="21">
+        <v>8</v>
+      </c>
+      <c r="I20" s="21">
+        <v>0</v>
+      </c>
+      <c r="J20" s="21">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="K20" s="21">
+        <v>9040</v>
+      </c>
+      <c r="L20" s="21">
+        <f>VLOOKUP(A20,Balance!E:K,7,FALSE)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="21">
+        <v>9040</v>
+      </c>
+      <c r="D21" s="21">
+        <v>6</v>
+      </c>
+      <c r="E21" s="21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="22">
+        <f>VLOOKUP(A21,Balance!E:J,3,FALSE)</f>
+        <v>1E+180</v>
+      </c>
+      <c r="G21" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="21">
+        <v>8</v>
+      </c>
+      <c r="I21" s="21">
+        <v>0</v>
+      </c>
+      <c r="J21" s="21">
+        <f t="shared" si="0"/>
+        <v>21000</v>
+      </c>
+      <c r="K21" s="21">
+        <v>9040</v>
+      </c>
+      <c r="L21" s="21">
+        <f>VLOOKUP(A21,Balance!E:K,7,FALSE)</f>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1676,8 +1803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2372,7 +2499,7 @@
         <v>1후</v>
       </c>
       <c r="G22" s="7">
-        <f t="shared" ref="G22:G25" si="13">H22*J22</f>
+        <f t="shared" ref="G22:G27" si="13">H22*J22</f>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="H22" s="7">
@@ -2464,7 +2591,7 @@
         <v>69</v>
       </c>
       <c r="J24" s="6" t="str">
-        <f t="shared" ref="J24:J25" si="15">VLOOKUP(I24,M:P,4,FALSE)</f>
+        <f t="shared" ref="J24:J28" si="15">VLOOKUP(I24,M:P,4,FALSE)</f>
         <v>1E+164</v>
       </c>
       <c r="K24" s="2">
@@ -2491,7 +2618,7 @@
         <v>16</v>
       </c>
       <c r="F25" s="7" t="str">
-        <f t="shared" ref="F25" si="16">H25&amp;I25</f>
+        <f t="shared" ref="F25:F27" si="16">H25&amp;I25</f>
         <v>1격</v>
       </c>
       <c r="G25" s="7">
@@ -2502,7 +2629,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J25" s="6" t="str">
         <f t="shared" si="15"/>
@@ -2528,12 +2655,30 @@
       </c>
     </row>
     <row r="26" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
+      <c r="E26" s="6">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v>1창</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" si="13"/>
+        <v>1.0000000000000001E+172</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J26" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>1E+172</v>
+      </c>
+      <c r="K26" s="2">
+        <v>18</v>
+      </c>
       <c r="L26" s="17"/>
       <c r="M26" s="6" t="s">
         <v>25</v>
@@ -2551,12 +2696,30 @@
       </c>
     </row>
     <row r="27" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
+      <c r="E27" s="6">
+        <v>18</v>
+      </c>
+      <c r="F27" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v>1공</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" si="13"/>
+        <v>1E+176</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J27" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>1E+176</v>
+      </c>
+      <c r="K27" s="2">
+        <v>19</v>
+      </c>
       <c r="L27" s="17"/>
       <c r="M27" s="6" t="s">
         <v>26</v>
@@ -2574,12 +2737,30 @@
       </c>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="E28" s="6"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
+      <c r="E28" s="6">
+        <v>19</v>
+      </c>
+      <c r="F28" s="7" t="str">
+        <f t="shared" ref="F28" si="17">H28&amp;I28</f>
+        <v>1a</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" ref="G28" si="18">H28*J28</f>
+        <v>1E+180</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J28" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>1E+180</v>
+      </c>
+      <c r="K28" s="2">
+        <v>20</v>
+      </c>
       <c r="L28" s="17"/>
       <c r="M28" s="6" t="s">
         <v>27</v>
@@ -2927,11 +3108,11 @@
         <v>132</v>
       </c>
       <c r="O40" s="7">
-        <f t="shared" ref="O40" si="17">POWER(10,N40)</f>
+        <f t="shared" ref="O40" si="19">POWER(10,N40)</f>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="P40" s="7" t="str">
-        <f t="shared" ref="P40" si="18">RIGHT(O40,N40)</f>
+        <f t="shared" ref="P40" si="20">RIGHT(O40,N40)</f>
         <v>1E+132</v>
       </c>
       <c r="Q40" s="2"/>
@@ -2959,11 +3140,11 @@
         <v>136</v>
       </c>
       <c r="O41" s="7">
-        <f t="shared" ref="O41:O42" si="19">POWER(10,N41)</f>
+        <f t="shared" ref="O41:O42" si="21">POWER(10,N41)</f>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="P41" s="7" t="str">
-        <f t="shared" ref="P41:P42" si="20">RIGHT(O41,N41)</f>
+        <f t="shared" ref="P41:P42" si="22">RIGHT(O41,N41)</f>
         <v>1E+136</v>
       </c>
       <c r="Q41" s="2"/>
@@ -2991,11 +3172,11 @@
         <v>140</v>
       </c>
       <c r="O42" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="P42" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+140</v>
       </c>
       <c r="Q42" s="2"/>
@@ -3023,11 +3204,11 @@
         <v>144</v>
       </c>
       <c r="O43" s="7">
-        <f t="shared" ref="O43" si="21">POWER(10,N43)</f>
+        <f t="shared" ref="O43" si="23">POWER(10,N43)</f>
         <v>1E+144</v>
       </c>
       <c r="P43" s="7" t="str">
-        <f t="shared" ref="P43" si="22">RIGHT(O43,N43)</f>
+        <f t="shared" ref="P43" si="24">RIGHT(O43,N43)</f>
         <v>1E+144</v>
       </c>
       <c r="Q43" s="2"/>
@@ -3055,11 +3236,11 @@
         <v>148</v>
       </c>
       <c r="O44" s="7">
-        <f t="shared" ref="O44" si="23">POWER(10,N44)</f>
+        <f t="shared" ref="O44" si="25">POWER(10,N44)</f>
         <v>1E+148</v>
       </c>
       <c r="P44" s="7" t="str">
-        <f t="shared" ref="P44" si="24">RIGHT(O44,N44)</f>
+        <f t="shared" ref="P44" si="26">RIGHT(O44,N44)</f>
         <v>1E+148</v>
       </c>
       <c r="Q44" s="2"/>
@@ -3087,11 +3268,11 @@
         <v>152</v>
       </c>
       <c r="O45" s="7">
-        <f t="shared" ref="O45" si="25">POWER(10,N45)</f>
+        <f t="shared" ref="O45" si="27">POWER(10,N45)</f>
         <v>1E+152</v>
       </c>
       <c r="P45" s="7" t="str">
-        <f t="shared" ref="P45" si="26">RIGHT(O45,N45)</f>
+        <f t="shared" ref="P45" si="28">RIGHT(O45,N45)</f>
         <v>1E+152</v>
       </c>
       <c r="Q45" s="2"/>
@@ -3119,11 +3300,11 @@
         <v>156</v>
       </c>
       <c r="O46" s="7">
-        <f t="shared" ref="O46" si="27">POWER(10,N46)</f>
+        <f t="shared" ref="O46" si="29">POWER(10,N46)</f>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="P46" s="7" t="str">
-        <f t="shared" ref="P46" si="28">RIGHT(O46,N46)</f>
+        <f t="shared" ref="P46" si="30">RIGHT(O46,N46)</f>
         <v>1E+156</v>
       </c>
       <c r="Q46" s="2"/>
@@ -3151,11 +3332,11 @@
         <v>160</v>
       </c>
       <c r="O47" s="7">
-        <f t="shared" ref="O47:O48" si="29">POWER(10,N47)</f>
+        <f t="shared" ref="O47:O48" si="31">POWER(10,N47)</f>
         <v>1E+160</v>
       </c>
       <c r="P47" s="7" t="str">
-        <f t="shared" ref="P47:P48" si="30">RIGHT(O47,N47)</f>
+        <f t="shared" ref="P47:P48" si="32">RIGHT(O47,N47)</f>
         <v>1E+160</v>
       </c>
       <c r="Q47" s="2"/>
@@ -3183,11 +3364,11 @@
         <v>164</v>
       </c>
       <c r="O48" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1E+164</v>
       </c>
       <c r="P48" s="7" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1E+164</v>
       </c>
       <c r="Q48" s="2"/>
@@ -3209,17 +3390,17 @@
       <c r="J49" s="6"/>
       <c r="L49" s="17"/>
       <c r="M49" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N49" s="6">
         <v>168</v>
       </c>
       <c r="O49" s="7">
-        <f t="shared" ref="O49" si="31">POWER(10,N49)</f>
+        <f t="shared" ref="O49" si="33">POWER(10,N49)</f>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="P49" s="7" t="str">
-        <f t="shared" ref="P49" si="32">RIGHT(O49,N49)</f>
+        <f t="shared" ref="P49" si="34">RIGHT(O49,N49)</f>
         <v>1E+168</v>
       </c>
       <c r="Q49" s="2"/>
@@ -3241,17 +3422,17 @@
       <c r="J50" s="6"/>
       <c r="L50" s="17"/>
       <c r="M50" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N50" s="6">
         <v>172</v>
       </c>
       <c r="O50" s="7">
-        <f t="shared" ref="O50:O51" si="33">POWER(10,N50)</f>
+        <f t="shared" ref="O50:O52" si="35">POWER(10,N50)</f>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="P50" s="7" t="str">
-        <f t="shared" ref="P50:P51" si="34">RIGHT(O50,N50)</f>
+        <f t="shared" ref="P50:P52" si="36">RIGHT(O50,N50)</f>
         <v>1E+172</v>
       </c>
       <c r="Q50" s="2"/>
@@ -3273,17 +3454,17 @@
       <c r="J51" s="6"/>
       <c r="L51" s="17"/>
       <c r="M51" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N51" s="6">
         <v>176</v>
       </c>
       <c r="O51" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1E+176</v>
       </c>
       <c r="P51" s="7" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+176</v>
       </c>
       <c r="Q51" s="2"/>
@@ -3304,8 +3485,20 @@
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="L52" s="17"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
+      <c r="M52" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N52" s="6">
+        <v>180</v>
+      </c>
+      <c r="O52" s="7">
+        <f t="shared" ref="O52" si="37">POWER(10,N52)</f>
+        <v>1E+180</v>
+      </c>
+      <c r="P52" s="7" t="str">
+        <f t="shared" ref="P52" si="38">RIGHT(O52,N52)</f>
+        <v>1E+180</v>
+      </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>

--- a/Assets/06.Table/TransTowerTable.xlsx
+++ b/Assets/06.Table/TransTowerTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB1605A-42A0-4D1B-A986-1E2A81154471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453FB493-9816-4EF8-9D45-0A0F9DDB7ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="75">
   <si>
     <t>단위 환산 표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,10 +314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -327,6 +323,14 @@
   </si>
   <si>
     <t>공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -913,11 +917,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1084,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="21">
-        <f t="shared" ref="J4:J21" si="0">J3+1000</f>
+        <f t="shared" ref="J4:J22" si="0">J3+1000</f>
         <v>4000</v>
       </c>
       <c r="K4" s="21">
@@ -1790,6 +1794,47 @@
       <c r="L21" s="21">
         <f>VLOOKUP(A21,Balance!E:K,7,FALSE)</f>
         <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="21">
+        <v>20</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="21">
+        <v>9040</v>
+      </c>
+      <c r="D22" s="21">
+        <v>6</v>
+      </c>
+      <c r="E22" s="21">
+        <v>1</v>
+      </c>
+      <c r="F22" s="22">
+        <f>VLOOKUP(A22,Balance!E:J,3,FALSE)</f>
+        <v>1E+184</v>
+      </c>
+      <c r="G22" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="21">
+        <v>8</v>
+      </c>
+      <c r="I22" s="21">
+        <v>0</v>
+      </c>
+      <c r="J22" s="21">
+        <f t="shared" si="0"/>
+        <v>22000</v>
+      </c>
+      <c r="K22" s="21">
+        <v>9040</v>
+      </c>
+      <c r="L22" s="21">
+        <f>VLOOKUP(A22,Balance!E:K,7,FALSE)</f>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1803,8 +1848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="B5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2591,7 +2636,7 @@
         <v>69</v>
       </c>
       <c r="J24" s="6" t="str">
-        <f t="shared" ref="J24:J28" si="15">VLOOKUP(I24,M:P,4,FALSE)</f>
+        <f t="shared" ref="J24:J29" si="15">VLOOKUP(I24,M:P,4,FALSE)</f>
         <v>1E+164</v>
       </c>
       <c r="K24" s="2">
@@ -2629,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J25" s="6" t="str">
         <f t="shared" si="15"/>
@@ -2670,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J26" s="6" t="str">
         <f t="shared" si="15"/>
@@ -2711,7 +2756,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J27" s="6" t="str">
         <f t="shared" si="15"/>
@@ -2742,7 +2787,7 @@
       </c>
       <c r="F28" s="7" t="str">
         <f t="shared" ref="F28" si="17">H28&amp;I28</f>
-        <v>1a</v>
+        <v>1채</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" ref="G28" si="18">H28*J28</f>
@@ -2752,7 +2797,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J28" s="6" t="str">
         <f t="shared" si="15"/>
@@ -2778,12 +2823,30 @@
       </c>
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="E29" s="6"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
+      <c r="E29" s="6">
+        <v>20</v>
+      </c>
+      <c r="F29" s="7" t="str">
+        <f t="shared" ref="F29" si="19">H29&amp;I29</f>
+        <v>1연</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" ref="G29" si="20">H29*J29</f>
+        <v>1E+184</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J29" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>1E+184</v>
+      </c>
+      <c r="K29" s="2">
+        <v>21</v>
+      </c>
       <c r="L29" s="17"/>
       <c r="M29" s="6" t="s">
         <v>6</v>
@@ -3108,11 +3171,11 @@
         <v>132</v>
       </c>
       <c r="O40" s="7">
-        <f t="shared" ref="O40" si="19">POWER(10,N40)</f>
+        <f t="shared" ref="O40" si="21">POWER(10,N40)</f>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="P40" s="7" t="str">
-        <f t="shared" ref="P40" si="20">RIGHT(O40,N40)</f>
+        <f t="shared" ref="P40" si="22">RIGHT(O40,N40)</f>
         <v>1E+132</v>
       </c>
       <c r="Q40" s="2"/>
@@ -3140,11 +3203,11 @@
         <v>136</v>
       </c>
       <c r="O41" s="7">
-        <f t="shared" ref="O41:O42" si="21">POWER(10,N41)</f>
+        <f t="shared" ref="O41:O42" si="23">POWER(10,N41)</f>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="P41" s="7" t="str">
-        <f t="shared" ref="P41:P42" si="22">RIGHT(O41,N41)</f>
+        <f t="shared" ref="P41:P42" si="24">RIGHT(O41,N41)</f>
         <v>1E+136</v>
       </c>
       <c r="Q41" s="2"/>
@@ -3172,11 +3235,11 @@
         <v>140</v>
       </c>
       <c r="O42" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="P42" s="7" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1E+140</v>
       </c>
       <c r="Q42" s="2"/>
@@ -3204,11 +3267,11 @@
         <v>144</v>
       </c>
       <c r="O43" s="7">
-        <f t="shared" ref="O43" si="23">POWER(10,N43)</f>
+        <f t="shared" ref="O43" si="25">POWER(10,N43)</f>
         <v>1E+144</v>
       </c>
       <c r="P43" s="7" t="str">
-        <f t="shared" ref="P43" si="24">RIGHT(O43,N43)</f>
+        <f t="shared" ref="P43" si="26">RIGHT(O43,N43)</f>
         <v>1E+144</v>
       </c>
       <c r="Q43" s="2"/>
@@ -3236,11 +3299,11 @@
         <v>148</v>
       </c>
       <c r="O44" s="7">
-        <f t="shared" ref="O44" si="25">POWER(10,N44)</f>
+        <f t="shared" ref="O44" si="27">POWER(10,N44)</f>
         <v>1E+148</v>
       </c>
       <c r="P44" s="7" t="str">
-        <f t="shared" ref="P44" si="26">RIGHT(O44,N44)</f>
+        <f t="shared" ref="P44" si="28">RIGHT(O44,N44)</f>
         <v>1E+148</v>
       </c>
       <c r="Q44" s="2"/>
@@ -3268,11 +3331,11 @@
         <v>152</v>
       </c>
       <c r="O45" s="7">
-        <f t="shared" ref="O45" si="27">POWER(10,N45)</f>
+        <f t="shared" ref="O45" si="29">POWER(10,N45)</f>
         <v>1E+152</v>
       </c>
       <c r="P45" s="7" t="str">
-        <f t="shared" ref="P45" si="28">RIGHT(O45,N45)</f>
+        <f t="shared" ref="P45" si="30">RIGHT(O45,N45)</f>
         <v>1E+152</v>
       </c>
       <c r="Q45" s="2"/>
@@ -3300,11 +3363,11 @@
         <v>156</v>
       </c>
       <c r="O46" s="7">
-        <f t="shared" ref="O46" si="29">POWER(10,N46)</f>
+        <f t="shared" ref="O46" si="31">POWER(10,N46)</f>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="P46" s="7" t="str">
-        <f t="shared" ref="P46" si="30">RIGHT(O46,N46)</f>
+        <f t="shared" ref="P46" si="32">RIGHT(O46,N46)</f>
         <v>1E+156</v>
       </c>
       <c r="Q46" s="2"/>
@@ -3332,11 +3395,11 @@
         <v>160</v>
       </c>
       <c r="O47" s="7">
-        <f t="shared" ref="O47:O48" si="31">POWER(10,N47)</f>
+        <f t="shared" ref="O47:O48" si="33">POWER(10,N47)</f>
         <v>1E+160</v>
       </c>
       <c r="P47" s="7" t="str">
-        <f t="shared" ref="P47:P48" si="32">RIGHT(O47,N47)</f>
+        <f t="shared" ref="P47:P48" si="34">RIGHT(O47,N47)</f>
         <v>1E+160</v>
       </c>
       <c r="Q47" s="2"/>
@@ -3364,11 +3427,11 @@
         <v>164</v>
       </c>
       <c r="O48" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+164</v>
       </c>
       <c r="P48" s="7" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>1E+164</v>
       </c>
       <c r="Q48" s="2"/>
@@ -3390,17 +3453,17 @@
       <c r="J49" s="6"/>
       <c r="L49" s="17"/>
       <c r="M49" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N49" s="6">
         <v>168</v>
       </c>
       <c r="O49" s="7">
-        <f t="shared" ref="O49" si="33">POWER(10,N49)</f>
+        <f t="shared" ref="O49" si="35">POWER(10,N49)</f>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="P49" s="7" t="str">
-        <f t="shared" ref="P49" si="34">RIGHT(O49,N49)</f>
+        <f t="shared" ref="P49" si="36">RIGHT(O49,N49)</f>
         <v>1E+168</v>
       </c>
       <c r="Q49" s="2"/>
@@ -3422,17 +3485,17 @@
       <c r="J50" s="6"/>
       <c r="L50" s="17"/>
       <c r="M50" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N50" s="6">
         <v>172</v>
       </c>
       <c r="O50" s="7">
-        <f t="shared" ref="O50:O52" si="35">POWER(10,N50)</f>
+        <f t="shared" ref="O50:O51" si="37">POWER(10,N50)</f>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="P50" s="7" t="str">
-        <f t="shared" ref="P50:P52" si="36">RIGHT(O50,N50)</f>
+        <f t="shared" ref="P50:P51" si="38">RIGHT(O50,N50)</f>
         <v>1E+172</v>
       </c>
       <c r="Q50" s="2"/>
@@ -3454,17 +3517,17 @@
       <c r="J51" s="6"/>
       <c r="L51" s="17"/>
       <c r="M51" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N51" s="6">
         <v>176</v>
       </c>
       <c r="O51" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+176</v>
       </c>
       <c r="P51" s="7" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1E+176</v>
       </c>
       <c r="Q51" s="2"/>
@@ -3486,17 +3549,17 @@
       <c r="J52" s="6"/>
       <c r="L52" s="17"/>
       <c r="M52" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N52" s="6">
         <v>180</v>
       </c>
       <c r="O52" s="7">
-        <f t="shared" ref="O52" si="37">POWER(10,N52)</f>
+        <f t="shared" ref="O52:O53" si="39">POWER(10,N52)</f>
         <v>1E+180</v>
       </c>
       <c r="P52" s="7" t="str">
-        <f t="shared" ref="P52" si="38">RIGHT(O52,N52)</f>
+        <f t="shared" ref="P52:P53" si="40">RIGHT(O52,N52)</f>
         <v>1E+180</v>
       </c>
       <c r="Q52" s="2"/>
@@ -3517,8 +3580,20 @@
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="L53" s="17"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
+      <c r="M53" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N53" s="6">
+        <v>184</v>
+      </c>
+      <c r="O53" s="7">
+        <f t="shared" ref="O53" si="41">POWER(10,N53)</f>
+        <v>1E+184</v>
+      </c>
+      <c r="P53" s="7" t="str">
+        <f t="shared" ref="P53" si="42">RIGHT(O53,N53)</f>
+        <v>1E+184</v>
+      </c>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>

--- a/Assets/06.Table/TransTowerTable.xlsx
+++ b/Assets/06.Table/TransTowerTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453FB493-9816-4EF8-9D45-0A0F9DDB7ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068282D5-8EB8-46A3-AB60-AD5C0824ADA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="76">
   <si>
     <t>단위 환산 표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,7 +330,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>연</t>
+    <t>피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -917,11 +921,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1088,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="21">
-        <f t="shared" ref="J4:J22" si="0">J3+1000</f>
+        <f t="shared" ref="J4:J23" si="0">J3+1000</f>
         <v>4000</v>
       </c>
       <c r="K4" s="21">
@@ -1835,6 +1839,47 @@
       <c r="L22" s="21">
         <f>VLOOKUP(A22,Balance!E:K,7,FALSE)</f>
         <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="21">
+        <v>21</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="21">
+        <v>9040</v>
+      </c>
+      <c r="D23" s="21">
+        <v>6</v>
+      </c>
+      <c r="E23" s="21">
+        <v>1</v>
+      </c>
+      <c r="F23" s="22">
+        <f>VLOOKUP(A23,Balance!E:J,3,FALSE)</f>
+        <v>1E+188</v>
+      </c>
+      <c r="G23" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H23" s="21">
+        <v>8</v>
+      </c>
+      <c r="I23" s="21">
+        <v>0</v>
+      </c>
+      <c r="J23" s="21">
+        <f t="shared" si="0"/>
+        <v>23000</v>
+      </c>
+      <c r="K23" s="21">
+        <v>9040</v>
+      </c>
+      <c r="L23" s="21">
+        <f>VLOOKUP(A23,Balance!E:K,7,FALSE)</f>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1848,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="B26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2827,11 +2872,11 @@
         <v>20</v>
       </c>
       <c r="F29" s="7" t="str">
-        <f t="shared" ref="F29" si="19">H29&amp;I29</f>
-        <v>1연</v>
+        <f t="shared" ref="F29:F30" si="19">H29&amp;I29</f>
+        <v>1피</v>
       </c>
       <c r="G29" s="7">
-        <f t="shared" ref="G29" si="20">H29*J29</f>
+        <f t="shared" ref="G29:G30" si="20">H29*J29</f>
         <v>1E+184</v>
       </c>
       <c r="H29" s="7">
@@ -2864,12 +2909,30 @@
       </c>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="E30" s="6"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+      <c r="E30" s="6">
+        <v>21</v>
+      </c>
+      <c r="F30" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v>1동</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" si="20"/>
+        <v>1E+188</v>
+      </c>
+      <c r="H30" s="7">
+        <v>1</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30" s="6" t="str">
+        <f t="shared" ref="J30" si="21">VLOOKUP(I30,M:P,4,FALSE)</f>
+        <v>1E+188</v>
+      </c>
+      <c r="K30" s="2">
+        <v>22</v>
+      </c>
       <c r="L30" s="17"/>
       <c r="M30" s="6" t="s">
         <v>18</v>
@@ -3171,11 +3234,11 @@
         <v>132</v>
       </c>
       <c r="O40" s="7">
-        <f t="shared" ref="O40" si="21">POWER(10,N40)</f>
+        <f t="shared" ref="O40" si="22">POWER(10,N40)</f>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="P40" s="7" t="str">
-        <f t="shared" ref="P40" si="22">RIGHT(O40,N40)</f>
+        <f t="shared" ref="P40" si="23">RIGHT(O40,N40)</f>
         <v>1E+132</v>
       </c>
       <c r="Q40" s="2"/>
@@ -3203,11 +3266,11 @@
         <v>136</v>
       </c>
       <c r="O41" s="7">
-        <f t="shared" ref="O41:O42" si="23">POWER(10,N41)</f>
+        <f t="shared" ref="O41:O42" si="24">POWER(10,N41)</f>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="P41" s="7" t="str">
-        <f t="shared" ref="P41:P42" si="24">RIGHT(O41,N41)</f>
+        <f t="shared" ref="P41:P42" si="25">RIGHT(O41,N41)</f>
         <v>1E+136</v>
       </c>
       <c r="Q41" s="2"/>
@@ -3235,11 +3298,11 @@
         <v>140</v>
       </c>
       <c r="O42" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="P42" s="7" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1E+140</v>
       </c>
       <c r="Q42" s="2"/>
@@ -3267,11 +3330,11 @@
         <v>144</v>
       </c>
       <c r="O43" s="7">
-        <f t="shared" ref="O43" si="25">POWER(10,N43)</f>
+        <f t="shared" ref="O43" si="26">POWER(10,N43)</f>
         <v>1E+144</v>
       </c>
       <c r="P43" s="7" t="str">
-        <f t="shared" ref="P43" si="26">RIGHT(O43,N43)</f>
+        <f t="shared" ref="P43" si="27">RIGHT(O43,N43)</f>
         <v>1E+144</v>
       </c>
       <c r="Q43" s="2"/>
@@ -3299,11 +3362,11 @@
         <v>148</v>
       </c>
       <c r="O44" s="7">
-        <f t="shared" ref="O44" si="27">POWER(10,N44)</f>
+        <f t="shared" ref="O44" si="28">POWER(10,N44)</f>
         <v>1E+148</v>
       </c>
       <c r="P44" s="7" t="str">
-        <f t="shared" ref="P44" si="28">RIGHT(O44,N44)</f>
+        <f t="shared" ref="P44" si="29">RIGHT(O44,N44)</f>
         <v>1E+148</v>
       </c>
       <c r="Q44" s="2"/>
@@ -3331,11 +3394,11 @@
         <v>152</v>
       </c>
       <c r="O45" s="7">
-        <f t="shared" ref="O45" si="29">POWER(10,N45)</f>
+        <f t="shared" ref="O45" si="30">POWER(10,N45)</f>
         <v>1E+152</v>
       </c>
       <c r="P45" s="7" t="str">
-        <f t="shared" ref="P45" si="30">RIGHT(O45,N45)</f>
+        <f t="shared" ref="P45" si="31">RIGHT(O45,N45)</f>
         <v>1E+152</v>
       </c>
       <c r="Q45" s="2"/>
@@ -3363,11 +3426,11 @@
         <v>156</v>
       </c>
       <c r="O46" s="7">
-        <f t="shared" ref="O46" si="31">POWER(10,N46)</f>
+        <f t="shared" ref="O46" si="32">POWER(10,N46)</f>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="P46" s="7" t="str">
-        <f t="shared" ref="P46" si="32">RIGHT(O46,N46)</f>
+        <f t="shared" ref="P46" si="33">RIGHT(O46,N46)</f>
         <v>1E+156</v>
       </c>
       <c r="Q46" s="2"/>
@@ -3395,11 +3458,11 @@
         <v>160</v>
       </c>
       <c r="O47" s="7">
-        <f t="shared" ref="O47:O48" si="33">POWER(10,N47)</f>
+        <f t="shared" ref="O47:O48" si="34">POWER(10,N47)</f>
         <v>1E+160</v>
       </c>
       <c r="P47" s="7" t="str">
-        <f t="shared" ref="P47:P48" si="34">RIGHT(O47,N47)</f>
+        <f t="shared" ref="P47:P48" si="35">RIGHT(O47,N47)</f>
         <v>1E+160</v>
       </c>
       <c r="Q47" s="2"/>
@@ -3427,11 +3490,11 @@
         <v>164</v>
       </c>
       <c r="O48" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1E+164</v>
       </c>
       <c r="P48" s="7" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1E+164</v>
       </c>
       <c r="Q48" s="2"/>
@@ -3459,11 +3522,11 @@
         <v>168</v>
       </c>
       <c r="O49" s="7">
-        <f t="shared" ref="O49" si="35">POWER(10,N49)</f>
+        <f t="shared" ref="O49" si="36">POWER(10,N49)</f>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="P49" s="7" t="str">
-        <f t="shared" ref="P49" si="36">RIGHT(O49,N49)</f>
+        <f t="shared" ref="P49" si="37">RIGHT(O49,N49)</f>
         <v>1E+168</v>
       </c>
       <c r="Q49" s="2"/>
@@ -3491,11 +3554,11 @@
         <v>172</v>
       </c>
       <c r="O50" s="7">
-        <f t="shared" ref="O50:O51" si="37">POWER(10,N50)</f>
+        <f t="shared" ref="O50:O51" si="38">POWER(10,N50)</f>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="P50" s="7" t="str">
-        <f t="shared" ref="P50:P51" si="38">RIGHT(O50,N50)</f>
+        <f t="shared" ref="P50:P51" si="39">RIGHT(O50,N50)</f>
         <v>1E+172</v>
       </c>
       <c r="Q50" s="2"/>
@@ -3523,11 +3586,11 @@
         <v>176</v>
       </c>
       <c r="O51" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1E+176</v>
       </c>
       <c r="P51" s="7" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1E+176</v>
       </c>
       <c r="Q51" s="2"/>
@@ -3555,11 +3618,11 @@
         <v>180</v>
       </c>
       <c r="O52" s="7">
-        <f t="shared" ref="O52:O53" si="39">POWER(10,N52)</f>
+        <f t="shared" ref="O52" si="40">POWER(10,N52)</f>
         <v>1E+180</v>
       </c>
       <c r="P52" s="7" t="str">
-        <f t="shared" ref="P52:P53" si="40">RIGHT(O52,N52)</f>
+        <f t="shared" ref="P52" si="41">RIGHT(O52,N52)</f>
         <v>1E+180</v>
       </c>
       <c r="Q52" s="2"/>
@@ -3587,11 +3650,11 @@
         <v>184</v>
       </c>
       <c r="O53" s="7">
-        <f t="shared" ref="O53" si="41">POWER(10,N53)</f>
+        <f t="shared" ref="O53" si="42">POWER(10,N53)</f>
         <v>1E+184</v>
       </c>
       <c r="P53" s="7" t="str">
-        <f t="shared" ref="P53" si="42">RIGHT(O53,N53)</f>
+        <f t="shared" ref="P53" si="43">RIGHT(O53,N53)</f>
         <v>1E+184</v>
       </c>
       <c r="Q53" s="2"/>
@@ -3612,8 +3675,20 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="L54" s="17"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
+      <c r="M54" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N54" s="6">
+        <v>188</v>
+      </c>
+      <c r="O54" s="7">
+        <f t="shared" ref="O54" si="44">POWER(10,N54)</f>
+        <v>1E+188</v>
+      </c>
+      <c r="P54" s="7" t="str">
+        <f t="shared" ref="P54" si="45">RIGHT(O54,N54)</f>
+        <v>1E+188</v>
+      </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>

--- a/Assets/06.Table/TransTowerTable.xlsx
+++ b/Assets/06.Table/TransTowerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068282D5-8EB8-46A3-AB60-AD5C0824ADA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FBC5FE-8954-4D71-8E15-C21296158B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TransTowerTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
   <si>
     <t>단위 환산 표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,6 +335,10 @@
   </si>
   <si>
     <t>동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -921,11 +925,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1092,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="21">
-        <f t="shared" ref="J4:J23" si="0">J3+1000</f>
+        <f t="shared" ref="J4:J24" si="0">J3+1000</f>
         <v>4000</v>
       </c>
       <c r="K4" s="21">
@@ -1880,6 +1884,47 @@
       <c r="L23" s="21">
         <f>VLOOKUP(A23,Balance!E:K,7,FALSE)</f>
         <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="21">
+        <v>22</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="21">
+        <v>9040</v>
+      </c>
+      <c r="D24" s="21">
+        <v>6</v>
+      </c>
+      <c r="E24" s="21">
+        <v>1</v>
+      </c>
+      <c r="F24" s="22">
+        <f>VLOOKUP(A24,Balance!E:J,3,FALSE)</f>
+        <v>1E+192</v>
+      </c>
+      <c r="G24" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H24" s="21">
+        <v>8</v>
+      </c>
+      <c r="I24" s="21">
+        <v>0</v>
+      </c>
+      <c r="J24" s="21">
+        <f t="shared" si="0"/>
+        <v>24000</v>
+      </c>
+      <c r="K24" s="21">
+        <v>9040</v>
+      </c>
+      <c r="L24" s="21">
+        <f>VLOOKUP(A24,Balance!E:K,7,FALSE)</f>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1893,8 +1938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="B26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="B17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2872,11 +2917,11 @@
         <v>20</v>
       </c>
       <c r="F29" s="7" t="str">
-        <f t="shared" ref="F29:F30" si="19">H29&amp;I29</f>
+        <f t="shared" ref="F29:F31" si="19">H29&amp;I29</f>
         <v>1피</v>
       </c>
       <c r="G29" s="7">
-        <f t="shared" ref="G29:G30" si="20">H29*J29</f>
+        <f t="shared" ref="G29:G31" si="20">H29*J29</f>
         <v>1E+184</v>
       </c>
       <c r="H29" s="7">
@@ -2927,7 +2972,7 @@
         <v>75</v>
       </c>
       <c r="J30" s="6" t="str">
-        <f t="shared" ref="J30" si="21">VLOOKUP(I30,M:P,4,FALSE)</f>
+        <f t="shared" ref="J30:J31" si="21">VLOOKUP(I30,M:P,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K30" s="2">
@@ -2950,12 +2995,30 @@
       </c>
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="E31" s="6"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
+      <c r="E31" s="6">
+        <v>22</v>
+      </c>
+      <c r="F31" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v>1멸</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="20"/>
+        <v>1E+192</v>
+      </c>
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J31" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+192</v>
+      </c>
+      <c r="K31" s="2">
+        <v>23</v>
+      </c>
       <c r="L31" s="17"/>
       <c r="M31" s="6" t="s">
         <v>28</v>
@@ -3707,8 +3770,20 @@
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="L55" s="17"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
+      <c r="M55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N55" s="6">
+        <v>192</v>
+      </c>
+      <c r="O55" s="7">
+        <f t="shared" ref="O55" si="46">POWER(10,N55)</f>
+        <v>1E+192</v>
+      </c>
+      <c r="P55" s="7" t="str">
+        <f t="shared" ref="P55" si="47">RIGHT(O55,N55)</f>
+        <v>1E+192</v>
+      </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>

--- a/Assets/06.Table/TransTowerTable.xlsx
+++ b/Assets/06.Table/TransTowerTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FBC5FE-8954-4D71-8E15-C21296158B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3A5428-F720-4634-9195-D87F1A66B2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
   <si>
     <t>단위 환산 표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,6 +339,14 @@
   </si>
   <si>
     <t>멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -925,11 +933,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1096,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="21">
-        <f t="shared" ref="J4:J24" si="0">J3+1000</f>
+        <f t="shared" ref="J4:J26" si="0">J3+1000</f>
         <v>4000</v>
       </c>
       <c r="K4" s="21">
@@ -1925,6 +1933,88 @@
       <c r="L24" s="21">
         <f>VLOOKUP(A24,Balance!E:K,7,FALSE)</f>
         <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="21">
+        <v>23</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="21">
+        <v>9040</v>
+      </c>
+      <c r="D25" s="21">
+        <v>6</v>
+      </c>
+      <c r="E25" s="21">
+        <v>1</v>
+      </c>
+      <c r="F25" s="22">
+        <f>VLOOKUP(A25,Balance!E:J,3,FALSE)</f>
+        <v>9.9999999999999995E+195</v>
+      </c>
+      <c r="G25" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H25" s="21">
+        <v>8</v>
+      </c>
+      <c r="I25" s="21">
+        <v>0</v>
+      </c>
+      <c r="J25" s="21">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="K25" s="21">
+        <v>9040</v>
+      </c>
+      <c r="L25" s="21">
+        <f>VLOOKUP(A25,Balance!E:K,7,FALSE)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="21">
+        <v>24</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="21">
+        <v>9040</v>
+      </c>
+      <c r="D26" s="21">
+        <v>6</v>
+      </c>
+      <c r="E26" s="21">
+        <v>1</v>
+      </c>
+      <c r="F26" s="22">
+        <f>VLOOKUP(A26,Balance!E:J,3,FALSE)</f>
+        <v>9.9999999999999997E+199</v>
+      </c>
+      <c r="G26" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H26" s="21">
+        <v>8</v>
+      </c>
+      <c r="I26" s="21">
+        <v>0</v>
+      </c>
+      <c r="J26" s="21">
+        <f t="shared" si="0"/>
+        <v>26000</v>
+      </c>
+      <c r="K26" s="21">
+        <v>9040</v>
+      </c>
+      <c r="L26" s="21">
+        <f>VLOOKUP(A26,Balance!E:K,7,FALSE)</f>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1938,8 +2028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="B17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2917,11 +3007,11 @@
         <v>20</v>
       </c>
       <c r="F29" s="7" t="str">
-        <f t="shared" ref="F29:F31" si="19">H29&amp;I29</f>
+        <f t="shared" ref="F29:F32" si="19">H29&amp;I29</f>
         <v>1피</v>
       </c>
       <c r="G29" s="7">
-        <f t="shared" ref="G29:G31" si="20">H29*J29</f>
+        <f t="shared" ref="G29:G32" si="20">H29*J29</f>
         <v>1E+184</v>
       </c>
       <c r="H29" s="7">
@@ -2972,7 +3062,7 @@
         <v>75</v>
       </c>
       <c r="J30" s="6" t="str">
-        <f t="shared" ref="J30:J31" si="21">VLOOKUP(I30,M:P,4,FALSE)</f>
+        <f t="shared" ref="J30:J33" si="21">VLOOKUP(I30,M:P,4,FALSE)</f>
         <v>1E+188</v>
       </c>
       <c r="K30" s="2">
@@ -3036,12 +3126,30 @@
       </c>
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="E32" s="6"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
+      <c r="E32" s="6">
+        <v>23</v>
+      </c>
+      <c r="F32" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v>1향</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" si="20"/>
+        <v>9.9999999999999995E+195</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J32" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+196</v>
+      </c>
+      <c r="K32" s="2">
+        <v>24</v>
+      </c>
       <c r="L32" s="17"/>
       <c r="M32" s="6" t="s">
         <v>30</v>
@@ -3059,12 +3167,30 @@
       </c>
     </row>
     <row r="33" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E33" s="6"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
+      <c r="E33" s="6">
+        <v>24</v>
+      </c>
+      <c r="F33" s="7" t="str">
+        <f t="shared" ref="F33" si="22">H33&amp;I33</f>
+        <v>1증</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" ref="G33" si="23">H33*J33</f>
+        <v>9.9999999999999997E+199</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J33" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>1E+200</v>
+      </c>
+      <c r="K33" s="2">
+        <v>25</v>
+      </c>
       <c r="L33" s="17"/>
       <c r="M33" s="6" t="s">
         <v>29</v>
@@ -3297,11 +3423,11 @@
         <v>132</v>
       </c>
       <c r="O40" s="7">
-        <f t="shared" ref="O40" si="22">POWER(10,N40)</f>
+        <f t="shared" ref="O40" si="24">POWER(10,N40)</f>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="P40" s="7" t="str">
-        <f t="shared" ref="P40" si="23">RIGHT(O40,N40)</f>
+        <f t="shared" ref="P40" si="25">RIGHT(O40,N40)</f>
         <v>1E+132</v>
       </c>
       <c r="Q40" s="2"/>
@@ -3329,11 +3455,11 @@
         <v>136</v>
       </c>
       <c r="O41" s="7">
-        <f t="shared" ref="O41:O42" si="24">POWER(10,N41)</f>
+        <f t="shared" ref="O41:O42" si="26">POWER(10,N41)</f>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="P41" s="7" t="str">
-        <f t="shared" ref="P41:P42" si="25">RIGHT(O41,N41)</f>
+        <f t="shared" ref="P41:P42" si="27">RIGHT(O41,N41)</f>
         <v>1E+136</v>
       </c>
       <c r="Q41" s="2"/>
@@ -3361,11 +3487,11 @@
         <v>140</v>
       </c>
       <c r="O42" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="P42" s="7" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+140</v>
       </c>
       <c r="Q42" s="2"/>
@@ -3393,11 +3519,11 @@
         <v>144</v>
       </c>
       <c r="O43" s="7">
-        <f t="shared" ref="O43" si="26">POWER(10,N43)</f>
+        <f t="shared" ref="O43" si="28">POWER(10,N43)</f>
         <v>1E+144</v>
       </c>
       <c r="P43" s="7" t="str">
-        <f t="shared" ref="P43" si="27">RIGHT(O43,N43)</f>
+        <f t="shared" ref="P43" si="29">RIGHT(O43,N43)</f>
         <v>1E+144</v>
       </c>
       <c r="Q43" s="2"/>
@@ -3425,11 +3551,11 @@
         <v>148</v>
       </c>
       <c r="O44" s="7">
-        <f t="shared" ref="O44" si="28">POWER(10,N44)</f>
+        <f t="shared" ref="O44" si="30">POWER(10,N44)</f>
         <v>1E+148</v>
       </c>
       <c r="P44" s="7" t="str">
-        <f t="shared" ref="P44" si="29">RIGHT(O44,N44)</f>
+        <f t="shared" ref="P44" si="31">RIGHT(O44,N44)</f>
         <v>1E+148</v>
       </c>
       <c r="Q44" s="2"/>
@@ -3457,11 +3583,11 @@
         <v>152</v>
       </c>
       <c r="O45" s="7">
-        <f t="shared" ref="O45" si="30">POWER(10,N45)</f>
+        <f t="shared" ref="O45" si="32">POWER(10,N45)</f>
         <v>1E+152</v>
       </c>
       <c r="P45" s="7" t="str">
-        <f t="shared" ref="P45" si="31">RIGHT(O45,N45)</f>
+        <f t="shared" ref="P45" si="33">RIGHT(O45,N45)</f>
         <v>1E+152</v>
       </c>
       <c r="Q45" s="2"/>
@@ -3489,11 +3615,11 @@
         <v>156</v>
       </c>
       <c r="O46" s="7">
-        <f t="shared" ref="O46" si="32">POWER(10,N46)</f>
+        <f t="shared" ref="O46" si="34">POWER(10,N46)</f>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="P46" s="7" t="str">
-        <f t="shared" ref="P46" si="33">RIGHT(O46,N46)</f>
+        <f t="shared" ref="P46" si="35">RIGHT(O46,N46)</f>
         <v>1E+156</v>
       </c>
       <c r="Q46" s="2"/>
@@ -3521,11 +3647,11 @@
         <v>160</v>
       </c>
       <c r="O47" s="7">
-        <f t="shared" ref="O47:O48" si="34">POWER(10,N47)</f>
+        <f t="shared" ref="O47:O48" si="36">POWER(10,N47)</f>
         <v>1E+160</v>
       </c>
       <c r="P47" s="7" t="str">
-        <f t="shared" ref="P47:P48" si="35">RIGHT(O47,N47)</f>
+        <f t="shared" ref="P47:P48" si="37">RIGHT(O47,N47)</f>
         <v>1E+160</v>
       </c>
       <c r="Q47" s="2"/>
@@ -3553,11 +3679,11 @@
         <v>164</v>
       </c>
       <c r="O48" s="7">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1E+164</v>
       </c>
       <c r="P48" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+164</v>
       </c>
       <c r="Q48" s="2"/>
@@ -3585,11 +3711,11 @@
         <v>168</v>
       </c>
       <c r="O49" s="7">
-        <f t="shared" ref="O49" si="36">POWER(10,N49)</f>
+        <f t="shared" ref="O49" si="38">POWER(10,N49)</f>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="P49" s="7" t="str">
-        <f t="shared" ref="P49" si="37">RIGHT(O49,N49)</f>
+        <f t="shared" ref="P49" si="39">RIGHT(O49,N49)</f>
         <v>1E+168</v>
       </c>
       <c r="Q49" s="2"/>
@@ -3617,11 +3743,11 @@
         <v>172</v>
       </c>
       <c r="O50" s="7">
-        <f t="shared" ref="O50:O51" si="38">POWER(10,N50)</f>
+        <f t="shared" ref="O50:O51" si="40">POWER(10,N50)</f>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="P50" s="7" t="str">
-        <f t="shared" ref="P50:P51" si="39">RIGHT(O50,N50)</f>
+        <f t="shared" ref="P50:P51" si="41">RIGHT(O50,N50)</f>
         <v>1E+172</v>
       </c>
       <c r="Q50" s="2"/>
@@ -3649,11 +3775,11 @@
         <v>176</v>
       </c>
       <c r="O51" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+176</v>
       </c>
       <c r="P51" s="7" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1E+176</v>
       </c>
       <c r="Q51" s="2"/>
@@ -3681,11 +3807,11 @@
         <v>180</v>
       </c>
       <c r="O52" s="7">
-        <f t="shared" ref="O52" si="40">POWER(10,N52)</f>
+        <f t="shared" ref="O52" si="42">POWER(10,N52)</f>
         <v>1E+180</v>
       </c>
       <c r="P52" s="7" t="str">
-        <f t="shared" ref="P52" si="41">RIGHT(O52,N52)</f>
+        <f t="shared" ref="P52" si="43">RIGHT(O52,N52)</f>
         <v>1E+180</v>
       </c>
       <c r="Q52" s="2"/>
@@ -3713,11 +3839,11 @@
         <v>184</v>
       </c>
       <c r="O53" s="7">
-        <f t="shared" ref="O53" si="42">POWER(10,N53)</f>
+        <f t="shared" ref="O53" si="44">POWER(10,N53)</f>
         <v>1E+184</v>
       </c>
       <c r="P53" s="7" t="str">
-        <f t="shared" ref="P53" si="43">RIGHT(O53,N53)</f>
+        <f t="shared" ref="P53" si="45">RIGHT(O53,N53)</f>
         <v>1E+184</v>
       </c>
       <c r="Q53" s="2"/>
@@ -3745,11 +3871,11 @@
         <v>188</v>
       </c>
       <c r="O54" s="7">
-        <f t="shared" ref="O54" si="44">POWER(10,N54)</f>
+        <f t="shared" ref="O54" si="46">POWER(10,N54)</f>
         <v>1E+188</v>
       </c>
       <c r="P54" s="7" t="str">
-        <f t="shared" ref="P54" si="45">RIGHT(O54,N54)</f>
+        <f t="shared" ref="P54" si="47">RIGHT(O54,N54)</f>
         <v>1E+188</v>
       </c>
       <c r="Q54" s="2"/>
@@ -3777,11 +3903,11 @@
         <v>192</v>
       </c>
       <c r="O55" s="7">
-        <f t="shared" ref="O55" si="46">POWER(10,N55)</f>
+        <f t="shared" ref="O55" si="48">POWER(10,N55)</f>
         <v>1E+192</v>
       </c>
       <c r="P55" s="7" t="str">
-        <f t="shared" ref="P55" si="47">RIGHT(O55,N55)</f>
+        <f t="shared" ref="P55" si="49">RIGHT(O55,N55)</f>
         <v>1E+192</v>
       </c>
       <c r="Q55" s="2"/>
@@ -3802,8 +3928,20 @@
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="L56" s="17"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
+      <c r="M56" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N56" s="6">
+        <v>196</v>
+      </c>
+      <c r="O56" s="7">
+        <f t="shared" ref="O56:O57" si="50">POWER(10,N56)</f>
+        <v>9.9999999999999995E+195</v>
+      </c>
+      <c r="P56" s="7" t="str">
+        <f t="shared" ref="P56:P57" si="51">RIGHT(O56,N56)</f>
+        <v>1E+196</v>
+      </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
@@ -3822,8 +3960,20 @@
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="L57" s="17"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
+      <c r="M57" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="N57" s="6">
+        <v>200</v>
+      </c>
+      <c r="O57" s="7">
+        <f t="shared" si="50"/>
+        <v>9.9999999999999997E+199</v>
+      </c>
+      <c r="P57" s="7" t="str">
+        <f t="shared" si="51"/>
+        <v>1E+200</v>
+      </c>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>

--- a/Assets/06.Table/TransTowerTable.xlsx
+++ b/Assets/06.Table/TransTowerTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3A5428-F720-4634-9195-D87F1A66B2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265FA26C-EDDB-4A09-B07B-0295A7717F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TransTowerTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
   <si>
     <t>단위 환산 표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -347,6 +347,14 @@
   </si>
   <si>
     <t>증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쾌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -933,11 +941,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1104,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="21">
-        <f t="shared" ref="J4:J26" si="0">J3+1000</f>
+        <f t="shared" ref="J4:J28" si="0">J3+1000</f>
         <v>4000</v>
       </c>
       <c r="K4" s="21">
@@ -2015,6 +2023,88 @@
       <c r="L26" s="21">
         <f>VLOOKUP(A26,Balance!E:K,7,FALSE)</f>
         <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="21">
+        <v>25</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="21">
+        <v>9040</v>
+      </c>
+      <c r="D27" s="21">
+        <v>6</v>
+      </c>
+      <c r="E27" s="21">
+        <v>1</v>
+      </c>
+      <c r="F27" s="22">
+        <f>VLOOKUP(A27,Balance!E:J,3,FALSE)</f>
+        <v>9.9999999999999999E+203</v>
+      </c>
+      <c r="G27" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H27" s="21">
+        <v>8</v>
+      </c>
+      <c r="I27" s="21">
+        <v>0</v>
+      </c>
+      <c r="J27" s="21">
+        <f t="shared" si="0"/>
+        <v>27000</v>
+      </c>
+      <c r="K27" s="21">
+        <v>9040</v>
+      </c>
+      <c r="L27" s="21">
+        <f>VLOOKUP(A27,Balance!E:K,7,FALSE)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="21">
+        <v>26</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="21">
+        <v>9040</v>
+      </c>
+      <c r="D28" s="21">
+        <v>6</v>
+      </c>
+      <c r="E28" s="21">
+        <v>1</v>
+      </c>
+      <c r="F28" s="22">
+        <f>VLOOKUP(A28,Balance!E:J,3,FALSE)</f>
+        <v>9.9999999999999998E+207</v>
+      </c>
+      <c r="G28" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H28" s="21">
+        <v>8</v>
+      </c>
+      <c r="I28" s="21">
+        <v>0</v>
+      </c>
+      <c r="J28" s="21">
+        <f t="shared" si="0"/>
+        <v>28000</v>
+      </c>
+      <c r="K28" s="21">
+        <v>9040</v>
+      </c>
+      <c r="L28" s="21">
+        <f>VLOOKUP(A28,Balance!E:K,7,FALSE)</f>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2028,8 +2118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3171,11 +3261,11 @@
         <v>24</v>
       </c>
       <c r="F33" s="7" t="str">
-        <f t="shared" ref="F33" si="22">H33&amp;I33</f>
+        <f t="shared" ref="F33:F36" si="22">H33&amp;I33</f>
         <v>1증</v>
       </c>
       <c r="G33" s="7">
-        <f t="shared" ref="G33" si="23">H33*J33</f>
+        <f t="shared" ref="G33:G36" si="23">H33*J33</f>
         <v>9.9999999999999997E+199</v>
       </c>
       <c r="H33" s="7">
@@ -3217,12 +3307,30 @@
       <c r="Y33" s="2"/>
     </row>
     <row r="34" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E34" s="6"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
+      <c r="E34" s="6">
+        <v>25</v>
+      </c>
+      <c r="F34" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v>1쾌</v>
+      </c>
+      <c r="G34" s="7">
+        <f t="shared" si="23"/>
+        <v>9.9999999999999999E+203</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J34" s="6" t="str">
+        <f t="shared" ref="J34:J36" si="24">VLOOKUP(I34,M:P,4,FALSE)</f>
+        <v>1E+204</v>
+      </c>
+      <c r="K34" s="2">
+        <v>26</v>
+      </c>
       <c r="L34" s="17"/>
       <c r="M34" s="6" t="s">
         <v>31</v>
@@ -3249,12 +3357,30 @@
       <c r="Y34" s="2"/>
     </row>
     <row r="35" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E35" s="6"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
+      <c r="E35" s="6">
+        <v>26</v>
+      </c>
+      <c r="F35" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v>1우</v>
+      </c>
+      <c r="G35" s="7">
+        <f t="shared" si="23"/>
+        <v>9.9999999999999998E+207</v>
+      </c>
+      <c r="H35" s="7">
+        <v>1</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J35" s="6" t="str">
+        <f t="shared" si="24"/>
+        <v>1E+208</v>
+      </c>
+      <c r="K35" s="2">
+        <v>27</v>
+      </c>
       <c r="L35" s="17"/>
       <c r="M35" s="6" t="s">
         <v>32</v>
@@ -3423,11 +3549,11 @@
         <v>132</v>
       </c>
       <c r="O40" s="7">
-        <f t="shared" ref="O40" si="24">POWER(10,N40)</f>
+        <f t="shared" ref="O40" si="25">POWER(10,N40)</f>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="P40" s="7" t="str">
-        <f t="shared" ref="P40" si="25">RIGHT(O40,N40)</f>
+        <f t="shared" ref="P40" si="26">RIGHT(O40,N40)</f>
         <v>1E+132</v>
       </c>
       <c r="Q40" s="2"/>
@@ -3455,11 +3581,11 @@
         <v>136</v>
       </c>
       <c r="O41" s="7">
-        <f t="shared" ref="O41:O42" si="26">POWER(10,N41)</f>
+        <f t="shared" ref="O41:O42" si="27">POWER(10,N41)</f>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="P41" s="7" t="str">
-        <f t="shared" ref="P41:P42" si="27">RIGHT(O41,N41)</f>
+        <f t="shared" ref="P41:P42" si="28">RIGHT(O41,N41)</f>
         <v>1E+136</v>
       </c>
       <c r="Q41" s="2"/>
@@ -3487,11 +3613,11 @@
         <v>140</v>
       </c>
       <c r="O42" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="P42" s="7" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1E+140</v>
       </c>
       <c r="Q42" s="2"/>
@@ -3519,11 +3645,11 @@
         <v>144</v>
       </c>
       <c r="O43" s="7">
-        <f t="shared" ref="O43" si="28">POWER(10,N43)</f>
+        <f t="shared" ref="O43" si="29">POWER(10,N43)</f>
         <v>1E+144</v>
       </c>
       <c r="P43" s="7" t="str">
-        <f t="shared" ref="P43" si="29">RIGHT(O43,N43)</f>
+        <f t="shared" ref="P43" si="30">RIGHT(O43,N43)</f>
         <v>1E+144</v>
       </c>
       <c r="Q43" s="2"/>
@@ -3551,11 +3677,11 @@
         <v>148</v>
       </c>
       <c r="O44" s="7">
-        <f t="shared" ref="O44" si="30">POWER(10,N44)</f>
+        <f t="shared" ref="O44" si="31">POWER(10,N44)</f>
         <v>1E+148</v>
       </c>
       <c r="P44" s="7" t="str">
-        <f t="shared" ref="P44" si="31">RIGHT(O44,N44)</f>
+        <f t="shared" ref="P44" si="32">RIGHT(O44,N44)</f>
         <v>1E+148</v>
       </c>
       <c r="Q44" s="2"/>
@@ -3583,11 +3709,11 @@
         <v>152</v>
       </c>
       <c r="O45" s="7">
-        <f t="shared" ref="O45" si="32">POWER(10,N45)</f>
+        <f t="shared" ref="O45" si="33">POWER(10,N45)</f>
         <v>1E+152</v>
       </c>
       <c r="P45" s="7" t="str">
-        <f t="shared" ref="P45" si="33">RIGHT(O45,N45)</f>
+        <f t="shared" ref="P45" si="34">RIGHT(O45,N45)</f>
         <v>1E+152</v>
       </c>
       <c r="Q45" s="2"/>
@@ -3615,11 +3741,11 @@
         <v>156</v>
       </c>
       <c r="O46" s="7">
-        <f t="shared" ref="O46" si="34">POWER(10,N46)</f>
+        <f t="shared" ref="O46" si="35">POWER(10,N46)</f>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="P46" s="7" t="str">
-        <f t="shared" ref="P46" si="35">RIGHT(O46,N46)</f>
+        <f t="shared" ref="P46" si="36">RIGHT(O46,N46)</f>
         <v>1E+156</v>
       </c>
       <c r="Q46" s="2"/>
@@ -3647,11 +3773,11 @@
         <v>160</v>
       </c>
       <c r="O47" s="7">
-        <f t="shared" ref="O47:O48" si="36">POWER(10,N47)</f>
+        <f t="shared" ref="O47:O48" si="37">POWER(10,N47)</f>
         <v>1E+160</v>
       </c>
       <c r="P47" s="7" t="str">
-        <f t="shared" ref="P47:P48" si="37">RIGHT(O47,N47)</f>
+        <f t="shared" ref="P47:P48" si="38">RIGHT(O47,N47)</f>
         <v>1E+160</v>
       </c>
       <c r="Q47" s="2"/>
@@ -3679,11 +3805,11 @@
         <v>164</v>
       </c>
       <c r="O48" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1E+164</v>
       </c>
       <c r="P48" s="7" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1E+164</v>
       </c>
       <c r="Q48" s="2"/>
@@ -3711,11 +3837,11 @@
         <v>168</v>
       </c>
       <c r="O49" s="7">
-        <f t="shared" ref="O49" si="38">POWER(10,N49)</f>
+        <f t="shared" ref="O49" si="39">POWER(10,N49)</f>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="P49" s="7" t="str">
-        <f t="shared" ref="P49" si="39">RIGHT(O49,N49)</f>
+        <f t="shared" ref="P49" si="40">RIGHT(O49,N49)</f>
         <v>1E+168</v>
       </c>
       <c r="Q49" s="2"/>
@@ -3743,11 +3869,11 @@
         <v>172</v>
       </c>
       <c r="O50" s="7">
-        <f t="shared" ref="O50:O51" si="40">POWER(10,N50)</f>
+        <f t="shared" ref="O50:O51" si="41">POWER(10,N50)</f>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="P50" s="7" t="str">
-        <f t="shared" ref="P50:P51" si="41">RIGHT(O50,N50)</f>
+        <f t="shared" ref="P50:P51" si="42">RIGHT(O50,N50)</f>
         <v>1E+172</v>
       </c>
       <c r="Q50" s="2"/>
@@ -3775,11 +3901,11 @@
         <v>176</v>
       </c>
       <c r="O51" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1E+176</v>
       </c>
       <c r="P51" s="7" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1E+176</v>
       </c>
       <c r="Q51" s="2"/>
@@ -3807,11 +3933,11 @@
         <v>180</v>
       </c>
       <c r="O52" s="7">
-        <f t="shared" ref="O52" si="42">POWER(10,N52)</f>
+        <f t="shared" ref="O52" si="43">POWER(10,N52)</f>
         <v>1E+180</v>
       </c>
       <c r="P52" s="7" t="str">
-        <f t="shared" ref="P52" si="43">RIGHT(O52,N52)</f>
+        <f t="shared" ref="P52" si="44">RIGHT(O52,N52)</f>
         <v>1E+180</v>
       </c>
       <c r="Q52" s="2"/>
@@ -3839,11 +3965,11 @@
         <v>184</v>
       </c>
       <c r="O53" s="7">
-        <f t="shared" ref="O53" si="44">POWER(10,N53)</f>
+        <f t="shared" ref="O53" si="45">POWER(10,N53)</f>
         <v>1E+184</v>
       </c>
       <c r="P53" s="7" t="str">
-        <f t="shared" ref="P53" si="45">RIGHT(O53,N53)</f>
+        <f t="shared" ref="P53" si="46">RIGHT(O53,N53)</f>
         <v>1E+184</v>
       </c>
       <c r="Q53" s="2"/>
@@ -3871,11 +3997,11 @@
         <v>188</v>
       </c>
       <c r="O54" s="7">
-        <f t="shared" ref="O54" si="46">POWER(10,N54)</f>
+        <f t="shared" ref="O54" si="47">POWER(10,N54)</f>
         <v>1E+188</v>
       </c>
       <c r="P54" s="7" t="str">
-        <f t="shared" ref="P54" si="47">RIGHT(O54,N54)</f>
+        <f t="shared" ref="P54" si="48">RIGHT(O54,N54)</f>
         <v>1E+188</v>
       </c>
       <c r="Q54" s="2"/>
@@ -3903,11 +4029,11 @@
         <v>192</v>
       </c>
       <c r="O55" s="7">
-        <f t="shared" ref="O55" si="48">POWER(10,N55)</f>
+        <f t="shared" ref="O55" si="49">POWER(10,N55)</f>
         <v>1E+192</v>
       </c>
       <c r="P55" s="7" t="str">
-        <f t="shared" ref="P55" si="49">RIGHT(O55,N55)</f>
+        <f t="shared" ref="P55" si="50">RIGHT(O55,N55)</f>
         <v>1E+192</v>
       </c>
       <c r="Q55" s="2"/>
@@ -3935,11 +4061,11 @@
         <v>196</v>
       </c>
       <c r="O56" s="7">
-        <f t="shared" ref="O56:O57" si="50">POWER(10,N56)</f>
+        <f t="shared" ref="O56:O57" si="51">POWER(10,N56)</f>
         <v>9.9999999999999995E+195</v>
       </c>
       <c r="P56" s="7" t="str">
-        <f t="shared" ref="P56:P57" si="51">RIGHT(O56,N56)</f>
+        <f t="shared" ref="P56:P57" si="52">RIGHT(O56,N56)</f>
         <v>1E+196</v>
       </c>
       <c r="Q56" s="2"/>
@@ -3967,11 +4093,11 @@
         <v>200</v>
       </c>
       <c r="O57" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>9.9999999999999997E+199</v>
       </c>
       <c r="P57" s="7" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>1E+200</v>
       </c>
       <c r="Q57" s="2"/>
@@ -3992,8 +4118,20 @@
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="L58" s="17"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
+      <c r="M58" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N58" s="6">
+        <v>204</v>
+      </c>
+      <c r="O58" s="7">
+        <f t="shared" ref="O58:O59" si="53">POWER(10,N58)</f>
+        <v>9.9999999999999999E+203</v>
+      </c>
+      <c r="P58" s="7" t="str">
+        <f t="shared" ref="P58:P59" si="54">RIGHT(O58,N58)</f>
+        <v>1E+204</v>
+      </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
@@ -4012,8 +4150,20 @@
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="L59" s="17"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
+      <c r="M59" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N59" s="6">
+        <v>208</v>
+      </c>
+      <c r="O59" s="7">
+        <f t="shared" si="53"/>
+        <v>9.9999999999999998E+207</v>
+      </c>
+      <c r="P59" s="7" t="str">
+        <f t="shared" si="54"/>
+        <v>1E+208</v>
+      </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>

--- a/Assets/06.Table/TransTowerTable.xlsx
+++ b/Assets/06.Table/TransTowerTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265FA26C-EDDB-4A09-B07B-0295A7717F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20C8725-89A1-4C64-9AFF-6CDAAAE199A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="82">
   <si>
     <t>단위 환산 표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,6 +355,10 @@
   </si>
   <si>
     <t>우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -941,11 +945,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1112,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="21">
-        <f t="shared" ref="J4:J28" si="0">J3+1000</f>
+        <f t="shared" ref="J4:J29" si="0">J3+1000</f>
         <v>4000</v>
       </c>
       <c r="K4" s="21">
@@ -2105,6 +2109,47 @@
       <c r="L28" s="21">
         <f>VLOOKUP(A28,Balance!E:K,7,FALSE)</f>
         <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="21">
+        <v>27</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="21">
+        <v>9040</v>
+      </c>
+      <c r="D29" s="21">
+        <v>6</v>
+      </c>
+      <c r="E29" s="21">
+        <v>1</v>
+      </c>
+      <c r="F29" s="22">
+        <f>VLOOKUP(A29,Balance!E:J,3,FALSE)</f>
+        <v>9.9999999999999991E+211</v>
+      </c>
+      <c r="G29" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H29" s="21">
+        <v>8</v>
+      </c>
+      <c r="I29" s="21">
+        <v>0</v>
+      </c>
+      <c r="J29" s="21">
+        <f t="shared" si="0"/>
+        <v>29000</v>
+      </c>
+      <c r="K29" s="21">
+        <v>9040</v>
+      </c>
+      <c r="L29" s="21">
+        <f>VLOOKUP(A29,Balance!E:K,7,FALSE)</f>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2118,8 +2163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="B29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3407,12 +3452,30 @@
       <c r="Y35" s="2"/>
     </row>
     <row r="36" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E36" s="6"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
+      <c r="E36" s="6">
+        <v>27</v>
+      </c>
+      <c r="F36" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v>1팽</v>
+      </c>
+      <c r="G36" s="7">
+        <f t="shared" si="23"/>
+        <v>9.9999999999999991E+211</v>
+      </c>
+      <c r="H36" s="7">
+        <v>1</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J36" s="6" t="str">
+        <f t="shared" si="24"/>
+        <v>1E+212</v>
+      </c>
+      <c r="K36" s="2">
+        <v>28</v>
+      </c>
       <c r="L36" s="17"/>
       <c r="M36" s="6" t="s">
         <v>33</v>
@@ -4182,8 +4245,20 @@
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="L60" s="17"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
+      <c r="M60" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="N60" s="6">
+        <v>212</v>
+      </c>
+      <c r="O60" s="7">
+        <f t="shared" ref="O60" si="55">POWER(10,N60)</f>
+        <v>9.9999999999999991E+211</v>
+      </c>
+      <c r="P60" s="7" t="str">
+        <f t="shared" ref="P60" si="56">RIGHT(O60,N60)</f>
+        <v>1E+212</v>
+      </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>

--- a/Assets/06.Table/TransTowerTable.xlsx
+++ b/Assets/06.Table/TransTowerTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20C8725-89A1-4C64-9AFF-6CDAAAE199A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F53CE0-47AD-4CA5-B2A8-1CFCE6154526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="84">
   <si>
     <t>단위 환산 표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -359,6 +359,14 @@
   </si>
   <si>
     <t>팽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,9 +657,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -689,7 +697,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -795,7 +803,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -937,7 +945,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -945,11 +953,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1116,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="21">
-        <f t="shared" ref="J4:J29" si="0">J3+1000</f>
+        <f t="shared" ref="J4:J30" si="0">J3+1000</f>
         <v>4000</v>
       </c>
       <c r="K4" s="21">
@@ -2150,6 +2158,47 @@
       <c r="L29" s="21">
         <f>VLOOKUP(A29,Balance!E:K,7,FALSE)</f>
         <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="21">
+        <v>28</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="21">
+        <v>9040</v>
+      </c>
+      <c r="D30" s="21">
+        <v>6</v>
+      </c>
+      <c r="E30" s="21">
+        <v>1</v>
+      </c>
+      <c r="F30" s="22">
+        <f>VLOOKUP(A30,Balance!E:J,3,FALSE)</f>
+        <v>1E+216</v>
+      </c>
+      <c r="G30" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H30" s="21">
+        <v>8</v>
+      </c>
+      <c r="I30" s="21">
+        <v>0</v>
+      </c>
+      <c r="J30" s="21">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="K30" s="21">
+        <v>9040</v>
+      </c>
+      <c r="L30" s="21">
+        <f>VLOOKUP(A30,Balance!E:K,7,FALSE)</f>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2163,8 +2212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="B29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView topLeftCell="B17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3370,7 +3419,7 @@
         <v>79</v>
       </c>
       <c r="J34" s="6" t="str">
-        <f t="shared" ref="J34:J36" si="24">VLOOKUP(I34,M:P,4,FALSE)</f>
+        <f t="shared" ref="J34:J37" si="24">VLOOKUP(I34,M:P,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K34" s="2">
@@ -3502,12 +3551,30 @@
       <c r="Y36" s="2"/>
     </row>
     <row r="37" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E37" s="6"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
+      <c r="E37" s="6">
+        <v>28</v>
+      </c>
+      <c r="F37" s="7" t="str">
+        <f t="shared" ref="F37" si="25">H37&amp;I37</f>
+        <v>1관</v>
+      </c>
+      <c r="G37" s="7">
+        <f t="shared" ref="G37" si="26">H37*J37</f>
+        <v>1E+216</v>
+      </c>
+      <c r="H37" s="7">
+        <v>1</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J37" s="6" t="str">
+        <f t="shared" ref="J37" si="27">VLOOKUP(I37,M:P,4,FALSE)</f>
+        <v>1E+216</v>
+      </c>
+      <c r="K37" s="2">
+        <v>29</v>
+      </c>
       <c r="L37" s="17"/>
       <c r="M37" s="6" t="s">
         <v>34</v>
@@ -3612,11 +3679,11 @@
         <v>132</v>
       </c>
       <c r="O40" s="7">
-        <f t="shared" ref="O40" si="25">POWER(10,N40)</f>
+        <f t="shared" ref="O40" si="28">POWER(10,N40)</f>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="P40" s="7" t="str">
-        <f t="shared" ref="P40" si="26">RIGHT(O40,N40)</f>
+        <f t="shared" ref="P40" si="29">RIGHT(O40,N40)</f>
         <v>1E+132</v>
       </c>
       <c r="Q40" s="2"/>
@@ -3644,11 +3711,11 @@
         <v>136</v>
       </c>
       <c r="O41" s="7">
-        <f t="shared" ref="O41:O42" si="27">POWER(10,N41)</f>
+        <f t="shared" ref="O41:O42" si="30">POWER(10,N41)</f>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="P41" s="7" t="str">
-        <f t="shared" ref="P41:P42" si="28">RIGHT(O41,N41)</f>
+        <f t="shared" ref="P41:P42" si="31">RIGHT(O41,N41)</f>
         <v>1E+136</v>
       </c>
       <c r="Q41" s="2"/>
@@ -3676,11 +3743,11 @@
         <v>140</v>
       </c>
       <c r="O42" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="P42" s="7" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1E+140</v>
       </c>
       <c r="Q42" s="2"/>
@@ -3708,11 +3775,11 @@
         <v>144</v>
       </c>
       <c r="O43" s="7">
-        <f t="shared" ref="O43" si="29">POWER(10,N43)</f>
+        <f t="shared" ref="O43" si="32">POWER(10,N43)</f>
         <v>1E+144</v>
       </c>
       <c r="P43" s="7" t="str">
-        <f t="shared" ref="P43" si="30">RIGHT(O43,N43)</f>
+        <f t="shared" ref="P43" si="33">RIGHT(O43,N43)</f>
         <v>1E+144</v>
       </c>
       <c r="Q43" s="2"/>
@@ -3740,11 +3807,11 @@
         <v>148</v>
       </c>
       <c r="O44" s="7">
-        <f t="shared" ref="O44" si="31">POWER(10,N44)</f>
+        <f t="shared" ref="O44" si="34">POWER(10,N44)</f>
         <v>1E+148</v>
       </c>
       <c r="P44" s="7" t="str">
-        <f t="shared" ref="P44" si="32">RIGHT(O44,N44)</f>
+        <f t="shared" ref="P44" si="35">RIGHT(O44,N44)</f>
         <v>1E+148</v>
       </c>
       <c r="Q44" s="2"/>
@@ -3772,11 +3839,11 @@
         <v>152</v>
       </c>
       <c r="O45" s="7">
-        <f t="shared" ref="O45" si="33">POWER(10,N45)</f>
+        <f t="shared" ref="O45" si="36">POWER(10,N45)</f>
         <v>1E+152</v>
       </c>
       <c r="P45" s="7" t="str">
-        <f t="shared" ref="P45" si="34">RIGHT(O45,N45)</f>
+        <f t="shared" ref="P45" si="37">RIGHT(O45,N45)</f>
         <v>1E+152</v>
       </c>
       <c r="Q45" s="2"/>
@@ -3804,11 +3871,11 @@
         <v>156</v>
       </c>
       <c r="O46" s="7">
-        <f t="shared" ref="O46" si="35">POWER(10,N46)</f>
+        <f t="shared" ref="O46" si="38">POWER(10,N46)</f>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="P46" s="7" t="str">
-        <f t="shared" ref="P46" si="36">RIGHT(O46,N46)</f>
+        <f t="shared" ref="P46" si="39">RIGHT(O46,N46)</f>
         <v>1E+156</v>
       </c>
       <c r="Q46" s="2"/>
@@ -3836,11 +3903,11 @@
         <v>160</v>
       </c>
       <c r="O47" s="7">
-        <f t="shared" ref="O47:O48" si="37">POWER(10,N47)</f>
+        <f t="shared" ref="O47:O48" si="40">POWER(10,N47)</f>
         <v>1E+160</v>
       </c>
       <c r="P47" s="7" t="str">
-        <f t="shared" ref="P47:P48" si="38">RIGHT(O47,N47)</f>
+        <f t="shared" ref="P47:P48" si="41">RIGHT(O47,N47)</f>
         <v>1E+160</v>
       </c>
       <c r="Q47" s="2"/>
@@ -3868,11 +3935,11 @@
         <v>164</v>
       </c>
       <c r="O48" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1E+164</v>
       </c>
       <c r="P48" s="7" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1E+164</v>
       </c>
       <c r="Q48" s="2"/>
@@ -3900,11 +3967,11 @@
         <v>168</v>
       </c>
       <c r="O49" s="7">
-        <f t="shared" ref="O49" si="39">POWER(10,N49)</f>
+        <f t="shared" ref="O49" si="42">POWER(10,N49)</f>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="P49" s="7" t="str">
-        <f t="shared" ref="P49" si="40">RIGHT(O49,N49)</f>
+        <f t="shared" ref="P49" si="43">RIGHT(O49,N49)</f>
         <v>1E+168</v>
       </c>
       <c r="Q49" s="2"/>
@@ -3932,11 +3999,11 @@
         <v>172</v>
       </c>
       <c r="O50" s="7">
-        <f t="shared" ref="O50:O51" si="41">POWER(10,N50)</f>
+        <f t="shared" ref="O50:O51" si="44">POWER(10,N50)</f>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="P50" s="7" t="str">
-        <f t="shared" ref="P50:P51" si="42">RIGHT(O50,N50)</f>
+        <f t="shared" ref="P50:P51" si="45">RIGHT(O50,N50)</f>
         <v>1E+172</v>
       </c>
       <c r="Q50" s="2"/>
@@ -3964,11 +4031,11 @@
         <v>176</v>
       </c>
       <c r="O51" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1E+176</v>
       </c>
       <c r="P51" s="7" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>1E+176</v>
       </c>
       <c r="Q51" s="2"/>
@@ -3996,11 +4063,11 @@
         <v>180</v>
       </c>
       <c r="O52" s="7">
-        <f t="shared" ref="O52" si="43">POWER(10,N52)</f>
+        <f t="shared" ref="O52" si="46">POWER(10,N52)</f>
         <v>1E+180</v>
       </c>
       <c r="P52" s="7" t="str">
-        <f t="shared" ref="P52" si="44">RIGHT(O52,N52)</f>
+        <f t="shared" ref="P52" si="47">RIGHT(O52,N52)</f>
         <v>1E+180</v>
       </c>
       <c r="Q52" s="2"/>
@@ -4028,11 +4095,11 @@
         <v>184</v>
       </c>
       <c r="O53" s="7">
-        <f t="shared" ref="O53" si="45">POWER(10,N53)</f>
+        <f t="shared" ref="O53" si="48">POWER(10,N53)</f>
         <v>1E+184</v>
       </c>
       <c r="P53" s="7" t="str">
-        <f t="shared" ref="P53" si="46">RIGHT(O53,N53)</f>
+        <f t="shared" ref="P53" si="49">RIGHT(O53,N53)</f>
         <v>1E+184</v>
       </c>
       <c r="Q53" s="2"/>
@@ -4060,11 +4127,11 @@
         <v>188</v>
       </c>
       <c r="O54" s="7">
-        <f t="shared" ref="O54" si="47">POWER(10,N54)</f>
+        <f t="shared" ref="O54" si="50">POWER(10,N54)</f>
         <v>1E+188</v>
       </c>
       <c r="P54" s="7" t="str">
-        <f t="shared" ref="P54" si="48">RIGHT(O54,N54)</f>
+        <f t="shared" ref="P54" si="51">RIGHT(O54,N54)</f>
         <v>1E+188</v>
       </c>
       <c r="Q54" s="2"/>
@@ -4092,11 +4159,11 @@
         <v>192</v>
       </c>
       <c r="O55" s="7">
-        <f t="shared" ref="O55" si="49">POWER(10,N55)</f>
+        <f t="shared" ref="O55" si="52">POWER(10,N55)</f>
         <v>1E+192</v>
       </c>
       <c r="P55" s="7" t="str">
-        <f t="shared" ref="P55" si="50">RIGHT(O55,N55)</f>
+        <f t="shared" ref="P55" si="53">RIGHT(O55,N55)</f>
         <v>1E+192</v>
       </c>
       <c r="Q55" s="2"/>
@@ -4124,11 +4191,11 @@
         <v>196</v>
       </c>
       <c r="O56" s="7">
-        <f t="shared" ref="O56:O57" si="51">POWER(10,N56)</f>
+        <f t="shared" ref="O56:O57" si="54">POWER(10,N56)</f>
         <v>9.9999999999999995E+195</v>
       </c>
       <c r="P56" s="7" t="str">
-        <f t="shared" ref="P56:P57" si="52">RIGHT(O56,N56)</f>
+        <f t="shared" ref="P56:P57" si="55">RIGHT(O56,N56)</f>
         <v>1E+196</v>
       </c>
       <c r="Q56" s="2"/>
@@ -4156,11 +4223,11 @@
         <v>200</v>
       </c>
       <c r="O57" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>9.9999999999999997E+199</v>
       </c>
       <c r="P57" s="7" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>1E+200</v>
       </c>
       <c r="Q57" s="2"/>
@@ -4188,11 +4255,11 @@
         <v>204</v>
       </c>
       <c r="O58" s="7">
-        <f t="shared" ref="O58:O59" si="53">POWER(10,N58)</f>
+        <f t="shared" ref="O58:O59" si="56">POWER(10,N58)</f>
         <v>9.9999999999999999E+203</v>
       </c>
       <c r="P58" s="7" t="str">
-        <f t="shared" ref="P58:P59" si="54">RIGHT(O58,N58)</f>
+        <f t="shared" ref="P58:P59" si="57">RIGHT(O58,N58)</f>
         <v>1E+204</v>
       </c>
       <c r="Q58" s="2"/>
@@ -4220,11 +4287,11 @@
         <v>208</v>
       </c>
       <c r="O59" s="7">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>9.9999999999999998E+207</v>
       </c>
       <c r="P59" s="7" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>1E+208</v>
       </c>
       <c r="Q59" s="2"/>
@@ -4252,11 +4319,11 @@
         <v>212</v>
       </c>
       <c r="O60" s="7">
-        <f t="shared" ref="O60" si="55">POWER(10,N60)</f>
+        <f t="shared" ref="O60" si="58">POWER(10,N60)</f>
         <v>9.9999999999999991E+211</v>
       </c>
       <c r="P60" s="7" t="str">
-        <f t="shared" ref="P60" si="56">RIGHT(O60,N60)</f>
+        <f t="shared" ref="P60" si="59">RIGHT(O60,N60)</f>
         <v>1E+212</v>
       </c>
       <c r="Q60" s="2"/>
@@ -4277,8 +4344,20 @@
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="L61" s="17"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
+      <c r="M61" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N61" s="6">
+        <v>216</v>
+      </c>
+      <c r="O61" s="7">
+        <f t="shared" ref="O61:O62" si="60">POWER(10,N61)</f>
+        <v>1E+216</v>
+      </c>
+      <c r="P61" s="7" t="str">
+        <f t="shared" ref="P61:P62" si="61">RIGHT(O61,N61)</f>
+        <v>1E+216</v>
+      </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
@@ -4297,8 +4376,20 @@
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="L62" s="17"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
+      <c r="M62" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N62" s="6">
+        <v>220</v>
+      </c>
+      <c r="O62" s="7">
+        <f t="shared" si="60"/>
+        <v>1E+220</v>
+      </c>
+      <c r="P62" s="7" t="str">
+        <f t="shared" si="61"/>
+        <v>1E+220</v>
+      </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>

--- a/Assets/06.Table/TransTowerTable.xlsx
+++ b/Assets/06.Table/TransTowerTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F53CE0-47AD-4CA5-B2A8-1CFCE6154526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5174B09-ED94-4B2B-BBE9-9B6C2ABEB2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="86">
   <si>
     <t>단위 환산 표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -367,6 +367,14 @@
   </si>
   <si>
     <t>관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -953,11 +961,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1124,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="21">
-        <f t="shared" ref="J4:J30" si="0">J3+1000</f>
+        <f t="shared" ref="J4:J31" si="0">J3+1000</f>
         <v>4000</v>
       </c>
       <c r="K4" s="21">
@@ -2199,6 +2207,47 @@
       <c r="L30" s="21">
         <f>VLOOKUP(A30,Balance!E:K,7,FALSE)</f>
         <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="21">
+        <v>29</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="21">
+        <v>9040</v>
+      </c>
+      <c r="D31" s="21">
+        <v>6</v>
+      </c>
+      <c r="E31" s="21">
+        <v>1</v>
+      </c>
+      <c r="F31" s="22">
+        <f>VLOOKUP(A31,Balance!E:J,3,FALSE)</f>
+        <v>9.9999999999999997E+223</v>
+      </c>
+      <c r="G31" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H31" s="21">
+        <v>8</v>
+      </c>
+      <c r="I31" s="21">
+        <v>0</v>
+      </c>
+      <c r="J31" s="21">
+        <f t="shared" si="0"/>
+        <v>31000</v>
+      </c>
+      <c r="K31" s="21">
+        <v>9040</v>
+      </c>
+      <c r="L31" s="21">
+        <f>VLOOKUP(A31,Balance!E:K,7,FALSE)</f>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2212,8 +2261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="B17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="B29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3419,7 +3468,7 @@
         <v>79</v>
       </c>
       <c r="J34" s="6" t="str">
-        <f t="shared" ref="J34:J37" si="24">VLOOKUP(I34,M:P,4,FALSE)</f>
+        <f t="shared" ref="J34:J36" si="24">VLOOKUP(I34,M:P,4,FALSE)</f>
         <v>1E+204</v>
       </c>
       <c r="K34" s="2">
@@ -3555,11 +3604,11 @@
         <v>28</v>
       </c>
       <c r="F37" s="7" t="str">
-        <f t="shared" ref="F37" si="25">H37&amp;I37</f>
+        <f t="shared" ref="F37:F39" si="25">H37&amp;I37</f>
         <v>1관</v>
       </c>
       <c r="G37" s="7">
-        <f t="shared" ref="G37" si="26">H37*J37</f>
+        <f t="shared" ref="G37:G39" si="26">H37*J37</f>
         <v>1E+216</v>
       </c>
       <c r="H37" s="7">
@@ -3569,7 +3618,7 @@
         <v>83</v>
       </c>
       <c r="J37" s="6" t="str">
-        <f t="shared" ref="J37" si="27">VLOOKUP(I37,M:P,4,FALSE)</f>
+        <f t="shared" ref="J37:J38" si="27">VLOOKUP(I37,M:P,4,FALSE)</f>
         <v>1E+216</v>
       </c>
       <c r="K37" s="2">
@@ -3601,12 +3650,30 @@
       <c r="Y37" s="2"/>
     </row>
     <row r="38" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E38" s="6"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
+      <c r="E38" s="6">
+        <v>29</v>
+      </c>
+      <c r="F38" s="7" t="str">
+        <f t="shared" si="25"/>
+        <v>1혈</v>
+      </c>
+      <c r="G38" s="7">
+        <f t="shared" si="26"/>
+        <v>9.9999999999999997E+223</v>
+      </c>
+      <c r="H38" s="7">
+        <v>1</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J38" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v>1E+224</v>
+      </c>
+      <c r="K38" s="2">
+        <v>30</v>
+      </c>
       <c r="L38" s="17"/>
       <c r="M38" s="6" t="s">
         <v>35</v>
@@ -3633,12 +3700,30 @@
       <c r="Y38" s="2"/>
     </row>
     <row r="39" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E39" s="6"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
+      <c r="E39" s="6">
+        <v>30</v>
+      </c>
+      <c r="F39" s="7" t="str">
+        <f t="shared" si="25"/>
+        <v>1연</v>
+      </c>
+      <c r="G39" s="7">
+        <f t="shared" si="26"/>
+        <v>9.9999999999999992E+227</v>
+      </c>
+      <c r="H39" s="7">
+        <v>1</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J39" s="6" t="str">
+        <f t="shared" ref="J39" si="28">VLOOKUP(I39,M:P,4,FALSE)</f>
+        <v>1E+228</v>
+      </c>
+      <c r="K39" s="2">
+        <v>31</v>
+      </c>
       <c r="L39" s="17"/>
       <c r="M39" s="6" t="s">
         <v>36</v>
@@ -3679,11 +3764,11 @@
         <v>132</v>
       </c>
       <c r="O40" s="7">
-        <f t="shared" ref="O40" si="28">POWER(10,N40)</f>
+        <f t="shared" ref="O40" si="29">POWER(10,N40)</f>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="P40" s="7" t="str">
-        <f t="shared" ref="P40" si="29">RIGHT(O40,N40)</f>
+        <f t="shared" ref="P40" si="30">RIGHT(O40,N40)</f>
         <v>1E+132</v>
       </c>
       <c r="Q40" s="2"/>
@@ -3711,11 +3796,11 @@
         <v>136</v>
       </c>
       <c r="O41" s="7">
-        <f t="shared" ref="O41:O42" si="30">POWER(10,N41)</f>
+        <f t="shared" ref="O41:O42" si="31">POWER(10,N41)</f>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="P41" s="7" t="str">
-        <f t="shared" ref="P41:P42" si="31">RIGHT(O41,N41)</f>
+        <f t="shared" ref="P41:P42" si="32">RIGHT(O41,N41)</f>
         <v>1E+136</v>
       </c>
       <c r="Q41" s="2"/>
@@ -3743,11 +3828,11 @@
         <v>140</v>
       </c>
       <c r="O42" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="P42" s="7" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1E+140</v>
       </c>
       <c r="Q42" s="2"/>
@@ -3775,11 +3860,11 @@
         <v>144</v>
       </c>
       <c r="O43" s="7">
-        <f t="shared" ref="O43" si="32">POWER(10,N43)</f>
+        <f t="shared" ref="O43" si="33">POWER(10,N43)</f>
         <v>1E+144</v>
       </c>
       <c r="P43" s="7" t="str">
-        <f t="shared" ref="P43" si="33">RIGHT(O43,N43)</f>
+        <f t="shared" ref="P43" si="34">RIGHT(O43,N43)</f>
         <v>1E+144</v>
       </c>
       <c r="Q43" s="2"/>
@@ -3807,11 +3892,11 @@
         <v>148</v>
       </c>
       <c r="O44" s="7">
-        <f t="shared" ref="O44" si="34">POWER(10,N44)</f>
+        <f t="shared" ref="O44" si="35">POWER(10,N44)</f>
         <v>1E+148</v>
       </c>
       <c r="P44" s="7" t="str">
-        <f t="shared" ref="P44" si="35">RIGHT(O44,N44)</f>
+        <f t="shared" ref="P44" si="36">RIGHT(O44,N44)</f>
         <v>1E+148</v>
       </c>
       <c r="Q44" s="2"/>
@@ -3839,11 +3924,11 @@
         <v>152</v>
       </c>
       <c r="O45" s="7">
-        <f t="shared" ref="O45" si="36">POWER(10,N45)</f>
+        <f t="shared" ref="O45" si="37">POWER(10,N45)</f>
         <v>1E+152</v>
       </c>
       <c r="P45" s="7" t="str">
-        <f t="shared" ref="P45" si="37">RIGHT(O45,N45)</f>
+        <f t="shared" ref="P45" si="38">RIGHT(O45,N45)</f>
         <v>1E+152</v>
       </c>
       <c r="Q45" s="2"/>
@@ -3871,11 +3956,11 @@
         <v>156</v>
       </c>
       <c r="O46" s="7">
-        <f t="shared" ref="O46" si="38">POWER(10,N46)</f>
+        <f t="shared" ref="O46" si="39">POWER(10,N46)</f>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="P46" s="7" t="str">
-        <f t="shared" ref="P46" si="39">RIGHT(O46,N46)</f>
+        <f t="shared" ref="P46" si="40">RIGHT(O46,N46)</f>
         <v>1E+156</v>
       </c>
       <c r="Q46" s="2"/>
@@ -3903,11 +3988,11 @@
         <v>160</v>
       </c>
       <c r="O47" s="7">
-        <f t="shared" ref="O47:O48" si="40">POWER(10,N47)</f>
+        <f t="shared" ref="O47:O48" si="41">POWER(10,N47)</f>
         <v>1E+160</v>
       </c>
       <c r="P47" s="7" t="str">
-        <f t="shared" ref="P47:P48" si="41">RIGHT(O47,N47)</f>
+        <f t="shared" ref="P47:P48" si="42">RIGHT(O47,N47)</f>
         <v>1E+160</v>
       </c>
       <c r="Q47" s="2"/>
@@ -3935,11 +4020,11 @@
         <v>164</v>
       </c>
       <c r="O48" s="7">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1E+164</v>
       </c>
       <c r="P48" s="7" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1E+164</v>
       </c>
       <c r="Q48" s="2"/>
@@ -3967,11 +4052,11 @@
         <v>168</v>
       </c>
       <c r="O49" s="7">
-        <f t="shared" ref="O49" si="42">POWER(10,N49)</f>
+        <f t="shared" ref="O49" si="43">POWER(10,N49)</f>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="P49" s="7" t="str">
-        <f t="shared" ref="P49" si="43">RIGHT(O49,N49)</f>
+        <f t="shared" ref="P49" si="44">RIGHT(O49,N49)</f>
         <v>1E+168</v>
       </c>
       <c r="Q49" s="2"/>
@@ -3999,11 +4084,11 @@
         <v>172</v>
       </c>
       <c r="O50" s="7">
-        <f t="shared" ref="O50:O51" si="44">POWER(10,N50)</f>
+        <f t="shared" ref="O50:O51" si="45">POWER(10,N50)</f>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="P50" s="7" t="str">
-        <f t="shared" ref="P50:P51" si="45">RIGHT(O50,N50)</f>
+        <f t="shared" ref="P50:P51" si="46">RIGHT(O50,N50)</f>
         <v>1E+172</v>
       </c>
       <c r="Q50" s="2"/>
@@ -4031,11 +4116,11 @@
         <v>176</v>
       </c>
       <c r="O51" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1E+176</v>
       </c>
       <c r="P51" s="7" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>1E+176</v>
       </c>
       <c r="Q51" s="2"/>
@@ -4063,11 +4148,11 @@
         <v>180</v>
       </c>
       <c r="O52" s="7">
-        <f t="shared" ref="O52" si="46">POWER(10,N52)</f>
+        <f t="shared" ref="O52" si="47">POWER(10,N52)</f>
         <v>1E+180</v>
       </c>
       <c r="P52" s="7" t="str">
-        <f t="shared" ref="P52" si="47">RIGHT(O52,N52)</f>
+        <f t="shared" ref="P52" si="48">RIGHT(O52,N52)</f>
         <v>1E+180</v>
       </c>
       <c r="Q52" s="2"/>
@@ -4095,11 +4180,11 @@
         <v>184</v>
       </c>
       <c r="O53" s="7">
-        <f t="shared" ref="O53" si="48">POWER(10,N53)</f>
+        <f t="shared" ref="O53" si="49">POWER(10,N53)</f>
         <v>1E+184</v>
       </c>
       <c r="P53" s="7" t="str">
-        <f t="shared" ref="P53" si="49">RIGHT(O53,N53)</f>
+        <f t="shared" ref="P53" si="50">RIGHT(O53,N53)</f>
         <v>1E+184</v>
       </c>
       <c r="Q53" s="2"/>
@@ -4127,11 +4212,11 @@
         <v>188</v>
       </c>
       <c r="O54" s="7">
-        <f t="shared" ref="O54" si="50">POWER(10,N54)</f>
+        <f t="shared" ref="O54" si="51">POWER(10,N54)</f>
         <v>1E+188</v>
       </c>
       <c r="P54" s="7" t="str">
-        <f t="shared" ref="P54" si="51">RIGHT(O54,N54)</f>
+        <f t="shared" ref="P54" si="52">RIGHT(O54,N54)</f>
         <v>1E+188</v>
       </c>
       <c r="Q54" s="2"/>
@@ -4159,11 +4244,11 @@
         <v>192</v>
       </c>
       <c r="O55" s="7">
-        <f t="shared" ref="O55" si="52">POWER(10,N55)</f>
+        <f t="shared" ref="O55" si="53">POWER(10,N55)</f>
         <v>1E+192</v>
       </c>
       <c r="P55" s="7" t="str">
-        <f t="shared" ref="P55" si="53">RIGHT(O55,N55)</f>
+        <f t="shared" ref="P55" si="54">RIGHT(O55,N55)</f>
         <v>1E+192</v>
       </c>
       <c r="Q55" s="2"/>
@@ -4191,11 +4276,11 @@
         <v>196</v>
       </c>
       <c r="O56" s="7">
-        <f t="shared" ref="O56:O57" si="54">POWER(10,N56)</f>
+        <f t="shared" ref="O56:O57" si="55">POWER(10,N56)</f>
         <v>9.9999999999999995E+195</v>
       </c>
       <c r="P56" s="7" t="str">
-        <f t="shared" ref="P56:P57" si="55">RIGHT(O56,N56)</f>
+        <f t="shared" ref="P56:P57" si="56">RIGHT(O56,N56)</f>
         <v>1E+196</v>
       </c>
       <c r="Q56" s="2"/>
@@ -4223,11 +4308,11 @@
         <v>200</v>
       </c>
       <c r="O57" s="7">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>9.9999999999999997E+199</v>
       </c>
       <c r="P57" s="7" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>1E+200</v>
       </c>
       <c r="Q57" s="2"/>
@@ -4255,11 +4340,11 @@
         <v>204</v>
       </c>
       <c r="O58" s="7">
-        <f t="shared" ref="O58:O59" si="56">POWER(10,N58)</f>
+        <f t="shared" ref="O58:O59" si="57">POWER(10,N58)</f>
         <v>9.9999999999999999E+203</v>
       </c>
       <c r="P58" s="7" t="str">
-        <f t="shared" ref="P58:P59" si="57">RIGHT(O58,N58)</f>
+        <f t="shared" ref="P58:P59" si="58">RIGHT(O58,N58)</f>
         <v>1E+204</v>
       </c>
       <c r="Q58" s="2"/>
@@ -4287,11 +4372,11 @@
         <v>208</v>
       </c>
       <c r="O59" s="7">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>9.9999999999999998E+207</v>
       </c>
       <c r="P59" s="7" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>1E+208</v>
       </c>
       <c r="Q59" s="2"/>
@@ -4319,11 +4404,11 @@
         <v>212</v>
       </c>
       <c r="O60" s="7">
-        <f t="shared" ref="O60" si="58">POWER(10,N60)</f>
+        <f t="shared" ref="O60" si="59">POWER(10,N60)</f>
         <v>9.9999999999999991E+211</v>
       </c>
       <c r="P60" s="7" t="str">
-        <f t="shared" ref="P60" si="59">RIGHT(O60,N60)</f>
+        <f t="shared" ref="P60" si="60">RIGHT(O60,N60)</f>
         <v>1E+212</v>
       </c>
       <c r="Q60" s="2"/>
@@ -4351,11 +4436,11 @@
         <v>216</v>
       </c>
       <c r="O61" s="7">
-        <f t="shared" ref="O61:O62" si="60">POWER(10,N61)</f>
+        <f t="shared" ref="O61:O62" si="61">POWER(10,N61)</f>
         <v>1E+216</v>
       </c>
       <c r="P61" s="7" t="str">
-        <f t="shared" ref="P61:P62" si="61">RIGHT(O61,N61)</f>
+        <f t="shared" ref="P61:P62" si="62">RIGHT(O61,N61)</f>
         <v>1E+216</v>
       </c>
       <c r="Q61" s="2"/>
@@ -4383,11 +4468,11 @@
         <v>220</v>
       </c>
       <c r="O62" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>1E+220</v>
       </c>
       <c r="P62" s="7" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>1E+220</v>
       </c>
       <c r="Q62" s="2"/>
@@ -4408,8 +4493,20 @@
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="L63" s="17"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
+      <c r="M63" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="N63" s="6">
+        <v>224</v>
+      </c>
+      <c r="O63" s="7">
+        <f t="shared" ref="O63:O64" si="63">POWER(10,N63)</f>
+        <v>9.9999999999999997E+223</v>
+      </c>
+      <c r="P63" s="7" t="str">
+        <f t="shared" ref="P63:P64" si="64">RIGHT(O63,N63)</f>
+        <v>1E+224</v>
+      </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
@@ -4428,8 +4525,20 @@
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
       <c r="L64" s="17"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
+      <c r="M64" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N64" s="6">
+        <v>228</v>
+      </c>
+      <c r="O64" s="7">
+        <f t="shared" si="63"/>
+        <v>9.9999999999999992E+227</v>
+      </c>
+      <c r="P64" s="7" t="str">
+        <f t="shared" si="64"/>
+        <v>1E+228</v>
+      </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>

--- a/Assets/06.Table/TransTowerTable.xlsx
+++ b/Assets/06.Table/TransTowerTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5174B09-ED94-4B2B-BBE9-9B6C2ABEB2D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32EAEE0-6DC6-4D1C-8468-6EC3D4D15F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="86">
   <si>
     <t>단위 환산 표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -961,11 +961,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="21">
-        <f t="shared" ref="J4:J31" si="0">J3+1000</f>
+        <f t="shared" ref="J4:J32" si="0">J3+1000</f>
         <v>4000</v>
       </c>
       <c r="K4" s="21">
@@ -2248,6 +2248,47 @@
       <c r="L31" s="21">
         <f>VLOOKUP(A31,Balance!E:K,7,FALSE)</f>
         <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="21">
+        <v>30</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="21">
+        <v>9040</v>
+      </c>
+      <c r="D32" s="21">
+        <v>6</v>
+      </c>
+      <c r="E32" s="21">
+        <v>1</v>
+      </c>
+      <c r="F32" s="22">
+        <f>VLOOKUP(A32,Balance!E:J,3,FALSE)</f>
+        <v>9.9999999999999992E+227</v>
+      </c>
+      <c r="G32" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H32" s="21">
+        <v>8</v>
+      </c>
+      <c r="I32" s="21">
+        <v>0</v>
+      </c>
+      <c r="J32" s="21">
+        <f t="shared" si="0"/>
+        <v>32000</v>
+      </c>
+      <c r="K32" s="21">
+        <v>9040</v>
+      </c>
+      <c r="L32" s="21">
+        <f>VLOOKUP(A32,Balance!E:K,7,FALSE)</f>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2262,7 +2303,7 @@
   <dimension ref="A1:Y256"/>
   <sheetViews>
     <sheetView topLeftCell="B29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/TransTowerTable.xlsx
+++ b/Assets/06.Table/TransTowerTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32EAEE0-6DC6-4D1C-8468-6EC3D4D15F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8F1957-8F0F-4CF6-9E3D-6A9F8B012EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="88">
   <si>
     <t>단위 환산 표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,6 +375,14 @@
   </si>
   <si>
     <t>연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -961,11 +969,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1132,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="21">
-        <f t="shared" ref="J4:J32" si="0">J3+1000</f>
+        <f t="shared" ref="J4:J33" si="0">J3+1000</f>
         <v>4000</v>
       </c>
       <c r="K4" s="21">
@@ -2289,6 +2297,47 @@
       <c r="L32" s="21">
         <f>VLOOKUP(A32,Balance!E:K,7,FALSE)</f>
         <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="21">
+        <v>31</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="21">
+        <v>9040</v>
+      </c>
+      <c r="D33" s="21">
+        <v>6</v>
+      </c>
+      <c r="E33" s="21">
+        <v>1</v>
+      </c>
+      <c r="F33" s="22">
+        <f>VLOOKUP(A33,Balance!E:J,3,FALSE)</f>
+        <v>1.0000000000000001E+232</v>
+      </c>
+      <c r="G33" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H33" s="21">
+        <v>8</v>
+      </c>
+      <c r="I33" s="21">
+        <v>0</v>
+      </c>
+      <c r="J33" s="21">
+        <f t="shared" si="0"/>
+        <v>33000</v>
+      </c>
+      <c r="K33" s="21">
+        <v>9040</v>
+      </c>
+      <c r="L33" s="21">
+        <f>VLOOKUP(A33,Balance!E:K,7,FALSE)</f>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2302,8 +2351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="B29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView topLeftCell="B35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3645,11 +3694,11 @@
         <v>28</v>
       </c>
       <c r="F37" s="7" t="str">
-        <f t="shared" ref="F37:F39" si="25">H37&amp;I37</f>
+        <f t="shared" ref="F37:F40" si="25">H37&amp;I37</f>
         <v>1관</v>
       </c>
       <c r="G37" s="7">
-        <f t="shared" ref="G37:G39" si="26">H37*J37</f>
+        <f t="shared" ref="G37:G40" si="26">H37*J37</f>
         <v>1E+216</v>
       </c>
       <c r="H37" s="7">
@@ -3759,7 +3808,7 @@
         <v>85</v>
       </c>
       <c r="J39" s="6" t="str">
-        <f t="shared" ref="J39" si="28">VLOOKUP(I39,M:P,4,FALSE)</f>
+        <f t="shared" ref="J39:J40" si="28">VLOOKUP(I39,M:P,4,FALSE)</f>
         <v>1E+228</v>
       </c>
       <c r="K39" s="2">
@@ -3791,12 +3840,30 @@
       <c r="Y39" s="2"/>
     </row>
     <row r="40" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E40" s="6"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
+      <c r="E40" s="6">
+        <v>31</v>
+      </c>
+      <c r="F40" s="7" t="str">
+        <f t="shared" si="25"/>
+        <v>1난</v>
+      </c>
+      <c r="G40" s="7">
+        <f t="shared" si="26"/>
+        <v>1.0000000000000001E+232</v>
+      </c>
+      <c r="H40" s="7">
+        <v>1</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J40" s="6" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+232</v>
+      </c>
+      <c r="K40" s="2">
+        <v>32</v>
+      </c>
       <c r="L40" s="17"/>
       <c r="M40" s="6" t="s">
         <v>48</v>
@@ -4598,8 +4665,20 @@
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
       <c r="L65" s="17"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
+      <c r="M65" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N65" s="6">
+        <v>232</v>
+      </c>
+      <c r="O65" s="7">
+        <f t="shared" ref="O65:O66" si="65">POWER(10,N65)</f>
+        <v>1.0000000000000001E+232</v>
+      </c>
+      <c r="P65" s="7" t="str">
+        <f t="shared" ref="P65:P66" si="66">RIGHT(O65,N65)</f>
+        <v>1E+232</v>
+      </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
@@ -4618,8 +4697,20 @@
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="L66" s="17"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
+      <c r="M66" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N66" s="6">
+        <v>236</v>
+      </c>
+      <c r="O66" s="7">
+        <f t="shared" si="65"/>
+        <v>1.0000000000000001E+236</v>
+      </c>
+      <c r="P66" s="7" t="str">
+        <f t="shared" si="66"/>
+        <v>1E+236</v>
+      </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>

--- a/Assets/06.Table/TransTowerTable.xlsx
+++ b/Assets/06.Table/TransTowerTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8F1957-8F0F-4CF6-9E3D-6A9F8B012EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7BCFEA-D45A-41FE-831E-4684919019CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="88">
   <si>
     <t>단위 환산 표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -969,11 +969,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="21">
-        <f t="shared" ref="J4:J33" si="0">J3+1000</f>
+        <f t="shared" ref="J4:J34" si="0">J3+1000</f>
         <v>4000</v>
       </c>
       <c r="K4" s="21">
@@ -2338,6 +2338,47 @@
       <c r="L33" s="21">
         <f>VLOOKUP(A33,Balance!E:K,7,FALSE)</f>
         <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="21">
+        <v>32</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="21">
+        <v>9040</v>
+      </c>
+      <c r="D34" s="21">
+        <v>6</v>
+      </c>
+      <c r="E34" s="21">
+        <v>1</v>
+      </c>
+      <c r="F34" s="22">
+        <f>VLOOKUP(A34,Balance!E:J,3,FALSE)</f>
+        <v>1.0000000000000001E+236</v>
+      </c>
+      <c r="G34" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H34" s="21">
+        <v>8</v>
+      </c>
+      <c r="I34" s="21">
+        <v>0</v>
+      </c>
+      <c r="J34" s="21">
+        <f t="shared" si="0"/>
+        <v>34000</v>
+      </c>
+      <c r="K34" s="21">
+        <v>9040</v>
+      </c>
+      <c r="L34" s="21">
+        <f>VLOOKUP(A34,Balance!E:K,7,FALSE)</f>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2352,7 +2393,7 @@
   <dimension ref="A1:Y256"/>
   <sheetViews>
     <sheetView topLeftCell="B35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3694,11 +3735,11 @@
         <v>28</v>
       </c>
       <c r="F37" s="7" t="str">
-        <f t="shared" ref="F37:F40" si="25">H37&amp;I37</f>
+        <f t="shared" ref="F37:F41" si="25">H37&amp;I37</f>
         <v>1관</v>
       </c>
       <c r="G37" s="7">
-        <f t="shared" ref="G37:G40" si="26">H37*J37</f>
+        <f t="shared" ref="G37:G41" si="26">H37*J37</f>
         <v>1E+216</v>
       </c>
       <c r="H37" s="7">
@@ -3808,7 +3849,7 @@
         <v>85</v>
       </c>
       <c r="J39" s="6" t="str">
-        <f t="shared" ref="J39:J40" si="28">VLOOKUP(I39,M:P,4,FALSE)</f>
+        <f t="shared" ref="J39:J41" si="28">VLOOKUP(I39,M:P,4,FALSE)</f>
         <v>1E+228</v>
       </c>
       <c r="K39" s="2">
@@ -3890,12 +3931,30 @@
       <c r="Y40" s="2"/>
     </row>
     <row r="41" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E41" s="6"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
+      <c r="E41" s="6">
+        <v>32</v>
+      </c>
+      <c r="F41" s="7" t="str">
+        <f t="shared" si="25"/>
+        <v>1군</v>
+      </c>
+      <c r="G41" s="7">
+        <f t="shared" si="26"/>
+        <v>1.0000000000000001E+236</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J41" s="6" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+236</v>
+      </c>
+      <c r="K41" s="2">
+        <v>33</v>
+      </c>
       <c r="L41" s="17"/>
       <c r="M41" s="6" t="s">
         <v>62</v>

--- a/Assets/06.Table/TransTowerTable.xlsx
+++ b/Assets/06.Table/TransTowerTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7BCFEA-D45A-41FE-831E-4684919019CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80341062-33B5-4C9D-B617-17ED6253C2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="90">
   <si>
     <t>단위 환산 표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -383,6 +383,14 @@
   </si>
   <si>
     <t>군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -969,11 +977,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1140,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="21">
-        <f t="shared" ref="J4:J34" si="0">J3+1000</f>
+        <f t="shared" ref="J4:J35" si="0">J3+1000</f>
         <v>4000</v>
       </c>
       <c r="K4" s="21">
@@ -2379,6 +2387,47 @@
       <c r="L34" s="21">
         <f>VLOOKUP(A34,Balance!E:K,7,FALSE)</f>
         <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="21">
+        <v>33</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="21">
+        <v>9040</v>
+      </c>
+      <c r="D35" s="21">
+        <v>6</v>
+      </c>
+      <c r="E35" s="21">
+        <v>1</v>
+      </c>
+      <c r="F35" s="22">
+        <f>VLOOKUP(A35,Balance!E:J,3,FALSE)</f>
+        <v>1E+240</v>
+      </c>
+      <c r="G35" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H35" s="21">
+        <v>8</v>
+      </c>
+      <c r="I35" s="21">
+        <v>0</v>
+      </c>
+      <c r="J35" s="21">
+        <f t="shared" si="0"/>
+        <v>35000</v>
+      </c>
+      <c r="K35" s="21">
+        <v>9040</v>
+      </c>
+      <c r="L35" s="21">
+        <f>VLOOKUP(A35,Balance!E:K,7,FALSE)</f>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2392,8 +2441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="B35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView topLeftCell="B32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3849,7 +3898,7 @@
         <v>85</v>
       </c>
       <c r="J39" s="6" t="str">
-        <f t="shared" ref="J39:J41" si="28">VLOOKUP(I39,M:P,4,FALSE)</f>
+        <f t="shared" ref="J39:J42" si="28">VLOOKUP(I39,M:P,4,FALSE)</f>
         <v>1E+228</v>
       </c>
       <c r="K39" s="2">
@@ -3981,12 +4030,30 @@
       <c r="Y41" s="2"/>
     </row>
     <row r="42" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E42" s="6"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
+      <c r="E42" s="6">
+        <v>33</v>
+      </c>
+      <c r="F42" s="7" t="str">
+        <f t="shared" ref="F42" si="33">H42&amp;I42</f>
+        <v>1결</v>
+      </c>
+      <c r="G42" s="7">
+        <f t="shared" ref="G42" si="34">H42*J42</f>
+        <v>1E+240</v>
+      </c>
+      <c r="H42" s="7">
+        <v>1</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J42" s="6" t="str">
+        <f t="shared" si="28"/>
+        <v>1E+240</v>
+      </c>
+      <c r="K42" s="2">
+        <v>34</v>
+      </c>
       <c r="L42" s="17"/>
       <c r="M42" s="6" t="s">
         <v>63</v>
@@ -4027,11 +4094,11 @@
         <v>144</v>
       </c>
       <c r="O43" s="7">
-        <f t="shared" ref="O43" si="33">POWER(10,N43)</f>
+        <f t="shared" ref="O43" si="35">POWER(10,N43)</f>
         <v>1E+144</v>
       </c>
       <c r="P43" s="7" t="str">
-        <f t="shared" ref="P43" si="34">RIGHT(O43,N43)</f>
+        <f t="shared" ref="P43" si="36">RIGHT(O43,N43)</f>
         <v>1E+144</v>
       </c>
       <c r="Q43" s="2"/>
@@ -4059,11 +4126,11 @@
         <v>148</v>
       </c>
       <c r="O44" s="7">
-        <f t="shared" ref="O44" si="35">POWER(10,N44)</f>
+        <f t="shared" ref="O44" si="37">POWER(10,N44)</f>
         <v>1E+148</v>
       </c>
       <c r="P44" s="7" t="str">
-        <f t="shared" ref="P44" si="36">RIGHT(O44,N44)</f>
+        <f t="shared" ref="P44" si="38">RIGHT(O44,N44)</f>
         <v>1E+148</v>
       </c>
       <c r="Q44" s="2"/>
@@ -4091,11 +4158,11 @@
         <v>152</v>
       </c>
       <c r="O45" s="7">
-        <f t="shared" ref="O45" si="37">POWER(10,N45)</f>
+        <f t="shared" ref="O45" si="39">POWER(10,N45)</f>
         <v>1E+152</v>
       </c>
       <c r="P45" s="7" t="str">
-        <f t="shared" ref="P45" si="38">RIGHT(O45,N45)</f>
+        <f t="shared" ref="P45" si="40">RIGHT(O45,N45)</f>
         <v>1E+152</v>
       </c>
       <c r="Q45" s="2"/>
@@ -4123,11 +4190,11 @@
         <v>156</v>
       </c>
       <c r="O46" s="7">
-        <f t="shared" ref="O46" si="39">POWER(10,N46)</f>
+        <f t="shared" ref="O46" si="41">POWER(10,N46)</f>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="P46" s="7" t="str">
-        <f t="shared" ref="P46" si="40">RIGHT(O46,N46)</f>
+        <f t="shared" ref="P46" si="42">RIGHT(O46,N46)</f>
         <v>1E+156</v>
       </c>
       <c r="Q46" s="2"/>
@@ -4155,11 +4222,11 @@
         <v>160</v>
       </c>
       <c r="O47" s="7">
-        <f t="shared" ref="O47:O48" si="41">POWER(10,N47)</f>
+        <f t="shared" ref="O47:O48" si="43">POWER(10,N47)</f>
         <v>1E+160</v>
       </c>
       <c r="P47" s="7" t="str">
-        <f t="shared" ref="P47:P48" si="42">RIGHT(O47,N47)</f>
+        <f t="shared" ref="P47:P48" si="44">RIGHT(O47,N47)</f>
         <v>1E+160</v>
       </c>
       <c r="Q47" s="2"/>
@@ -4187,11 +4254,11 @@
         <v>164</v>
       </c>
       <c r="O48" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1E+164</v>
       </c>
       <c r="P48" s="7" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1E+164</v>
       </c>
       <c r="Q48" s="2"/>
@@ -4219,11 +4286,11 @@
         <v>168</v>
       </c>
       <c r="O49" s="7">
-        <f t="shared" ref="O49" si="43">POWER(10,N49)</f>
+        <f t="shared" ref="O49" si="45">POWER(10,N49)</f>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="P49" s="7" t="str">
-        <f t="shared" ref="P49" si="44">RIGHT(O49,N49)</f>
+        <f t="shared" ref="P49" si="46">RIGHT(O49,N49)</f>
         <v>1E+168</v>
       </c>
       <c r="Q49" s="2"/>
@@ -4251,11 +4318,11 @@
         <v>172</v>
       </c>
       <c r="O50" s="7">
-        <f t="shared" ref="O50:O51" si="45">POWER(10,N50)</f>
+        <f t="shared" ref="O50:O51" si="47">POWER(10,N50)</f>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="P50" s="7" t="str">
-        <f t="shared" ref="P50:P51" si="46">RIGHT(O50,N50)</f>
+        <f t="shared" ref="P50:P51" si="48">RIGHT(O50,N50)</f>
         <v>1E+172</v>
       </c>
       <c r="Q50" s="2"/>
@@ -4283,11 +4350,11 @@
         <v>176</v>
       </c>
       <c r="O51" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1E+176</v>
       </c>
       <c r="P51" s="7" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1E+176</v>
       </c>
       <c r="Q51" s="2"/>
@@ -4315,11 +4382,11 @@
         <v>180</v>
       </c>
       <c r="O52" s="7">
-        <f t="shared" ref="O52" si="47">POWER(10,N52)</f>
+        <f t="shared" ref="O52" si="49">POWER(10,N52)</f>
         <v>1E+180</v>
       </c>
       <c r="P52" s="7" t="str">
-        <f t="shared" ref="P52" si="48">RIGHT(O52,N52)</f>
+        <f t="shared" ref="P52" si="50">RIGHT(O52,N52)</f>
         <v>1E+180</v>
       </c>
       <c r="Q52" s="2"/>
@@ -4347,11 +4414,11 @@
         <v>184</v>
       </c>
       <c r="O53" s="7">
-        <f t="shared" ref="O53" si="49">POWER(10,N53)</f>
+        <f t="shared" ref="O53" si="51">POWER(10,N53)</f>
         <v>1E+184</v>
       </c>
       <c r="P53" s="7" t="str">
-        <f t="shared" ref="P53" si="50">RIGHT(O53,N53)</f>
+        <f t="shared" ref="P53" si="52">RIGHT(O53,N53)</f>
         <v>1E+184</v>
       </c>
       <c r="Q53" s="2"/>
@@ -4379,11 +4446,11 @@
         <v>188</v>
       </c>
       <c r="O54" s="7">
-        <f t="shared" ref="O54" si="51">POWER(10,N54)</f>
+        <f t="shared" ref="O54" si="53">POWER(10,N54)</f>
         <v>1E+188</v>
       </c>
       <c r="P54" s="7" t="str">
-        <f t="shared" ref="P54" si="52">RIGHT(O54,N54)</f>
+        <f t="shared" ref="P54" si="54">RIGHT(O54,N54)</f>
         <v>1E+188</v>
       </c>
       <c r="Q54" s="2"/>
@@ -4411,11 +4478,11 @@
         <v>192</v>
       </c>
       <c r="O55" s="7">
-        <f t="shared" ref="O55" si="53">POWER(10,N55)</f>
+        <f t="shared" ref="O55" si="55">POWER(10,N55)</f>
         <v>1E+192</v>
       </c>
       <c r="P55" s="7" t="str">
-        <f t="shared" ref="P55" si="54">RIGHT(O55,N55)</f>
+        <f t="shared" ref="P55" si="56">RIGHT(O55,N55)</f>
         <v>1E+192</v>
       </c>
       <c r="Q55" s="2"/>
@@ -4443,11 +4510,11 @@
         <v>196</v>
       </c>
       <c r="O56" s="7">
-        <f t="shared" ref="O56:O57" si="55">POWER(10,N56)</f>
+        <f t="shared" ref="O56:O57" si="57">POWER(10,N56)</f>
         <v>9.9999999999999995E+195</v>
       </c>
       <c r="P56" s="7" t="str">
-        <f t="shared" ref="P56:P57" si="56">RIGHT(O56,N56)</f>
+        <f t="shared" ref="P56:P57" si="58">RIGHT(O56,N56)</f>
         <v>1E+196</v>
       </c>
       <c r="Q56" s="2"/>
@@ -4475,11 +4542,11 @@
         <v>200</v>
       </c>
       <c r="O57" s="7">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>9.9999999999999997E+199</v>
       </c>
       <c r="P57" s="7" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>1E+200</v>
       </c>
       <c r="Q57" s="2"/>
@@ -4507,11 +4574,11 @@
         <v>204</v>
       </c>
       <c r="O58" s="7">
-        <f t="shared" ref="O58:O59" si="57">POWER(10,N58)</f>
+        <f t="shared" ref="O58:O59" si="59">POWER(10,N58)</f>
         <v>9.9999999999999999E+203</v>
       </c>
       <c r="P58" s="7" t="str">
-        <f t="shared" ref="P58:P59" si="58">RIGHT(O58,N58)</f>
+        <f t="shared" ref="P58:P59" si="60">RIGHT(O58,N58)</f>
         <v>1E+204</v>
       </c>
       <c r="Q58" s="2"/>
@@ -4539,11 +4606,11 @@
         <v>208</v>
       </c>
       <c r="O59" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>9.9999999999999998E+207</v>
       </c>
       <c r="P59" s="7" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1E+208</v>
       </c>
       <c r="Q59" s="2"/>
@@ -4571,11 +4638,11 @@
         <v>212</v>
       </c>
       <c r="O60" s="7">
-        <f t="shared" ref="O60" si="59">POWER(10,N60)</f>
+        <f t="shared" ref="O60" si="61">POWER(10,N60)</f>
         <v>9.9999999999999991E+211</v>
       </c>
       <c r="P60" s="7" t="str">
-        <f t="shared" ref="P60" si="60">RIGHT(O60,N60)</f>
+        <f t="shared" ref="P60" si="62">RIGHT(O60,N60)</f>
         <v>1E+212</v>
       </c>
       <c r="Q60" s="2"/>
@@ -4603,11 +4670,11 @@
         <v>216</v>
       </c>
       <c r="O61" s="7">
-        <f t="shared" ref="O61:O62" si="61">POWER(10,N61)</f>
+        <f t="shared" ref="O61:O62" si="63">POWER(10,N61)</f>
         <v>1E+216</v>
       </c>
       <c r="P61" s="7" t="str">
-        <f t="shared" ref="P61:P62" si="62">RIGHT(O61,N61)</f>
+        <f t="shared" ref="P61:P62" si="64">RIGHT(O61,N61)</f>
         <v>1E+216</v>
       </c>
       <c r="Q61" s="2"/>
@@ -4635,11 +4702,11 @@
         <v>220</v>
       </c>
       <c r="O62" s="7">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1E+220</v>
       </c>
       <c r="P62" s="7" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1E+220</v>
       </c>
       <c r="Q62" s="2"/>
@@ -4667,11 +4734,11 @@
         <v>224</v>
       </c>
       <c r="O63" s="7">
-        <f t="shared" ref="O63:O64" si="63">POWER(10,N63)</f>
+        <f t="shared" ref="O63:O64" si="65">POWER(10,N63)</f>
         <v>9.9999999999999997E+223</v>
       </c>
       <c r="P63" s="7" t="str">
-        <f t="shared" ref="P63:P64" si="64">RIGHT(O63,N63)</f>
+        <f t="shared" ref="P63:P64" si="66">RIGHT(O63,N63)</f>
         <v>1E+224</v>
       </c>
       <c r="Q63" s="2"/>
@@ -4699,11 +4766,11 @@
         <v>228</v>
       </c>
       <c r="O64" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>9.9999999999999992E+227</v>
       </c>
       <c r="P64" s="7" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>1E+228</v>
       </c>
       <c r="Q64" s="2"/>
@@ -4731,11 +4798,11 @@
         <v>232</v>
       </c>
       <c r="O65" s="7">
-        <f t="shared" ref="O65:O66" si="65">POWER(10,N65)</f>
+        <f t="shared" ref="O65:O66" si="67">POWER(10,N65)</f>
         <v>1.0000000000000001E+232</v>
       </c>
       <c r="P65" s="7" t="str">
-        <f t="shared" ref="P65:P66" si="66">RIGHT(O65,N65)</f>
+        <f t="shared" ref="P65:P66" si="68">RIGHT(O65,N65)</f>
         <v>1E+232</v>
       </c>
       <c r="Q65" s="2"/>
@@ -4763,11 +4830,11 @@
         <v>236</v>
       </c>
       <c r="O66" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1.0000000000000001E+236</v>
       </c>
       <c r="P66" s="7" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>1E+236</v>
       </c>
       <c r="Q66" s="2"/>
@@ -4788,6 +4855,20 @@
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="L67" s="17"/>
+      <c r="M67" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N67" s="6">
+        <v>240</v>
+      </c>
+      <c r="O67" s="7">
+        <f t="shared" ref="O67:O68" si="69">POWER(10,N67)</f>
+        <v>1E+240</v>
+      </c>
+      <c r="P67" s="7" t="str">
+        <f t="shared" ref="P67:P68" si="70">RIGHT(O67,N67)</f>
+        <v>1E+240</v>
+      </c>
     </row>
     <row r="68" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E68" s="6"/>
@@ -4797,6 +4878,20 @@
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
       <c r="L68" s="17"/>
+      <c r="M68" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N68" s="6">
+        <v>244</v>
+      </c>
+      <c r="O68" s="7">
+        <f t="shared" si="69"/>
+        <v>1.0000000000000001E+244</v>
+      </c>
+      <c r="P68" s="7" t="str">
+        <f t="shared" si="70"/>
+        <v>1E+244</v>
+      </c>
     </row>
     <row r="69" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E69" s="6"/>

--- a/Assets/06.Table/TransTowerTable.xlsx
+++ b/Assets/06.Table/TransTowerTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80341062-33B5-4C9D-B617-17ED6253C2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE7A6C2-0E61-4306-889B-677CF2EAD7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="90">
   <si>
     <t>단위 환산 표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -977,11 +977,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="21">
-        <f t="shared" ref="J4:J35" si="0">J3+1000</f>
+        <f t="shared" ref="J4:J36" si="0">J3+1000</f>
         <v>4000</v>
       </c>
       <c r="K4" s="21">
@@ -2428,6 +2428,47 @@
       <c r="L35" s="21">
         <f>VLOOKUP(A35,Balance!E:K,7,FALSE)</f>
         <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="21">
+        <v>34</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="21">
+        <v>9040</v>
+      </c>
+      <c r="D36" s="21">
+        <v>6</v>
+      </c>
+      <c r="E36" s="21">
+        <v>1</v>
+      </c>
+      <c r="F36" s="22">
+        <f>VLOOKUP(A36,Balance!E:J,3,FALSE)</f>
+        <v>1.0000000000000001E+244</v>
+      </c>
+      <c r="G36" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H36" s="21">
+        <v>8</v>
+      </c>
+      <c r="I36" s="21">
+        <v>0</v>
+      </c>
+      <c r="J36" s="21">
+        <f t="shared" si="0"/>
+        <v>36000</v>
+      </c>
+      <c r="K36" s="21">
+        <v>9040</v>
+      </c>
+      <c r="L36" s="21">
+        <f>VLOOKUP(A36,Balance!E:K,7,FALSE)</f>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2441,8 +2482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="B32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView topLeftCell="B23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4034,11 +4075,11 @@
         <v>33</v>
       </c>
       <c r="F42" s="7" t="str">
-        <f t="shared" ref="F42" si="33">H42&amp;I42</f>
+        <f t="shared" ref="F42:F43" si="33">H42&amp;I42</f>
         <v>1결</v>
       </c>
       <c r="G42" s="7">
-        <f t="shared" ref="G42" si="34">H42*J42</f>
+        <f t="shared" ref="G42:G43" si="34">H42*J42</f>
         <v>1E+240</v>
       </c>
       <c r="H42" s="7">
@@ -4080,12 +4121,30 @@
       <c r="Y42" s="2"/>
     </row>
     <row r="43" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E43" s="6"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
+      <c r="E43" s="6">
+        <v>34</v>
+      </c>
+      <c r="F43" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v>1맥</v>
+      </c>
+      <c r="G43" s="7">
+        <f t="shared" si="34"/>
+        <v>1.0000000000000001E+244</v>
+      </c>
+      <c r="H43" s="7">
+        <v>1</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J43" s="6" t="str">
+        <f t="shared" ref="J43" si="35">VLOOKUP(I43,M:P,4,FALSE)</f>
+        <v>1E+244</v>
+      </c>
+      <c r="K43" s="2">
+        <v>35</v>
+      </c>
       <c r="L43" s="17"/>
       <c r="M43" s="6" t="s">
         <v>64</v>
@@ -4094,11 +4153,11 @@
         <v>144</v>
       </c>
       <c r="O43" s="7">
-        <f t="shared" ref="O43" si="35">POWER(10,N43)</f>
+        <f t="shared" ref="O43" si="36">POWER(10,N43)</f>
         <v>1E+144</v>
       </c>
       <c r="P43" s="7" t="str">
-        <f t="shared" ref="P43" si="36">RIGHT(O43,N43)</f>
+        <f t="shared" ref="P43" si="37">RIGHT(O43,N43)</f>
         <v>1E+144</v>
       </c>
       <c r="Q43" s="2"/>
@@ -4126,11 +4185,11 @@
         <v>148</v>
       </c>
       <c r="O44" s="7">
-        <f t="shared" ref="O44" si="37">POWER(10,N44)</f>
+        <f t="shared" ref="O44" si="38">POWER(10,N44)</f>
         <v>1E+148</v>
       </c>
       <c r="P44" s="7" t="str">
-        <f t="shared" ref="P44" si="38">RIGHT(O44,N44)</f>
+        <f t="shared" ref="P44" si="39">RIGHT(O44,N44)</f>
         <v>1E+148</v>
       </c>
       <c r="Q44" s="2"/>
@@ -4158,11 +4217,11 @@
         <v>152</v>
       </c>
       <c r="O45" s="7">
-        <f t="shared" ref="O45" si="39">POWER(10,N45)</f>
+        <f t="shared" ref="O45" si="40">POWER(10,N45)</f>
         <v>1E+152</v>
       </c>
       <c r="P45" s="7" t="str">
-        <f t="shared" ref="P45" si="40">RIGHT(O45,N45)</f>
+        <f t="shared" ref="P45" si="41">RIGHT(O45,N45)</f>
         <v>1E+152</v>
       </c>
       <c r="Q45" s="2"/>
@@ -4190,11 +4249,11 @@
         <v>156</v>
       </c>
       <c r="O46" s="7">
-        <f t="shared" ref="O46" si="41">POWER(10,N46)</f>
+        <f t="shared" ref="O46" si="42">POWER(10,N46)</f>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="P46" s="7" t="str">
-        <f t="shared" ref="P46" si="42">RIGHT(O46,N46)</f>
+        <f t="shared" ref="P46" si="43">RIGHT(O46,N46)</f>
         <v>1E+156</v>
       </c>
       <c r="Q46" s="2"/>
@@ -4222,11 +4281,11 @@
         <v>160</v>
       </c>
       <c r="O47" s="7">
-        <f t="shared" ref="O47:O48" si="43">POWER(10,N47)</f>
+        <f t="shared" ref="O47:O48" si="44">POWER(10,N47)</f>
         <v>1E+160</v>
       </c>
       <c r="P47" s="7" t="str">
-        <f t="shared" ref="P47:P48" si="44">RIGHT(O47,N47)</f>
+        <f t="shared" ref="P47:P48" si="45">RIGHT(O47,N47)</f>
         <v>1E+160</v>
       </c>
       <c r="Q47" s="2"/>
@@ -4254,11 +4313,11 @@
         <v>164</v>
       </c>
       <c r="O48" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1E+164</v>
       </c>
       <c r="P48" s="7" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1E+164</v>
       </c>
       <c r="Q48" s="2"/>
@@ -4286,11 +4345,11 @@
         <v>168</v>
       </c>
       <c r="O49" s="7">
-        <f t="shared" ref="O49" si="45">POWER(10,N49)</f>
+        <f t="shared" ref="O49" si="46">POWER(10,N49)</f>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="P49" s="7" t="str">
-        <f t="shared" ref="P49" si="46">RIGHT(O49,N49)</f>
+        <f t="shared" ref="P49" si="47">RIGHT(O49,N49)</f>
         <v>1E+168</v>
       </c>
       <c r="Q49" s="2"/>
@@ -4318,11 +4377,11 @@
         <v>172</v>
       </c>
       <c r="O50" s="7">
-        <f t="shared" ref="O50:O51" si="47">POWER(10,N50)</f>
+        <f t="shared" ref="O50:O51" si="48">POWER(10,N50)</f>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="P50" s="7" t="str">
-        <f t="shared" ref="P50:P51" si="48">RIGHT(O50,N50)</f>
+        <f t="shared" ref="P50:P51" si="49">RIGHT(O50,N50)</f>
         <v>1E+172</v>
       </c>
       <c r="Q50" s="2"/>
@@ -4350,11 +4409,11 @@
         <v>176</v>
       </c>
       <c r="O51" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>1E+176</v>
       </c>
       <c r="P51" s="7" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1E+176</v>
       </c>
       <c r="Q51" s="2"/>
@@ -4382,11 +4441,11 @@
         <v>180</v>
       </c>
       <c r="O52" s="7">
-        <f t="shared" ref="O52" si="49">POWER(10,N52)</f>
+        <f t="shared" ref="O52" si="50">POWER(10,N52)</f>
         <v>1E+180</v>
       </c>
       <c r="P52" s="7" t="str">
-        <f t="shared" ref="P52" si="50">RIGHT(O52,N52)</f>
+        <f t="shared" ref="P52" si="51">RIGHT(O52,N52)</f>
         <v>1E+180</v>
       </c>
       <c r="Q52" s="2"/>
@@ -4414,11 +4473,11 @@
         <v>184</v>
       </c>
       <c r="O53" s="7">
-        <f t="shared" ref="O53" si="51">POWER(10,N53)</f>
+        <f t="shared" ref="O53" si="52">POWER(10,N53)</f>
         <v>1E+184</v>
       </c>
       <c r="P53" s="7" t="str">
-        <f t="shared" ref="P53" si="52">RIGHT(O53,N53)</f>
+        <f t="shared" ref="P53" si="53">RIGHT(O53,N53)</f>
         <v>1E+184</v>
       </c>
       <c r="Q53" s="2"/>
@@ -4446,11 +4505,11 @@
         <v>188</v>
       </c>
       <c r="O54" s="7">
-        <f t="shared" ref="O54" si="53">POWER(10,N54)</f>
+        <f t="shared" ref="O54" si="54">POWER(10,N54)</f>
         <v>1E+188</v>
       </c>
       <c r="P54" s="7" t="str">
-        <f t="shared" ref="P54" si="54">RIGHT(O54,N54)</f>
+        <f t="shared" ref="P54" si="55">RIGHT(O54,N54)</f>
         <v>1E+188</v>
       </c>
       <c r="Q54" s="2"/>
@@ -4478,11 +4537,11 @@
         <v>192</v>
       </c>
       <c r="O55" s="7">
-        <f t="shared" ref="O55" si="55">POWER(10,N55)</f>
+        <f t="shared" ref="O55" si="56">POWER(10,N55)</f>
         <v>1E+192</v>
       </c>
       <c r="P55" s="7" t="str">
-        <f t="shared" ref="P55" si="56">RIGHT(O55,N55)</f>
+        <f t="shared" ref="P55" si="57">RIGHT(O55,N55)</f>
         <v>1E+192</v>
       </c>
       <c r="Q55" s="2"/>
@@ -4510,11 +4569,11 @@
         <v>196</v>
       </c>
       <c r="O56" s="7">
-        <f t="shared" ref="O56:O57" si="57">POWER(10,N56)</f>
+        <f t="shared" ref="O56:O57" si="58">POWER(10,N56)</f>
         <v>9.9999999999999995E+195</v>
       </c>
       <c r="P56" s="7" t="str">
-        <f t="shared" ref="P56:P57" si="58">RIGHT(O56,N56)</f>
+        <f t="shared" ref="P56:P57" si="59">RIGHT(O56,N56)</f>
         <v>1E+196</v>
       </c>
       <c r="Q56" s="2"/>
@@ -4542,11 +4601,11 @@
         <v>200</v>
       </c>
       <c r="O57" s="7">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>9.9999999999999997E+199</v>
       </c>
       <c r="P57" s="7" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>1E+200</v>
       </c>
       <c r="Q57" s="2"/>
@@ -4574,11 +4633,11 @@
         <v>204</v>
       </c>
       <c r="O58" s="7">
-        <f t="shared" ref="O58:O59" si="59">POWER(10,N58)</f>
+        <f t="shared" ref="O58:O59" si="60">POWER(10,N58)</f>
         <v>9.9999999999999999E+203</v>
       </c>
       <c r="P58" s="7" t="str">
-        <f t="shared" ref="P58:P59" si="60">RIGHT(O58,N58)</f>
+        <f t="shared" ref="P58:P59" si="61">RIGHT(O58,N58)</f>
         <v>1E+204</v>
       </c>
       <c r="Q58" s="2"/>
@@ -4606,11 +4665,11 @@
         <v>208</v>
       </c>
       <c r="O59" s="7">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>9.9999999999999998E+207</v>
       </c>
       <c r="P59" s="7" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>1E+208</v>
       </c>
       <c r="Q59" s="2"/>
@@ -4638,11 +4697,11 @@
         <v>212</v>
       </c>
       <c r="O60" s="7">
-        <f t="shared" ref="O60" si="61">POWER(10,N60)</f>
+        <f t="shared" ref="O60" si="62">POWER(10,N60)</f>
         <v>9.9999999999999991E+211</v>
       </c>
       <c r="P60" s="7" t="str">
-        <f t="shared" ref="P60" si="62">RIGHT(O60,N60)</f>
+        <f t="shared" ref="P60" si="63">RIGHT(O60,N60)</f>
         <v>1E+212</v>
       </c>
       <c r="Q60" s="2"/>
@@ -4670,11 +4729,11 @@
         <v>216</v>
       </c>
       <c r="O61" s="7">
-        <f t="shared" ref="O61:O62" si="63">POWER(10,N61)</f>
+        <f t="shared" ref="O61:O62" si="64">POWER(10,N61)</f>
         <v>1E+216</v>
       </c>
       <c r="P61" s="7" t="str">
-        <f t="shared" ref="P61:P62" si="64">RIGHT(O61,N61)</f>
+        <f t="shared" ref="P61:P62" si="65">RIGHT(O61,N61)</f>
         <v>1E+216</v>
       </c>
       <c r="Q61" s="2"/>
@@ -4702,11 +4761,11 @@
         <v>220</v>
       </c>
       <c r="O62" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1E+220</v>
       </c>
       <c r="P62" s="7" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1E+220</v>
       </c>
       <c r="Q62" s="2"/>
@@ -4734,11 +4793,11 @@
         <v>224</v>
       </c>
       <c r="O63" s="7">
-        <f t="shared" ref="O63:O64" si="65">POWER(10,N63)</f>
+        <f t="shared" ref="O63:O64" si="66">POWER(10,N63)</f>
         <v>9.9999999999999997E+223</v>
       </c>
       <c r="P63" s="7" t="str">
-        <f t="shared" ref="P63:P64" si="66">RIGHT(O63,N63)</f>
+        <f t="shared" ref="P63:P64" si="67">RIGHT(O63,N63)</f>
         <v>1E+224</v>
       </c>
       <c r="Q63" s="2"/>
@@ -4766,11 +4825,11 @@
         <v>228</v>
       </c>
       <c r="O64" s="7">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>9.9999999999999992E+227</v>
       </c>
       <c r="P64" s="7" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>1E+228</v>
       </c>
       <c r="Q64" s="2"/>
@@ -4798,11 +4857,11 @@
         <v>232</v>
       </c>
       <c r="O65" s="7">
-        <f t="shared" ref="O65:O66" si="67">POWER(10,N65)</f>
+        <f t="shared" ref="O65:O66" si="68">POWER(10,N65)</f>
         <v>1.0000000000000001E+232</v>
       </c>
       <c r="P65" s="7" t="str">
-        <f t="shared" ref="P65:P66" si="68">RIGHT(O65,N65)</f>
+        <f t="shared" ref="P65:P66" si="69">RIGHT(O65,N65)</f>
         <v>1E+232</v>
       </c>
       <c r="Q65" s="2"/>
@@ -4830,11 +4889,11 @@
         <v>236</v>
       </c>
       <c r="O66" s="7">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1.0000000000000001E+236</v>
       </c>
       <c r="P66" s="7" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1E+236</v>
       </c>
       <c r="Q66" s="2"/>
@@ -4862,11 +4921,11 @@
         <v>240</v>
       </c>
       <c r="O67" s="7">
-        <f t="shared" ref="O67:O68" si="69">POWER(10,N67)</f>
+        <f t="shared" ref="O67:O68" si="70">POWER(10,N67)</f>
         <v>1E+240</v>
       </c>
       <c r="P67" s="7" t="str">
-        <f t="shared" ref="P67:P68" si="70">RIGHT(O67,N67)</f>
+        <f t="shared" ref="P67:P68" si="71">RIGHT(O67,N67)</f>
         <v>1E+240</v>
       </c>
     </row>
@@ -4885,11 +4944,11 @@
         <v>244</v>
       </c>
       <c r="O68" s="7">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>1.0000000000000001E+244</v>
       </c>
       <c r="P68" s="7" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>1E+244</v>
       </c>
     </row>

--- a/Assets/06.Table/TransTowerTable.xlsx
+++ b/Assets/06.Table/TransTowerTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE7A6C2-0E61-4306-889B-677CF2EAD7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C04A877-0D28-46CB-9BDF-F05BF08F26E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>단위 환산 표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,6 +391,14 @@
   </si>
   <si>
     <t>맥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -977,11 +985,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1148,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="21">
-        <f t="shared" ref="J4:J36" si="0">J3+1000</f>
+        <f t="shared" ref="J4:J37" si="0">J3+1000</f>
         <v>4000</v>
       </c>
       <c r="K4" s="21">
@@ -2469,6 +2477,47 @@
       <c r="L36" s="21">
         <f>VLOOKUP(A36,Balance!E:K,7,FALSE)</f>
         <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="21">
+        <v>35</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="21">
+        <v>9040</v>
+      </c>
+      <c r="D37" s="21">
+        <v>6</v>
+      </c>
+      <c r="E37" s="21">
+        <v>1</v>
+      </c>
+      <c r="F37" s="22">
+        <f>VLOOKUP(A37,Balance!E:J,3,FALSE)</f>
+        <v>1E+248</v>
+      </c>
+      <c r="G37" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H37" s="21">
+        <v>8</v>
+      </c>
+      <c r="I37" s="21">
+        <v>0</v>
+      </c>
+      <c r="J37" s="21">
+        <f t="shared" si="0"/>
+        <v>37000</v>
+      </c>
+      <c r="K37" s="21">
+        <v>9040</v>
+      </c>
+      <c r="L37" s="21">
+        <f>VLOOKUP(A37,Balance!E:K,7,FALSE)</f>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2482,8 +2531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="B23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView topLeftCell="B40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K44" sqref="J44:K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4171,12 +4220,30 @@
       <c r="Y43" s="2"/>
     </row>
     <row r="44" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E44" s="6"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
+      <c r="E44" s="6">
+        <v>35</v>
+      </c>
+      <c r="F44" s="7" t="str">
+        <f t="shared" ref="F44" si="38">H44&amp;I44</f>
+        <v>1토</v>
+      </c>
+      <c r="G44" s="7">
+        <f t="shared" ref="G44" si="39">H44*J44</f>
+        <v>1E+248</v>
+      </c>
+      <c r="H44" s="7">
+        <v>1</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J44" s="6" t="str">
+        <f t="shared" ref="J44" si="40">VLOOKUP(I44,M:P,4,FALSE)</f>
+        <v>1E+248</v>
+      </c>
+      <c r="K44" s="2">
+        <v>36</v>
+      </c>
       <c r="L44" s="17"/>
       <c r="M44" s="6" t="s">
         <v>65</v>
@@ -4185,11 +4252,11 @@
         <v>148</v>
       </c>
       <c r="O44" s="7">
-        <f t="shared" ref="O44" si="38">POWER(10,N44)</f>
+        <f t="shared" ref="O44" si="41">POWER(10,N44)</f>
         <v>1E+148</v>
       </c>
       <c r="P44" s="7" t="str">
-        <f t="shared" ref="P44" si="39">RIGHT(O44,N44)</f>
+        <f t="shared" ref="P44" si="42">RIGHT(O44,N44)</f>
         <v>1E+148</v>
       </c>
       <c r="Q44" s="2"/>
@@ -4217,11 +4284,11 @@
         <v>152</v>
       </c>
       <c r="O45" s="7">
-        <f t="shared" ref="O45" si="40">POWER(10,N45)</f>
+        <f t="shared" ref="O45" si="43">POWER(10,N45)</f>
         <v>1E+152</v>
       </c>
       <c r="P45" s="7" t="str">
-        <f t="shared" ref="P45" si="41">RIGHT(O45,N45)</f>
+        <f t="shared" ref="P45" si="44">RIGHT(O45,N45)</f>
         <v>1E+152</v>
       </c>
       <c r="Q45" s="2"/>
@@ -4249,11 +4316,11 @@
         <v>156</v>
       </c>
       <c r="O46" s="7">
-        <f t="shared" ref="O46" si="42">POWER(10,N46)</f>
+        <f t="shared" ref="O46" si="45">POWER(10,N46)</f>
         <v>9.9999999999999998E+155</v>
       </c>
       <c r="P46" s="7" t="str">
-        <f t="shared" ref="P46" si="43">RIGHT(O46,N46)</f>
+        <f t="shared" ref="P46" si="46">RIGHT(O46,N46)</f>
         <v>1E+156</v>
       </c>
       <c r="Q46" s="2"/>
@@ -4281,11 +4348,11 @@
         <v>160</v>
       </c>
       <c r="O47" s="7">
-        <f t="shared" ref="O47:O48" si="44">POWER(10,N47)</f>
+        <f t="shared" ref="O47:O48" si="47">POWER(10,N47)</f>
         <v>1E+160</v>
       </c>
       <c r="P47" s="7" t="str">
-        <f t="shared" ref="P47:P48" si="45">RIGHT(O47,N47)</f>
+        <f t="shared" ref="P47:P48" si="48">RIGHT(O47,N47)</f>
         <v>1E+160</v>
       </c>
       <c r="Q47" s="2"/>
@@ -4313,11 +4380,11 @@
         <v>164</v>
       </c>
       <c r="O48" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>1E+164</v>
       </c>
       <c r="P48" s="7" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>1E+164</v>
       </c>
       <c r="Q48" s="2"/>
@@ -4345,11 +4412,11 @@
         <v>168</v>
       </c>
       <c r="O49" s="7">
-        <f t="shared" ref="O49" si="46">POWER(10,N49)</f>
+        <f t="shared" ref="O49" si="49">POWER(10,N49)</f>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="P49" s="7" t="str">
-        <f t="shared" ref="P49" si="47">RIGHT(O49,N49)</f>
+        <f t="shared" ref="P49" si="50">RIGHT(O49,N49)</f>
         <v>1E+168</v>
       </c>
       <c r="Q49" s="2"/>
@@ -4377,11 +4444,11 @@
         <v>172</v>
       </c>
       <c r="O50" s="7">
-        <f t="shared" ref="O50:O51" si="48">POWER(10,N50)</f>
+        <f t="shared" ref="O50:O51" si="51">POWER(10,N50)</f>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="P50" s="7" t="str">
-        <f t="shared" ref="P50:P51" si="49">RIGHT(O50,N50)</f>
+        <f t="shared" ref="P50:P51" si="52">RIGHT(O50,N50)</f>
         <v>1E+172</v>
       </c>
       <c r="Q50" s="2"/>
@@ -4409,11 +4476,11 @@
         <v>176</v>
       </c>
       <c r="O51" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>1E+176</v>
       </c>
       <c r="P51" s="7" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>1E+176</v>
       </c>
       <c r="Q51" s="2"/>
@@ -4441,11 +4508,11 @@
         <v>180</v>
       </c>
       <c r="O52" s="7">
-        <f t="shared" ref="O52" si="50">POWER(10,N52)</f>
+        <f t="shared" ref="O52" si="53">POWER(10,N52)</f>
         <v>1E+180</v>
       </c>
       <c r="P52" s="7" t="str">
-        <f t="shared" ref="P52" si="51">RIGHT(O52,N52)</f>
+        <f t="shared" ref="P52" si="54">RIGHT(O52,N52)</f>
         <v>1E+180</v>
       </c>
       <c r="Q52" s="2"/>
@@ -4473,11 +4540,11 @@
         <v>184</v>
       </c>
       <c r="O53" s="7">
-        <f t="shared" ref="O53" si="52">POWER(10,N53)</f>
+        <f t="shared" ref="O53" si="55">POWER(10,N53)</f>
         <v>1E+184</v>
       </c>
       <c r="P53" s="7" t="str">
-        <f t="shared" ref="P53" si="53">RIGHT(O53,N53)</f>
+        <f t="shared" ref="P53" si="56">RIGHT(O53,N53)</f>
         <v>1E+184</v>
       </c>
       <c r="Q53" s="2"/>
@@ -4505,11 +4572,11 @@
         <v>188</v>
       </c>
       <c r="O54" s="7">
-        <f t="shared" ref="O54" si="54">POWER(10,N54)</f>
+        <f t="shared" ref="O54" si="57">POWER(10,N54)</f>
         <v>1E+188</v>
       </c>
       <c r="P54" s="7" t="str">
-        <f t="shared" ref="P54" si="55">RIGHT(O54,N54)</f>
+        <f t="shared" ref="P54" si="58">RIGHT(O54,N54)</f>
         <v>1E+188</v>
       </c>
       <c r="Q54" s="2"/>
@@ -4537,11 +4604,11 @@
         <v>192</v>
       </c>
       <c r="O55" s="7">
-        <f t="shared" ref="O55" si="56">POWER(10,N55)</f>
+        <f t="shared" ref="O55" si="59">POWER(10,N55)</f>
         <v>1E+192</v>
       </c>
       <c r="P55" s="7" t="str">
-        <f t="shared" ref="P55" si="57">RIGHT(O55,N55)</f>
+        <f t="shared" ref="P55" si="60">RIGHT(O55,N55)</f>
         <v>1E+192</v>
       </c>
       <c r="Q55" s="2"/>
@@ -4569,11 +4636,11 @@
         <v>196</v>
       </c>
       <c r="O56" s="7">
-        <f t="shared" ref="O56:O57" si="58">POWER(10,N56)</f>
+        <f t="shared" ref="O56:O57" si="61">POWER(10,N56)</f>
         <v>9.9999999999999995E+195</v>
       </c>
       <c r="P56" s="7" t="str">
-        <f t="shared" ref="P56:P57" si="59">RIGHT(O56,N56)</f>
+        <f t="shared" ref="P56:P57" si="62">RIGHT(O56,N56)</f>
         <v>1E+196</v>
       </c>
       <c r="Q56" s="2"/>
@@ -4601,11 +4668,11 @@
         <v>200</v>
       </c>
       <c r="O57" s="7">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>9.9999999999999997E+199</v>
       </c>
       <c r="P57" s="7" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>1E+200</v>
       </c>
       <c r="Q57" s="2"/>
@@ -4633,11 +4700,11 @@
         <v>204</v>
       </c>
       <c r="O58" s="7">
-        <f t="shared" ref="O58:O59" si="60">POWER(10,N58)</f>
+        <f t="shared" ref="O58:O59" si="63">POWER(10,N58)</f>
         <v>9.9999999999999999E+203</v>
       </c>
       <c r="P58" s="7" t="str">
-        <f t="shared" ref="P58:P59" si="61">RIGHT(O58,N58)</f>
+        <f t="shared" ref="P58:P59" si="64">RIGHT(O58,N58)</f>
         <v>1E+204</v>
       </c>
       <c r="Q58" s="2"/>
@@ -4665,11 +4732,11 @@
         <v>208</v>
       </c>
       <c r="O59" s="7">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>9.9999999999999998E+207</v>
       </c>
       <c r="P59" s="7" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>1E+208</v>
       </c>
       <c r="Q59" s="2"/>
@@ -4697,11 +4764,11 @@
         <v>212</v>
       </c>
       <c r="O60" s="7">
-        <f t="shared" ref="O60" si="62">POWER(10,N60)</f>
+        <f t="shared" ref="O60" si="65">POWER(10,N60)</f>
         <v>9.9999999999999991E+211</v>
       </c>
       <c r="P60" s="7" t="str">
-        <f t="shared" ref="P60" si="63">RIGHT(O60,N60)</f>
+        <f t="shared" ref="P60" si="66">RIGHT(O60,N60)</f>
         <v>1E+212</v>
       </c>
       <c r="Q60" s="2"/>
@@ -4729,11 +4796,11 @@
         <v>216</v>
       </c>
       <c r="O61" s="7">
-        <f t="shared" ref="O61:O62" si="64">POWER(10,N61)</f>
+        <f t="shared" ref="O61:O62" si="67">POWER(10,N61)</f>
         <v>1E+216</v>
       </c>
       <c r="P61" s="7" t="str">
-        <f t="shared" ref="P61:P62" si="65">RIGHT(O61,N61)</f>
+        <f t="shared" ref="P61:P62" si="68">RIGHT(O61,N61)</f>
         <v>1E+216</v>
       </c>
       <c r="Q61" s="2"/>
@@ -4761,11 +4828,11 @@
         <v>220</v>
       </c>
       <c r="O62" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>1E+220</v>
       </c>
       <c r="P62" s="7" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>1E+220</v>
       </c>
       <c r="Q62" s="2"/>
@@ -4793,11 +4860,11 @@
         <v>224</v>
       </c>
       <c r="O63" s="7">
-        <f t="shared" ref="O63:O64" si="66">POWER(10,N63)</f>
+        <f t="shared" ref="O63:O64" si="69">POWER(10,N63)</f>
         <v>9.9999999999999997E+223</v>
       </c>
       <c r="P63" s="7" t="str">
-        <f t="shared" ref="P63:P64" si="67">RIGHT(O63,N63)</f>
+        <f t="shared" ref="P63:P64" si="70">RIGHT(O63,N63)</f>
         <v>1E+224</v>
       </c>
       <c r="Q63" s="2"/>
@@ -4825,11 +4892,11 @@
         <v>228</v>
       </c>
       <c r="O64" s="7">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>9.9999999999999992E+227</v>
       </c>
       <c r="P64" s="7" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>1E+228</v>
       </c>
       <c r="Q64" s="2"/>
@@ -4857,11 +4924,11 @@
         <v>232</v>
       </c>
       <c r="O65" s="7">
-        <f t="shared" ref="O65:O66" si="68">POWER(10,N65)</f>
+        <f t="shared" ref="O65:O66" si="71">POWER(10,N65)</f>
         <v>1.0000000000000001E+232</v>
       </c>
       <c r="P65" s="7" t="str">
-        <f t="shared" ref="P65:P66" si="69">RIGHT(O65,N65)</f>
+        <f t="shared" ref="P65:P66" si="72">RIGHT(O65,N65)</f>
         <v>1E+232</v>
       </c>
       <c r="Q65" s="2"/>
@@ -4889,11 +4956,11 @@
         <v>236</v>
       </c>
       <c r="O66" s="7">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>1.0000000000000001E+236</v>
       </c>
       <c r="P66" s="7" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>1E+236</v>
       </c>
       <c r="Q66" s="2"/>
@@ -4921,11 +4988,11 @@
         <v>240</v>
       </c>
       <c r="O67" s="7">
-        <f t="shared" ref="O67:O68" si="70">POWER(10,N67)</f>
+        <f t="shared" ref="O67:O68" si="73">POWER(10,N67)</f>
         <v>1E+240</v>
       </c>
       <c r="P67" s="7" t="str">
-        <f t="shared" ref="P67:P68" si="71">RIGHT(O67,N67)</f>
+        <f t="shared" ref="P67:P68" si="74">RIGHT(O67,N67)</f>
         <v>1E+240</v>
       </c>
     </row>
@@ -4944,11 +5011,11 @@
         <v>244</v>
       </c>
       <c r="O68" s="7">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1.0000000000000001E+244</v>
       </c>
       <c r="P68" s="7" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>1E+244</v>
       </c>
     </row>
@@ -4960,6 +5027,20 @@
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="L69" s="17"/>
+      <c r="M69" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N69" s="6">
+        <v>248</v>
+      </c>
+      <c r="O69" s="7">
+        <f t="shared" ref="O69:O70" si="75">POWER(10,N69)</f>
+        <v>1E+248</v>
+      </c>
+      <c r="P69" s="7" t="str">
+        <f t="shared" ref="P69:P70" si="76">RIGHT(O69,N69)</f>
+        <v>1E+248</v>
+      </c>
     </row>
     <row r="70" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E70" s="6"/>
@@ -4969,6 +5050,20 @@
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
       <c r="L70" s="17"/>
+      <c r="M70" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N70" s="6">
+        <v>252</v>
+      </c>
+      <c r="O70" s="7">
+        <f t="shared" si="75"/>
+        <v>1.0000000000000001E+252</v>
+      </c>
+      <c r="P70" s="7" t="str">
+        <f t="shared" si="76"/>
+        <v>1E+252</v>
+      </c>
     </row>
     <row r="71" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E71" s="6"/>

--- a/Assets/06.Table/TransTowerTable.xlsx
+++ b/Assets/06.Table/TransTowerTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C04A877-0D28-46CB-9BDF-F05BF08F26E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510D9BFB-8AEA-4FAA-80B1-6873FAD7E4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>단위 환산 표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -985,11 +985,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="21">
-        <f t="shared" ref="J4:J37" si="0">J3+1000</f>
+        <f t="shared" ref="J4:J38" si="0">J3+1000</f>
         <v>4000</v>
       </c>
       <c r="K4" s="21">
@@ -2518,6 +2518,47 @@
       <c r="L37" s="21">
         <f>VLOOKUP(A37,Balance!E:K,7,FALSE)</f>
         <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="21">
+        <v>36</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="21">
+        <v>9040</v>
+      </c>
+      <c r="D38" s="21">
+        <v>6</v>
+      </c>
+      <c r="E38" s="21">
+        <v>1</v>
+      </c>
+      <c r="F38" s="22">
+        <f>VLOOKUP(A38,Balance!E:J,3,FALSE)</f>
+        <v>1.0000000000000001E+252</v>
+      </c>
+      <c r="G38" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H38" s="21">
+        <v>8</v>
+      </c>
+      <c r="I38" s="21">
+        <v>0</v>
+      </c>
+      <c r="J38" s="21">
+        <f t="shared" si="0"/>
+        <v>38000</v>
+      </c>
+      <c r="K38" s="21">
+        <v>9040</v>
+      </c>
+      <c r="L38" s="21">
+        <f>VLOOKUP(A38,Balance!E:K,7,FALSE)</f>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2531,8 +2572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="B40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K44" sqref="J44:K44"/>
+    <sheetView topLeftCell="B39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M69" sqref="M69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4224,11 +4265,11 @@
         <v>35</v>
       </c>
       <c r="F44" s="7" t="str">
-        <f t="shared" ref="F44" si="38">H44&amp;I44</f>
+        <f t="shared" ref="F44:F45" si="38">H44&amp;I44</f>
         <v>1토</v>
       </c>
       <c r="G44" s="7">
-        <f t="shared" ref="G44" si="39">H44*J44</f>
+        <f t="shared" ref="G44:G45" si="39">H44*J44</f>
         <v>1E+248</v>
       </c>
       <c r="H44" s="7">
@@ -4238,7 +4279,7 @@
         <v>90</v>
       </c>
       <c r="J44" s="6" t="str">
-        <f t="shared" ref="J44" si="40">VLOOKUP(I44,M:P,4,FALSE)</f>
+        <f t="shared" ref="J44:J45" si="40">VLOOKUP(I44,M:P,4,FALSE)</f>
         <v>1E+248</v>
       </c>
       <c r="K44" s="2">
@@ -4270,12 +4311,30 @@
       <c r="Y44" s="2"/>
     </row>
     <row r="45" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E45" s="6"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
+      <c r="E45" s="6">
+        <v>36</v>
+      </c>
+      <c r="F45" s="7" t="str">
+        <f t="shared" si="38"/>
+        <v>1산</v>
+      </c>
+      <c r="G45" s="7">
+        <f t="shared" si="39"/>
+        <v>1.0000000000000001E+252</v>
+      </c>
+      <c r="H45" s="7">
+        <v>1</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J45" s="6" t="str">
+        <f t="shared" si="40"/>
+        <v>1E+252</v>
+      </c>
+      <c r="K45" s="2">
+        <v>37</v>
+      </c>
       <c r="L45" s="17"/>
       <c r="M45" s="6" t="s">
         <v>66</v>

--- a/Assets/06.Table/TransTowerTable.xlsx
+++ b/Assets/06.Table/TransTowerTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510D9BFB-8AEA-4FAA-80B1-6873FAD7E4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7145B555-DE83-43D4-8020-439FF5CC18A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="93">
   <si>
     <t>단위 환산 표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -399,6 +399,10 @@
   </si>
   <si>
     <t>산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -985,11 +989,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1156,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="21">
-        <f t="shared" ref="J4:J38" si="0">J3+1000</f>
+        <f t="shared" ref="J4:J39" si="0">J3+1000</f>
         <v>4000</v>
       </c>
       <c r="K4" s="21">
@@ -2559,6 +2563,47 @@
       <c r="L38" s="21">
         <f>VLOOKUP(A38,Balance!E:K,7,FALSE)</f>
         <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="21">
+        <v>37</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="21">
+        <v>9040</v>
+      </c>
+      <c r="D39" s="21">
+        <v>6</v>
+      </c>
+      <c r="E39" s="21">
+        <v>1</v>
+      </c>
+      <c r="F39" s="22">
+        <f>VLOOKUP(A39,Balance!E:J,3,FALSE)</f>
+        <v>1E+256</v>
+      </c>
+      <c r="G39" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H39" s="21">
+        <v>8</v>
+      </c>
+      <c r="I39" s="21">
+        <v>0</v>
+      </c>
+      <c r="J39" s="21">
+        <f t="shared" si="0"/>
+        <v>39000</v>
+      </c>
+      <c r="K39" s="21">
+        <v>9040</v>
+      </c>
+      <c r="L39" s="21">
+        <f>VLOOKUP(A39,Balance!E:K,7,FALSE)</f>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2572,8 +2617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="B39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M69" sqref="M69"/>
+    <sheetView topLeftCell="B35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4265,11 +4310,11 @@
         <v>35</v>
       </c>
       <c r="F44" s="7" t="str">
-        <f t="shared" ref="F44:F45" si="38">H44&amp;I44</f>
+        <f t="shared" ref="F44:F46" si="38">H44&amp;I44</f>
         <v>1토</v>
       </c>
       <c r="G44" s="7">
-        <f t="shared" ref="G44:G45" si="39">H44*J44</f>
+        <f t="shared" ref="G44:G46" si="39">H44*J44</f>
         <v>1E+248</v>
       </c>
       <c r="H44" s="7">
@@ -4279,7 +4324,7 @@
         <v>90</v>
       </c>
       <c r="J44" s="6" t="str">
-        <f t="shared" ref="J44:J45" si="40">VLOOKUP(I44,M:P,4,FALSE)</f>
+        <f t="shared" ref="J44:J46" si="40">VLOOKUP(I44,M:P,4,FALSE)</f>
         <v>1E+248</v>
       </c>
       <c r="K44" s="2">
@@ -4361,12 +4406,30 @@
       <c r="Y45" s="2"/>
     </row>
     <row r="46" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E46" s="6"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
+      <c r="E46" s="6">
+        <v>37</v>
+      </c>
+      <c r="F46" s="7" t="str">
+        <f t="shared" si="38"/>
+        <v>1강</v>
+      </c>
+      <c r="G46" s="7">
+        <f t="shared" si="39"/>
+        <v>1E+256</v>
+      </c>
+      <c r="H46" s="7">
+        <v>1</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J46" s="6" t="str">
+        <f t="shared" si="40"/>
+        <v>1E+256</v>
+      </c>
+      <c r="K46" s="2">
+        <v>38</v>
+      </c>
       <c r="L46" s="17"/>
       <c r="M46" s="6" t="s">
         <v>67</v>
@@ -5132,6 +5195,20 @@
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="L71" s="17"/>
+      <c r="M71" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="N71" s="6">
+        <v>256</v>
+      </c>
+      <c r="O71" s="7">
+        <f t="shared" ref="O71" si="77">POWER(10,N71)</f>
+        <v>1E+256</v>
+      </c>
+      <c r="P71" s="7" t="str">
+        <f t="shared" ref="P71" si="78">RIGHT(O71,N71)</f>
+        <v>1E+256</v>
+      </c>
     </row>
     <row r="72" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E72" s="6"/>

--- a/Assets/06.Table/TransTowerTable.xlsx
+++ b/Assets/06.Table/TransTowerTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7145B555-DE83-43D4-8020-439FF5CC18A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E0FE36-875E-43FB-BBD1-1024F2E1B146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="97">
   <si>
     <t>단위 환산 표</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -403,6 +403,22 @@
   </si>
   <si>
     <t>강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -989,11 +1005,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1160,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="21">
-        <f t="shared" ref="J4:J39" si="0">J3+1000</f>
+        <f t="shared" ref="J4:J42" si="0">J3+1000</f>
         <v>4000</v>
       </c>
       <c r="K4" s="21">
@@ -2604,6 +2620,129 @@
       <c r="L39" s="21">
         <f>VLOOKUP(A39,Balance!E:K,7,FALSE)</f>
         <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="21">
+        <v>38</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="21">
+        <v>9040</v>
+      </c>
+      <c r="D40" s="21">
+        <v>6</v>
+      </c>
+      <c r="E40" s="21">
+        <v>1</v>
+      </c>
+      <c r="F40" s="22">
+        <f>VLOOKUP(A40,Balance!E:J,3,FALSE)</f>
+        <v>1.0000000000000001E+260</v>
+      </c>
+      <c r="G40" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H40" s="21">
+        <v>8</v>
+      </c>
+      <c r="I40" s="21">
+        <v>0</v>
+      </c>
+      <c r="J40" s="21">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="K40" s="21">
+        <v>9040</v>
+      </c>
+      <c r="L40" s="21">
+        <f>VLOOKUP(A40,Balance!E:K,7,FALSE)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="21">
+        <v>39</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="21">
+        <v>9040</v>
+      </c>
+      <c r="D41" s="21">
+        <v>6</v>
+      </c>
+      <c r="E41" s="21">
+        <v>1</v>
+      </c>
+      <c r="F41" s="22">
+        <f>VLOOKUP(A41,Balance!E:J,3,FALSE)</f>
+        <v>1E+264</v>
+      </c>
+      <c r="G41" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H41" s="21">
+        <v>8</v>
+      </c>
+      <c r="I41" s="21">
+        <v>0</v>
+      </c>
+      <c r="J41" s="21">
+        <f t="shared" si="0"/>
+        <v>41000</v>
+      </c>
+      <c r="K41" s="21">
+        <v>9040</v>
+      </c>
+      <c r="L41" s="21">
+        <f>VLOOKUP(A41,Balance!E:K,7,FALSE)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="21">
+        <v>40</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="21">
+        <v>9040</v>
+      </c>
+      <c r="D42" s="21">
+        <v>6</v>
+      </c>
+      <c r="E42" s="21">
+        <v>1</v>
+      </c>
+      <c r="F42" s="22">
+        <f>VLOOKUP(A42,Balance!E:J,3,FALSE)</f>
+        <v>9.9999999999999997E+267</v>
+      </c>
+      <c r="G42" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H42" s="21">
+        <v>8</v>
+      </c>
+      <c r="I42" s="21">
+        <v>0</v>
+      </c>
+      <c r="J42" s="21">
+        <f t="shared" si="0"/>
+        <v>42000</v>
+      </c>
+      <c r="K42" s="21">
+        <v>9040</v>
+      </c>
+      <c r="L42" s="21">
+        <f>VLOOKUP(A42,Balance!E:K,7,FALSE)</f>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2617,8 +2756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView topLeftCell="B35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView topLeftCell="B42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4310,11 +4449,11 @@
         <v>35</v>
       </c>
       <c r="F44" s="7" t="str">
-        <f t="shared" ref="F44:F46" si="38">H44&amp;I44</f>
+        <f t="shared" ref="F44:F47" si="38">H44&amp;I44</f>
         <v>1토</v>
       </c>
       <c r="G44" s="7">
-        <f t="shared" ref="G44:G46" si="39">H44*J44</f>
+        <f t="shared" ref="G44:G47" si="39">H44*J44</f>
         <v>1E+248</v>
       </c>
       <c r="H44" s="7">
@@ -4324,7 +4463,7 @@
         <v>90</v>
       </c>
       <c r="J44" s="6" t="str">
-        <f t="shared" ref="J44:J46" si="40">VLOOKUP(I44,M:P,4,FALSE)</f>
+        <f t="shared" ref="J44:J47" si="40">VLOOKUP(I44,M:P,4,FALSE)</f>
         <v>1E+248</v>
       </c>
       <c r="K44" s="2">
@@ -4456,12 +4595,30 @@
       <c r="Y46" s="2"/>
     </row>
     <row r="47" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E47" s="6"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
+      <c r="E47" s="6">
+        <v>38</v>
+      </c>
+      <c r="F47" s="7" t="str">
+        <f t="shared" si="38"/>
+        <v>1환</v>
+      </c>
+      <c r="G47" s="7">
+        <f t="shared" si="39"/>
+        <v>1.0000000000000001E+260</v>
+      </c>
+      <c r="H47" s="7">
+        <v>1</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J47" s="6" t="str">
+        <f t="shared" si="40"/>
+        <v>1E+260</v>
+      </c>
+      <c r="K47" s="2">
+        <v>39</v>
+      </c>
       <c r="L47" s="17"/>
       <c r="M47" s="6" t="s">
         <v>68</v>
@@ -4488,12 +4645,30 @@
       <c r="Y47" s="2"/>
     </row>
     <row r="48" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E48" s="6"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
+      <c r="E48" s="6">
+        <v>39</v>
+      </c>
+      <c r="F48" s="7" t="str">
+        <f t="shared" ref="F48:F50" si="49">H48&amp;I48</f>
+        <v>1종</v>
+      </c>
+      <c r="G48" s="7">
+        <f t="shared" ref="G48:G50" si="50">H48*J48</f>
+        <v>1E+264</v>
+      </c>
+      <c r="H48" s="7">
+        <v>1</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J48" s="6" t="str">
+        <f t="shared" ref="J48:J50" si="51">VLOOKUP(I48,M:P,4,FALSE)</f>
+        <v>1E+264</v>
+      </c>
+      <c r="K48" s="2">
+        <v>40</v>
+      </c>
       <c r="L48" s="17"/>
       <c r="M48" s="6" t="s">
         <v>69</v>
@@ -4520,12 +4695,30 @@
       <c r="Y48" s="2"/>
     </row>
     <row r="49" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E49" s="6"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
+      <c r="E49" s="6">
+        <v>40</v>
+      </c>
+      <c r="F49" s="7" t="str">
+        <f t="shared" si="49"/>
+        <v>1덕</v>
+      </c>
+      <c r="G49" s="7">
+        <f t="shared" si="50"/>
+        <v>9.9999999999999997E+267</v>
+      </c>
+      <c r="H49" s="7">
+        <v>1</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J49" s="6" t="str">
+        <f t="shared" si="51"/>
+        <v>1E+268</v>
+      </c>
+      <c r="K49" s="2">
+        <v>41</v>
+      </c>
       <c r="L49" s="17"/>
       <c r="M49" s="6" t="s">
         <v>70</v>
@@ -4534,11 +4727,11 @@
         <v>168</v>
       </c>
       <c r="O49" s="7">
-        <f t="shared" ref="O49" si="49">POWER(10,N49)</f>
+        <f t="shared" ref="O49" si="52">POWER(10,N49)</f>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="P49" s="7" t="str">
-        <f t="shared" ref="P49" si="50">RIGHT(O49,N49)</f>
+        <f t="shared" ref="P49" si="53">RIGHT(O49,N49)</f>
         <v>1E+168</v>
       </c>
       <c r="Q49" s="2"/>
@@ -4552,12 +4745,30 @@
       <c r="Y49" s="2"/>
     </row>
     <row r="50" spans="5:25" x14ac:dyDescent="0.3">
-      <c r="E50" s="6"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
+      <c r="E50" s="6">
+        <v>41</v>
+      </c>
+      <c r="F50" s="7" t="str">
+        <f t="shared" si="49"/>
+        <v>1건</v>
+      </c>
+      <c r="G50" s="7">
+        <f t="shared" si="50"/>
+        <v>1.0000000000000001E+272</v>
+      </c>
+      <c r="H50" s="7">
+        <v>1</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J50" s="6" t="str">
+        <f t="shared" si="51"/>
+        <v>1E+272</v>
+      </c>
+      <c r="K50" s="2">
+        <v>42</v>
+      </c>
       <c r="L50" s="17"/>
       <c r="M50" s="6" t="s">
         <v>71</v>
@@ -4566,11 +4777,11 @@
         <v>172</v>
       </c>
       <c r="O50" s="7">
-        <f t="shared" ref="O50:O51" si="51">POWER(10,N50)</f>
+        <f t="shared" ref="O50:O51" si="54">POWER(10,N50)</f>
         <v>1.0000000000000001E+172</v>
       </c>
       <c r="P50" s="7" t="str">
-        <f t="shared" ref="P50:P51" si="52">RIGHT(O50,N50)</f>
+        <f t="shared" ref="P50:P51" si="55">RIGHT(O50,N50)</f>
         <v>1E+172</v>
       </c>
       <c r="Q50" s="2"/>
@@ -4598,11 +4809,11 @@
         <v>176</v>
       </c>
       <c r="O51" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>1E+176</v>
       </c>
       <c r="P51" s="7" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>1E+176</v>
       </c>
       <c r="Q51" s="2"/>
@@ -4630,11 +4841,11 @@
         <v>180</v>
       </c>
       <c r="O52" s="7">
-        <f t="shared" ref="O52" si="53">POWER(10,N52)</f>
+        <f t="shared" ref="O52" si="56">POWER(10,N52)</f>
         <v>1E+180</v>
       </c>
       <c r="P52" s="7" t="str">
-        <f t="shared" ref="P52" si="54">RIGHT(O52,N52)</f>
+        <f t="shared" ref="P52" si="57">RIGHT(O52,N52)</f>
         <v>1E+180</v>
       </c>
       <c r="Q52" s="2"/>
@@ -4662,11 +4873,11 @@
         <v>184</v>
       </c>
       <c r="O53" s="7">
-        <f t="shared" ref="O53" si="55">POWER(10,N53)</f>
+        <f t="shared" ref="O53" si="58">POWER(10,N53)</f>
         <v>1E+184</v>
       </c>
       <c r="P53" s="7" t="str">
-        <f t="shared" ref="P53" si="56">RIGHT(O53,N53)</f>
+        <f t="shared" ref="P53" si="59">RIGHT(O53,N53)</f>
         <v>1E+184</v>
       </c>
       <c r="Q53" s="2"/>
@@ -4694,11 +4905,11 @@
         <v>188</v>
       </c>
       <c r="O54" s="7">
-        <f t="shared" ref="O54" si="57">POWER(10,N54)</f>
+        <f t="shared" ref="O54" si="60">POWER(10,N54)</f>
         <v>1E+188</v>
       </c>
       <c r="P54" s="7" t="str">
-        <f t="shared" ref="P54" si="58">RIGHT(O54,N54)</f>
+        <f t="shared" ref="P54" si="61">RIGHT(O54,N54)</f>
         <v>1E+188</v>
       </c>
       <c r="Q54" s="2"/>
@@ -4726,11 +4937,11 @@
         <v>192</v>
       </c>
       <c r="O55" s="7">
-        <f t="shared" ref="O55" si="59">POWER(10,N55)</f>
+        <f t="shared" ref="O55" si="62">POWER(10,N55)</f>
         <v>1E+192</v>
       </c>
       <c r="P55" s="7" t="str">
-        <f t="shared" ref="P55" si="60">RIGHT(O55,N55)</f>
+        <f t="shared" ref="P55" si="63">RIGHT(O55,N55)</f>
         <v>1E+192</v>
       </c>
       <c r="Q55" s="2"/>
@@ -4758,11 +4969,11 @@
         <v>196</v>
       </c>
       <c r="O56" s="7">
-        <f t="shared" ref="O56:O57" si="61">POWER(10,N56)</f>
+        <f t="shared" ref="O56:O57" si="64">POWER(10,N56)</f>
         <v>9.9999999999999995E+195</v>
       </c>
       <c r="P56" s="7" t="str">
-        <f t="shared" ref="P56:P57" si="62">RIGHT(O56,N56)</f>
+        <f t="shared" ref="P56:P57" si="65">RIGHT(O56,N56)</f>
         <v>1E+196</v>
       </c>
       <c r="Q56" s="2"/>
@@ -4790,11 +5001,11 @@
         <v>200</v>
       </c>
       <c r="O57" s="7">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>9.9999999999999997E+199</v>
       </c>
       <c r="P57" s="7" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>1E+200</v>
       </c>
       <c r="Q57" s="2"/>
@@ -4822,11 +5033,11 @@
         <v>204</v>
       </c>
       <c r="O58" s="7">
-        <f t="shared" ref="O58:O59" si="63">POWER(10,N58)</f>
+        <f t="shared" ref="O58:O59" si="66">POWER(10,N58)</f>
         <v>9.9999999999999999E+203</v>
       </c>
       <c r="P58" s="7" t="str">
-        <f t="shared" ref="P58:P59" si="64">RIGHT(O58,N58)</f>
+        <f t="shared" ref="P58:P59" si="67">RIGHT(O58,N58)</f>
         <v>1E+204</v>
       </c>
       <c r="Q58" s="2"/>
@@ -4854,11 +5065,11 @@
         <v>208</v>
       </c>
       <c r="O59" s="7">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>9.9999999999999998E+207</v>
       </c>
       <c r="P59" s="7" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>1E+208</v>
       </c>
       <c r="Q59" s="2"/>
@@ -4886,11 +5097,11 @@
         <v>212</v>
       </c>
       <c r="O60" s="7">
-        <f t="shared" ref="O60" si="65">POWER(10,N60)</f>
+        <f t="shared" ref="O60" si="68">POWER(10,N60)</f>
         <v>9.9999999999999991E+211</v>
       </c>
       <c r="P60" s="7" t="str">
-        <f t="shared" ref="P60" si="66">RIGHT(O60,N60)</f>
+        <f t="shared" ref="P60" si="69">RIGHT(O60,N60)</f>
         <v>1E+212</v>
       </c>
       <c r="Q60" s="2"/>
@@ -4918,11 +5129,11 @@
         <v>216</v>
       </c>
       <c r="O61" s="7">
-        <f t="shared" ref="O61:O62" si="67">POWER(10,N61)</f>
+        <f t="shared" ref="O61:O62" si="70">POWER(10,N61)</f>
         <v>1E+216</v>
       </c>
       <c r="P61" s="7" t="str">
-        <f t="shared" ref="P61:P62" si="68">RIGHT(O61,N61)</f>
+        <f t="shared" ref="P61:P62" si="71">RIGHT(O61,N61)</f>
         <v>1E+216</v>
       </c>
       <c r="Q61" s="2"/>
@@ -4950,11 +5161,11 @@
         <v>220</v>
       </c>
       <c r="O62" s="7">
-        <f t="shared" si="67"/>
+        <f t="shared" si="70"/>
         <v>1E+220</v>
       </c>
       <c r="P62" s="7" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="71"/>
         <v>1E+220</v>
       </c>
       <c r="Q62" s="2"/>
@@ -4982,11 +5193,11 @@
         <v>224</v>
       </c>
       <c r="O63" s="7">
-        <f t="shared" ref="O63:O64" si="69">POWER(10,N63)</f>
+        <f t="shared" ref="O63:O64" si="72">POWER(10,N63)</f>
         <v>9.9999999999999997E+223</v>
       </c>
       <c r="P63" s="7" t="str">
-        <f t="shared" ref="P63:P64" si="70">RIGHT(O63,N63)</f>
+        <f t="shared" ref="P63:P64" si="73">RIGHT(O63,N63)</f>
         <v>1E+224</v>
       </c>
       <c r="Q63" s="2"/>
@@ -5014,11 +5225,11 @@
         <v>228</v>
       </c>
       <c r="O64" s="7">
-        <f t="shared" si="69"/>
+        <f t="shared" si="72"/>
         <v>9.9999999999999992E+227</v>
       </c>
       <c r="P64" s="7" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1E+228</v>
       </c>
       <c r="Q64" s="2"/>
@@ -5046,11 +5257,11 @@
         <v>232</v>
       </c>
       <c r="O65" s="7">
-        <f t="shared" ref="O65:O66" si="71">POWER(10,N65)</f>
+        <f t="shared" ref="O65:O66" si="74">POWER(10,N65)</f>
         <v>1.0000000000000001E+232</v>
       </c>
       <c r="P65" s="7" t="str">
-        <f t="shared" ref="P65:P66" si="72">RIGHT(O65,N65)</f>
+        <f t="shared" ref="P65:P66" si="75">RIGHT(O65,N65)</f>
         <v>1E+232</v>
       </c>
       <c r="Q65" s="2"/>
@@ -5078,11 +5289,11 @@
         <v>236</v>
       </c>
       <c r="O66" s="7">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>1.0000000000000001E+236</v>
       </c>
       <c r="P66" s="7" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="75"/>
         <v>1E+236</v>
       </c>
       <c r="Q66" s="2"/>
@@ -5110,11 +5321,11 @@
         <v>240</v>
       </c>
       <c r="O67" s="7">
-        <f t="shared" ref="O67:O68" si="73">POWER(10,N67)</f>
+        <f t="shared" ref="O67:O68" si="76">POWER(10,N67)</f>
         <v>1E+240</v>
       </c>
       <c r="P67" s="7" t="str">
-        <f t="shared" ref="P67:P68" si="74">RIGHT(O67,N67)</f>
+        <f t="shared" ref="P67:P68" si="77">RIGHT(O67,N67)</f>
         <v>1E+240</v>
       </c>
     </row>
@@ -5133,11 +5344,11 @@
         <v>244</v>
       </c>
       <c r="O68" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>1.0000000000000001E+244</v>
       </c>
       <c r="P68" s="7" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>1E+244</v>
       </c>
     </row>
@@ -5156,11 +5367,11 @@
         <v>248</v>
       </c>
       <c r="O69" s="7">
-        <f t="shared" ref="O69:O70" si="75">POWER(10,N69)</f>
+        <f t="shared" ref="O69:O70" si="78">POWER(10,N69)</f>
         <v>1E+248</v>
       </c>
       <c r="P69" s="7" t="str">
-        <f t="shared" ref="P69:P70" si="76">RIGHT(O69,N69)</f>
+        <f t="shared" ref="P69:P70" si="79">RIGHT(O69,N69)</f>
         <v>1E+248</v>
       </c>
     </row>
@@ -5179,11 +5390,11 @@
         <v>252</v>
       </c>
       <c r="O70" s="7">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>1.0000000000000001E+252</v>
       </c>
       <c r="P70" s="7" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>1E+252</v>
       </c>
     </row>
@@ -5202,11 +5413,11 @@
         <v>256</v>
       </c>
       <c r="O71" s="7">
-        <f t="shared" ref="O71" si="77">POWER(10,N71)</f>
+        <f t="shared" ref="O71" si="80">POWER(10,N71)</f>
         <v>1E+256</v>
       </c>
       <c r="P71" s="7" t="str">
-        <f t="shared" ref="P71" si="78">RIGHT(O71,N71)</f>
+        <f t="shared" ref="P71" si="81">RIGHT(O71,N71)</f>
         <v>1E+256</v>
       </c>
     </row>
@@ -5218,6 +5429,20 @@
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
       <c r="L72" s="17"/>
+      <c r="M72" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="N72" s="6">
+        <v>260</v>
+      </c>
+      <c r="O72" s="7">
+        <f t="shared" ref="O72:O75" si="82">POWER(10,N72)</f>
+        <v>1.0000000000000001E+260</v>
+      </c>
+      <c r="P72" s="7" t="str">
+        <f t="shared" ref="P72:P75" si="83">RIGHT(O72,N72)</f>
+        <v>1E+260</v>
+      </c>
     </row>
     <row r="73" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E73" s="6"/>
@@ -5227,6 +5452,20 @@
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="L73" s="17"/>
+      <c r="M73" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N73" s="6">
+        <v>264</v>
+      </c>
+      <c r="O73" s="7">
+        <f t="shared" si="82"/>
+        <v>1E+264</v>
+      </c>
+      <c r="P73" s="7" t="str">
+        <f t="shared" si="83"/>
+        <v>1E+264</v>
+      </c>
     </row>
     <row r="74" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E74" s="6"/>
@@ -5236,6 +5475,20 @@
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
       <c r="L74" s="17"/>
+      <c r="M74" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="N74" s="6">
+        <v>268</v>
+      </c>
+      <c r="O74" s="7">
+        <f t="shared" si="82"/>
+        <v>9.9999999999999997E+267</v>
+      </c>
+      <c r="P74" s="7" t="str">
+        <f t="shared" si="83"/>
+        <v>1E+268</v>
+      </c>
     </row>
     <row r="75" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E75" s="6"/>
@@ -5245,6 +5498,20 @@
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="L75" s="17"/>
+      <c r="M75" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N75" s="6">
+        <v>272</v>
+      </c>
+      <c r="O75" s="7">
+        <f t="shared" si="82"/>
+        <v>1.0000000000000001E+272</v>
+      </c>
+      <c r="P75" s="7" t="str">
+        <f t="shared" si="83"/>
+        <v>1E+272</v>
+      </c>
     </row>
     <row r="76" spans="5:25" x14ac:dyDescent="0.3">
       <c r="E76" s="6"/>
